--- a/published-data/fonds-solidarite/fds-2020-11-22/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-11-22/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -430,10 +430,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1450</v>
+        <v>1462</v>
       </c>
       <c r="D2" t="n">
-        <v>2093890</v>
+        <v>2114290</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6425</v>
+        <v>6470</v>
       </c>
       <c r="D3" t="n">
-        <v>9601102</v>
+        <v>9720817</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -526,10 +526,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2270</v>
+        <v>2282</v>
       </c>
       <c r="D4" t="n">
-        <v>3454958</v>
+        <v>3505109</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="D5" t="n">
-        <v>847733</v>
+        <v>852233</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="D8" t="n">
-        <v>1100462</v>
+        <v>1107082</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1348</v>
+        <v>1353</v>
       </c>
       <c r="D9" t="n">
-        <v>1969213</v>
+        <v>1983716</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3939</v>
+        <v>3966</v>
       </c>
       <c r="D10" t="n">
-        <v>5764041</v>
+        <v>5792349</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -862,10 +862,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="D11" t="n">
-        <v>1508900</v>
+        <v>1510898</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -910,10 +910,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D12" t="n">
-        <v>361337</v>
+        <v>363503</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -958,10 +958,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D13" t="n">
-        <v>91172</v>
+        <v>91838</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1054,10 +1054,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2137</v>
+        <v>2146</v>
       </c>
       <c r="D15" t="n">
-        <v>2787323</v>
+        <v>2798158</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2891</v>
+        <v>2907</v>
       </c>
       <c r="D16" t="n">
-        <v>4249240</v>
+        <v>4270833</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4713</v>
+        <v>4733</v>
       </c>
       <c r="D17" t="n">
-        <v>6949550</v>
+        <v>6974696</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1229</v>
+        <v>1235</v>
       </c>
       <c r="D18" t="n">
-        <v>1884032</v>
+        <v>1892418</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1246,10 +1246,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D19" t="n">
-        <v>407936</v>
+        <v>409436</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1294,10 +1294,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D20" t="n">
-        <v>66000</v>
+        <v>69000</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1390,10 +1390,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1960</v>
+        <v>1966</v>
       </c>
       <c r="D22" t="n">
-        <v>2595102</v>
+        <v>2601291</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1438,10 +1438,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>769</v>
+        <v>779</v>
       </c>
       <c r="D23" t="n">
-        <v>1057339</v>
+        <v>1065806</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1486,10 +1486,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2116</v>
+        <v>2125</v>
       </c>
       <c r="D24" t="n">
-        <v>3085382</v>
+        <v>3097756</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1534,10 +1534,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="D25" t="n">
-        <v>834629</v>
+        <v>837293</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1726,10 +1726,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2301</v>
+        <v>2303</v>
       </c>
       <c r="D29" t="n">
-        <v>3203419</v>
+        <v>3205221</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1774,10 +1774,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3636</v>
+        <v>3667</v>
       </c>
       <c r="D30" t="n">
-        <v>5390981</v>
+        <v>5456067</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1822,10 +1822,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>7157</v>
+        <v>7194</v>
       </c>
       <c r="D31" t="n">
-        <v>10652145</v>
+        <v>10731608</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1870,10 +1870,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2172</v>
+        <v>2177</v>
       </c>
       <c r="D32" t="n">
-        <v>3271031</v>
+        <v>3276693</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1918,10 +1918,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="D33" t="n">
-        <v>845723</v>
+        <v>861555</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1966,10 +1966,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D34" t="n">
-        <v>216381</v>
+        <v>218547</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2062,10 +2062,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2825</v>
+        <v>2841</v>
       </c>
       <c r="D36" t="n">
-        <v>3616789</v>
+        <v>3641519</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2110,10 +2110,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1414</v>
+        <v>1430</v>
       </c>
       <c r="D37" t="n">
-        <v>2044743</v>
+        <v>2079569</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2158,10 +2158,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3031</v>
+        <v>3054</v>
       </c>
       <c r="D38" t="n">
-        <v>4501810</v>
+        <v>4547633</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2206,10 +2206,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="D39" t="n">
-        <v>1293320</v>
+        <v>1300977</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2398,10 +2398,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1470</v>
+        <v>1477</v>
       </c>
       <c r="D43" t="n">
-        <v>1985578</v>
+        <v>1990741</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2446,10 +2446,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4609</v>
+        <v>4642</v>
       </c>
       <c r="D44" t="n">
-        <v>6931699</v>
+        <v>7032652</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2494,10 +2494,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>10062</v>
+        <v>10118</v>
       </c>
       <c r="D45" t="n">
-        <v>15093817</v>
+        <v>15223743</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2542,10 +2542,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4053</v>
+        <v>4081</v>
       </c>
       <c r="D46" t="n">
-        <v>6270260</v>
+        <v>6387957</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2590,10 +2590,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1320</v>
+        <v>1330</v>
       </c>
       <c r="D47" t="n">
-        <v>2040271</v>
+        <v>2079973</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2638,10 +2638,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="D48" t="n">
-        <v>735254</v>
+        <v>761419</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2686,10 +2686,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D49" t="n">
-        <v>94908</v>
+        <v>95574</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2734,10 +2734,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5565</v>
+        <v>5589</v>
       </c>
       <c r="D50" t="n">
-        <v>7669408</v>
+        <v>7704998</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>6777</v>
+        <v>6835</v>
       </c>
       <c r="D51" t="n">
-        <v>10111180</v>
+        <v>10268623</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2830,10 +2830,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>15444</v>
+        <v>15571</v>
       </c>
       <c r="D52" t="n">
-        <v>23565501</v>
+        <v>23954357</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2878,10 +2878,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5175</v>
+        <v>5207</v>
       </c>
       <c r="D53" t="n">
-        <v>8027743</v>
+        <v>8156530</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2926,10 +2926,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1462</v>
+        <v>1474</v>
       </c>
       <c r="D54" t="n">
-        <v>2349619</v>
+        <v>2405939</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2974,10 +2974,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D55" t="n">
-        <v>532859</v>
+        <v>548520</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -3118,10 +3118,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>6280</v>
+        <v>6322</v>
       </c>
       <c r="D58" t="n">
-        <v>8645141</v>
+        <v>8719599</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -3166,10 +3166,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3646</v>
+        <v>3671</v>
       </c>
       <c r="D59" t="n">
-        <v>5422762</v>
+        <v>5484602</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3214,10 +3214,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>8857</v>
+        <v>8935</v>
       </c>
       <c r="D60" t="n">
-        <v>13427658</v>
+        <v>13630491</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -3262,10 +3262,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2782</v>
+        <v>2803</v>
       </c>
       <c r="D61" t="n">
-        <v>4389783</v>
+        <v>4444168</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3310,10 +3310,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>742</v>
+        <v>751</v>
       </c>
       <c r="D62" t="n">
-        <v>1205872</v>
+        <v>1251704</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3358,10 +3358,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D63" t="n">
-        <v>362006</v>
+        <v>385006</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -3454,10 +3454,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3734</v>
+        <v>3763</v>
       </c>
       <c r="D65" t="n">
-        <v>4885648</v>
+        <v>4934302</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3031</v>
+        <v>3053</v>
       </c>
       <c r="D66" t="n">
-        <v>4456832</v>
+        <v>4494028</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3550,10 +3550,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>7895</v>
+        <v>7952</v>
       </c>
       <c r="D67" t="n">
-        <v>11871402</v>
+        <v>12023742</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3598,10 +3598,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2640</v>
+        <v>2658</v>
       </c>
       <c r="D68" t="n">
-        <v>4043296</v>
+        <v>4094225</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3646,10 +3646,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>755</v>
+        <v>764</v>
       </c>
       <c r="D69" t="n">
-        <v>1202668</v>
+        <v>1233498</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3694,10 +3694,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D70" t="n">
-        <v>311973</v>
+        <v>316473</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3742,10 +3742,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D71" t="n">
-        <v>30000</v>
+        <v>31500</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3790,10 +3790,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3349</v>
+        <v>3376</v>
       </c>
       <c r="D72" t="n">
-        <v>4457906</v>
+        <v>4527080</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3838,10 +3838,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>10742</v>
+        <v>10827</v>
       </c>
       <c r="D73" t="n">
-        <v>16156973</v>
+        <v>16431577</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3886,10 +3886,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>25870</v>
+        <v>26067</v>
       </c>
       <c r="D74" t="n">
-        <v>39771297</v>
+        <v>40439077</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3934,10 +3934,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>8928</v>
+        <v>9020</v>
       </c>
       <c r="D75" t="n">
-        <v>14319595</v>
+        <v>14677331</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3982,10 +3982,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2592</v>
+        <v>2618</v>
       </c>
       <c r="D76" t="n">
-        <v>4375891</v>
+        <v>4526213</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -4030,10 +4030,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="D77" t="n">
-        <v>1042662</v>
+        <v>1105662</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -4078,10 +4078,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D78" t="n">
-        <v>188916</v>
+        <v>208916</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -4270,10 +4270,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>8603</v>
+        <v>8665</v>
       </c>
       <c r="D82" t="n">
-        <v>11939013</v>
+        <v>12054101</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -4318,10 +4318,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3161</v>
+        <v>3180</v>
       </c>
       <c r="D83" t="n">
-        <v>4713328</v>
+        <v>4767156</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -4366,10 +4366,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>7409</v>
+        <v>7457</v>
       </c>
       <c r="D84" t="n">
-        <v>11202373</v>
+        <v>11376734</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -4414,10 +4414,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3384</v>
+        <v>3419</v>
       </c>
       <c r="D85" t="n">
-        <v>5411206</v>
+        <v>5606781</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1232</v>
+        <v>1241</v>
       </c>
       <c r="D86" t="n">
-        <v>2015069</v>
+        <v>2077872</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -4510,10 +4510,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D87" t="n">
-        <v>699605</v>
+        <v>711771</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -4606,10 +4606,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>7209</v>
+        <v>7241</v>
       </c>
       <c r="D89" t="n">
-        <v>10180424</v>
+        <v>10233954</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -4654,10 +4654,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2232</v>
+        <v>2250</v>
       </c>
       <c r="D90" t="n">
-        <v>3316886</v>
+        <v>3358034</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -4702,10 +4702,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5558</v>
+        <v>5600</v>
       </c>
       <c r="D91" t="n">
-        <v>8398621</v>
+        <v>8527980</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -4750,10 +4750,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1978</v>
+        <v>1999</v>
       </c>
       <c r="D92" t="n">
-        <v>3050965</v>
+        <v>3093644</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -4798,10 +4798,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="D93" t="n">
-        <v>868215</v>
+        <v>900703</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -4846,10 +4846,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D94" t="n">
-        <v>189837</v>
+        <v>194835</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -4942,10 +4942,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2173</v>
+        <v>2186</v>
       </c>
       <c r="D96" t="n">
-        <v>2852266</v>
+        <v>2873957</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -4990,10 +4990,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1938</v>
+        <v>1953</v>
       </c>
       <c r="D97" t="n">
-        <v>2832089</v>
+        <v>2874354</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -5038,10 +5038,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4969</v>
+        <v>4998</v>
       </c>
       <c r="D98" t="n">
-        <v>7285922</v>
+        <v>7320974</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -5086,10 +5086,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1716</v>
+        <v>1728</v>
       </c>
       <c r="D99" t="n">
-        <v>2559726</v>
+        <v>2588965</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -5134,10 +5134,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="D100" t="n">
-        <v>767558</v>
+        <v>773390</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -5182,10 +5182,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D101" t="n">
-        <v>182565</v>
+        <v>184065</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -5326,10 +5326,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>1701</v>
+        <v>1709</v>
       </c>
       <c r="D104" t="n">
-        <v>2283448</v>
+        <v>2292948</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -5374,10 +5374,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="D105" t="n">
-        <v>1126314</v>
+        <v>1133718</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -5422,10 +5422,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>1911</v>
+        <v>1921</v>
       </c>
       <c r="D106" t="n">
-        <v>2828263</v>
+        <v>2845095</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -5470,10 +5470,10 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="D107" t="n">
-        <v>833421</v>
+        <v>839722</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -5614,10 +5614,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>949</v>
+        <v>955</v>
       </c>
       <c r="D110" t="n">
-        <v>1194381</v>
+        <v>1200766</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -5662,10 +5662,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>1259</v>
+        <v>1263</v>
       </c>
       <c r="D111" t="n">
-        <v>1835342</v>
+        <v>1838563</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -5710,10 +5710,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>2956</v>
+        <v>2970</v>
       </c>
       <c r="D112" t="n">
-        <v>4368705</v>
+        <v>4396097</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -5758,10 +5758,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="D113" t="n">
-        <v>1287102</v>
+        <v>1298602</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -5806,10 +5806,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D114" t="n">
-        <v>389685</v>
+        <v>412685</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -5950,10 +5950,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>1094</v>
+        <v>1104</v>
       </c>
       <c r="D117" t="n">
-        <v>1439578</v>
+        <v>1461479</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -5998,10 +5998,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="D118" t="n">
-        <v>1200008</v>
+        <v>1206831</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -6046,10 +6046,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>2124</v>
+        <v>2143</v>
       </c>
       <c r="D119" t="n">
-        <v>3101825</v>
+        <v>3119031</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -6094,10 +6094,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="D120" t="n">
-        <v>937307</v>
+        <v>950355</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -6190,10 +6190,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D122" t="n">
-        <v>61834</v>
+        <v>63334</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -6238,10 +6238,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>1002</v>
+        <v>1009</v>
       </c>
       <c r="D123" t="n">
-        <v>1300901</v>
+        <v>1310084</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -6286,10 +6286,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>2277</v>
+        <v>2300</v>
       </c>
       <c r="D124" t="n">
-        <v>3380257</v>
+        <v>3423059</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -6334,10 +6334,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>6385</v>
+        <v>6432</v>
       </c>
       <c r="D125" t="n">
-        <v>9576306</v>
+        <v>9683471</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -6382,10 +6382,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>1895</v>
+        <v>1906</v>
       </c>
       <c r="D126" t="n">
-        <v>2916395</v>
+        <v>2954251</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -6430,10 +6430,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D127" t="n">
-        <v>658605</v>
+        <v>663105</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -6574,10 +6574,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>2764</v>
+        <v>2779</v>
       </c>
       <c r="D130" t="n">
-        <v>3722916</v>
+        <v>3753725</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -6622,10 +6622,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D131" t="n">
-        <v>635534</v>
+        <v>636496</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -6670,10 +6670,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>1258</v>
+        <v>1266</v>
       </c>
       <c r="D132" t="n">
-        <v>1847224</v>
+        <v>1863433</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -6862,10 +6862,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D136" t="n">
-        <v>495101</v>
+        <v>495848</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -6910,10 +6910,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>1250</v>
+        <v>1261</v>
       </c>
       <c r="D137" t="n">
-        <v>1826723</v>
+        <v>1852255</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -6958,10 +6958,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>3636</v>
+        <v>3654</v>
       </c>
       <c r="D138" t="n">
-        <v>5379942</v>
+        <v>5421877</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -7006,10 +7006,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>1038</v>
+        <v>1045</v>
       </c>
       <c r="D139" t="n">
-        <v>1581999</v>
+        <v>1599331</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -7054,10 +7054,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D140" t="n">
-        <v>421730</v>
+        <v>434730</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -7102,10 +7102,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D141" t="n">
-        <v>56959</v>
+        <v>62072</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -7198,10 +7198,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>1274</v>
+        <v>1282</v>
       </c>
       <c r="D143" t="n">
-        <v>1671731</v>
+        <v>1683738</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -7246,10 +7246,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>2911</v>
+        <v>2922</v>
       </c>
       <c r="D144" t="n">
-        <v>4224123</v>
+        <v>4238381</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -7294,10 +7294,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>6611</v>
+        <v>6652</v>
       </c>
       <c r="D145" t="n">
-        <v>9691311</v>
+        <v>9731688</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -7342,10 +7342,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>1838</v>
+        <v>1850</v>
       </c>
       <c r="D146" t="n">
-        <v>2771823</v>
+        <v>2804524</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -7390,10 +7390,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D147" t="n">
-        <v>654182</v>
+        <v>655682</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -7438,10 +7438,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D148" t="n">
-        <v>75666</v>
+        <v>76332</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -7534,10 +7534,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>2611</v>
+        <v>2619</v>
       </c>
       <c r="D150" t="n">
-        <v>3388466</v>
+        <v>3395312</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -7582,10 +7582,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>3981</v>
+        <v>4007</v>
       </c>
       <c r="D151" t="n">
-        <v>5744916</v>
+        <v>5780110</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -7630,10 +7630,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>8920</v>
+        <v>8967</v>
       </c>
       <c r="D152" t="n">
-        <v>13057727</v>
+        <v>13118748</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -7678,10 +7678,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>3107</v>
+        <v>3124</v>
       </c>
       <c r="D153" t="n">
-        <v>4620831</v>
+        <v>4635489</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -7726,10 +7726,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="D154" t="n">
-        <v>1175210</v>
+        <v>1180035</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -7822,10 +7822,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D156" t="n">
-        <v>24666</v>
+        <v>26832</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -7870,10 +7870,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>3401</v>
+        <v>3413</v>
       </c>
       <c r="D157" t="n">
-        <v>4514890</v>
+        <v>4524377</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -7918,10 +7918,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>3918</v>
+        <v>3946</v>
       </c>
       <c r="D158" t="n">
-        <v>5768502</v>
+        <v>5807670</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -7966,10 +7966,10 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>10673</v>
+        <v>10771</v>
       </c>
       <c r="D159" t="n">
-        <v>16003322</v>
+        <v>16202296</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -8014,10 +8014,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>3501</v>
+        <v>3526</v>
       </c>
       <c r="D160" t="n">
-        <v>5390035</v>
+        <v>5455741</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -8062,10 +8062,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>1095</v>
+        <v>1105</v>
       </c>
       <c r="D161" t="n">
-        <v>1750152</v>
+        <v>1787013</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -8110,10 +8110,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D162" t="n">
-        <v>441975</v>
+        <v>457807</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -8158,10 +8158,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D163" t="n">
-        <v>43493</v>
+        <v>52385</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -8206,10 +8206,10 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>3542</v>
+        <v>3569</v>
       </c>
       <c r="D164" t="n">
-        <v>4742828</v>
+        <v>4771413</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -8254,10 +8254,10 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>4183</v>
+        <v>4207</v>
       </c>
       <c r="D165" t="n">
-        <v>6064642</v>
+        <v>6109591</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -8302,10 +8302,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>8566</v>
+        <v>8619</v>
       </c>
       <c r="D166" t="n">
-        <v>12593765</v>
+        <v>12665260</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -8350,10 +8350,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>2769</v>
+        <v>2789</v>
       </c>
       <c r="D167" t="n">
-        <v>4151170</v>
+        <v>4188531</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -8398,10 +8398,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="D168" t="n">
-        <v>1007260</v>
+        <v>1022924</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -8446,10 +8446,10 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D169" t="n">
-        <v>201821</v>
+        <v>202487</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -8542,10 +8542,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>3285</v>
+        <v>3294</v>
       </c>
       <c r="D171" t="n">
-        <v>4399188</v>
+        <v>4411872</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -8590,10 +8590,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="D172" t="n">
-        <v>1441735</v>
+        <v>1443835</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -8638,10 +8638,10 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>2787</v>
+        <v>2804</v>
       </c>
       <c r="D173" t="n">
-        <v>4089556</v>
+        <v>4123858</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -8686,10 +8686,10 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>905</v>
+        <v>913</v>
       </c>
       <c r="D174" t="n">
-        <v>1381202</v>
+        <v>1397021</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -8734,10 +8734,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D175" t="n">
-        <v>413000</v>
+        <v>414500</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -8782,10 +8782,10 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D176" t="n">
-        <v>67553</v>
+        <v>68885</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -8878,10 +8878,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>1288</v>
+        <v>1291</v>
       </c>
       <c r="D178" t="n">
-        <v>1659500</v>
+        <v>1661053</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -8926,10 +8926,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>1340</v>
+        <v>1348</v>
       </c>
       <c r="D179" t="n">
-        <v>1969948</v>
+        <v>1986672</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -8974,10 +8974,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>3917</v>
+        <v>3941</v>
       </c>
       <c r="D180" t="n">
-        <v>5844576</v>
+        <v>5896288</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -9022,10 +9022,10 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>1267</v>
+        <v>1277</v>
       </c>
       <c r="D181" t="n">
-        <v>1910429</v>
+        <v>1939416</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -9070,10 +9070,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D182" t="n">
-        <v>506821</v>
+        <v>510652</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -9118,10 +9118,10 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D183" t="n">
-        <v>85666</v>
+        <v>87166</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -9214,10 +9214,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>1266</v>
+        <v>1275</v>
       </c>
       <c r="D185" t="n">
-        <v>1697949</v>
+        <v>1713989</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -9262,10 +9262,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="D186" t="n">
-        <v>1003461</v>
+        <v>1009461</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -9310,10 +9310,10 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>2141</v>
+        <v>2157</v>
       </c>
       <c r="D187" t="n">
-        <v>3134244</v>
+        <v>3160165</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -9358,10 +9358,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="D188" t="n">
-        <v>1064857</v>
+        <v>1078180</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -9502,10 +9502,10 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>981</v>
+        <v>986</v>
       </c>
       <c r="D191" t="n">
-        <v>1227811</v>
+        <v>1232898</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -9550,10 +9550,10 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>2555</v>
+        <v>2569</v>
       </c>
       <c r="D192" t="n">
-        <v>3739906</v>
+        <v>3778603</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -9598,10 +9598,10 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>6504</v>
+        <v>6562</v>
       </c>
       <c r="D193" t="n">
-        <v>9767818</v>
+        <v>9917075</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -9646,10 +9646,10 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>2239</v>
+        <v>2262</v>
       </c>
       <c r="D194" t="n">
-        <v>3421387</v>
+        <v>3444581</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -9694,10 +9694,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="D195" t="n">
-        <v>955502</v>
+        <v>958334</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -9742,10 +9742,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D196" t="n">
-        <v>212036</v>
+        <v>214034</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -9838,10 +9838,10 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>2409</v>
+        <v>2415</v>
       </c>
       <c r="D198" t="n">
-        <v>3247607</v>
+        <v>3259518</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -9886,10 +9886,10 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>2123</v>
+        <v>2142</v>
       </c>
       <c r="D199" t="n">
-        <v>3162091</v>
+        <v>3205796</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -9934,10 +9934,10 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>6339</v>
+        <v>6393</v>
       </c>
       <c r="D200" t="n">
-        <v>9519258</v>
+        <v>9617985</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -9982,10 +9982,10 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>2346</v>
+        <v>2364</v>
       </c>
       <c r="D201" t="n">
-        <v>3595868</v>
+        <v>3639523</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -10030,10 +10030,10 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="D202" t="n">
-        <v>844237</v>
+        <v>850115</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -10078,10 +10078,10 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D203" t="n">
-        <v>206987</v>
+        <v>208319</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -10174,10 +10174,10 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>2114</v>
+        <v>2131</v>
       </c>
       <c r="D205" t="n">
-        <v>2774644</v>
+        <v>2797310</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -10222,10 +10222,10 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>1157</v>
+        <v>1163</v>
       </c>
       <c r="D206" t="n">
-        <v>1686764</v>
+        <v>1691071</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -10270,10 +10270,10 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>3504</v>
+        <v>3536</v>
       </c>
       <c r="D207" t="n">
-        <v>5179114</v>
+        <v>5227568</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -10318,10 +10318,10 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>1153</v>
+        <v>1160</v>
       </c>
       <c r="D208" t="n">
-        <v>1731195</v>
+        <v>1742261</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -10366,10 +10366,10 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D209" t="n">
-        <v>362899</v>
+        <v>364399</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -10414,10 +10414,10 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D210" t="n">
-        <v>93666</v>
+        <v>94332</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -10510,10 +10510,10 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>1228</v>
+        <v>1232</v>
       </c>
       <c r="D212" t="n">
-        <v>1634878</v>
+        <v>1638745</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -10558,10 +10558,10 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>1160</v>
+        <v>1165</v>
       </c>
       <c r="D213" t="n">
-        <v>1685615</v>
+        <v>1692281</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -10606,10 +10606,10 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>4253</v>
+        <v>4275</v>
       </c>
       <c r="D214" t="n">
-        <v>6358949</v>
+        <v>6416036</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -10654,10 +10654,10 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>2102</v>
+        <v>2114</v>
       </c>
       <c r="D215" t="n">
-        <v>3232064</v>
+        <v>3272039</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -10702,10 +10702,10 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D216" t="n">
-        <v>861304</v>
+        <v>862804</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -10750,10 +10750,10 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D217" t="n">
-        <v>213928</v>
+        <v>226928</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -10846,10 +10846,10 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>927</v>
+        <v>932</v>
       </c>
       <c r="D219" t="n">
-        <v>1234578</v>
+        <v>1241108</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -10894,10 +10894,10 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>2680</v>
+        <v>2699</v>
       </c>
       <c r="D220" t="n">
-        <v>3975553</v>
+        <v>4033705</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -10942,10 +10942,10 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>4732</v>
+        <v>4752</v>
       </c>
       <c r="D221" t="n">
-        <v>7122172</v>
+        <v>7193200</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -10990,10 +10990,10 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>1412</v>
+        <v>1421</v>
       </c>
       <c r="D222" t="n">
-        <v>2139397</v>
+        <v>2152393</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -11038,10 +11038,10 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D223" t="n">
-        <v>517912</v>
+        <v>519412</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -11134,10 +11134,10 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>1947</v>
+        <v>1958</v>
       </c>
       <c r="D225" t="n">
-        <v>2663941</v>
+        <v>2677617</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -11182,10 +11182,10 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>833</v>
+        <v>842</v>
       </c>
       <c r="D226" t="n">
-        <v>1209571</v>
+        <v>1225214</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -11230,10 +11230,10 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>2510</v>
+        <v>2530</v>
       </c>
       <c r="D227" t="n">
-        <v>3724177</v>
+        <v>3793460</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -11278,10 +11278,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="D228" t="n">
-        <v>1152512</v>
+        <v>1153325</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -11326,10 +11326,10 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D229" t="n">
-        <v>379928</v>
+        <v>390594</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -11374,10 +11374,10 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D230" t="n">
-        <v>69000</v>
+        <v>70500</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -11470,10 +11470,10 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>1066</v>
+        <v>1074</v>
       </c>
       <c r="D232" t="n">
-        <v>1358349</v>
+        <v>1364377</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -11518,10 +11518,10 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>1072</v>
+        <v>1079</v>
       </c>
       <c r="D233" t="n">
-        <v>1555558</v>
+        <v>1565355</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -11566,10 +11566,10 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>2960</v>
+        <v>2985</v>
       </c>
       <c r="D234" t="n">
-        <v>4395863</v>
+        <v>4451021</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -11614,10 +11614,10 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>918</v>
+        <v>925</v>
       </c>
       <c r="D235" t="n">
-        <v>1394630</v>
+        <v>1402628</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -11710,10 +11710,10 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D237" t="n">
-        <v>97139</v>
+        <v>98639</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -11758,10 +11758,10 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>1071</v>
+        <v>1078</v>
       </c>
       <c r="D238" t="n">
-        <v>1455249</v>
+        <v>1470204</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -11806,10 +11806,10 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>4592</v>
+        <v>4631</v>
       </c>
       <c r="D239" t="n">
-        <v>6792480</v>
+        <v>6874970</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -11854,10 +11854,10 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>13869</v>
+        <v>13979</v>
       </c>
       <c r="D240" t="n">
-        <v>20725099</v>
+        <v>20935686</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -11902,10 +11902,10 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>5276</v>
+        <v>5324</v>
       </c>
       <c r="D241" t="n">
-        <v>7984321</v>
+        <v>8113320</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -11950,10 +11950,10 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>1707</v>
+        <v>1723</v>
       </c>
       <c r="D242" t="n">
-        <v>2566608</v>
+        <v>2594437</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -11998,10 +11998,10 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="D243" t="n">
-        <v>657914</v>
+        <v>669074</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -12046,10 +12046,10 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D244" t="n">
-        <v>95332</v>
+        <v>105332</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -12094,10 +12094,10 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>3967</v>
+        <v>3991</v>
       </c>
       <c r="D245" t="n">
-        <v>5391704</v>
+        <v>5443586</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -12142,10 +12142,10 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D246" t="n">
-        <v>826641</v>
+        <v>833707</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -12190,10 +12190,10 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>1515</v>
+        <v>1520</v>
       </c>
       <c r="D247" t="n">
-        <v>2192559</v>
+        <v>2196906</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -12238,10 +12238,10 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="D248" t="n">
-        <v>741495</v>
+        <v>747327</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -12286,10 +12286,10 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D249" t="n">
-        <v>230528</v>
+        <v>232028</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -12430,10 +12430,10 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="D252" t="n">
-        <v>840066</v>
+        <v>842817</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -12478,10 +12478,10 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>3041</v>
+        <v>3059</v>
       </c>
       <c r="D253" t="n">
-        <v>4490322</v>
+        <v>4530870</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -12526,10 +12526,10 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>8700</v>
+        <v>8749</v>
       </c>
       <c r="D254" t="n">
-        <v>12883075</v>
+        <v>12960988</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
@@ -12574,10 +12574,10 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>3480</v>
+        <v>3492</v>
       </c>
       <c r="D255" t="n">
-        <v>5224767</v>
+        <v>5252068</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -12622,10 +12622,10 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>969</v>
+        <v>975</v>
       </c>
       <c r="D256" t="n">
-        <v>1482534</v>
+        <v>1496698</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -12670,10 +12670,10 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D257" t="n">
-        <v>432062</v>
+        <v>435062</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -12862,10 +12862,10 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>2313</v>
+        <v>2323</v>
       </c>
       <c r="D261" t="n">
-        <v>3000247</v>
+        <v>3011072</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -12910,10 +12910,10 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>2005</v>
+        <v>2020</v>
       </c>
       <c r="D262" t="n">
-        <v>2966699</v>
+        <v>2985987</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -12958,10 +12958,10 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>5657</v>
+        <v>5711</v>
       </c>
       <c r="D263" t="n">
-        <v>8549497</v>
+        <v>8686510</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -13006,10 +13006,10 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>2013</v>
+        <v>2027</v>
       </c>
       <c r="D264" t="n">
-        <v>3122986</v>
+        <v>3153317</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -13054,10 +13054,10 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="D265" t="n">
-        <v>1010547</v>
+        <v>1024814</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -13102,10 +13102,10 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D266" t="n">
-        <v>255662</v>
+        <v>263828</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -13150,10 +13150,10 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D267" t="n">
-        <v>20166</v>
+        <v>21666</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -13198,10 +13198,10 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>2278</v>
+        <v>2295</v>
       </c>
       <c r="D268" t="n">
-        <v>3005509</v>
+        <v>3034774</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -13246,10 +13246,10 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>2083</v>
+        <v>2098</v>
       </c>
       <c r="D269" t="n">
-        <v>3123078</v>
+        <v>3164716</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -13294,10 +13294,10 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>6190</v>
+        <v>6228</v>
       </c>
       <c r="D270" t="n">
-        <v>9213646</v>
+        <v>9299089</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -13342,10 +13342,10 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>2088</v>
+        <v>2103</v>
       </c>
       <c r="D271" t="n">
-        <v>3121375</v>
+        <v>3145034</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -13390,10 +13390,10 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="D272" t="n">
-        <v>868242</v>
+        <v>869574</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -13438,10 +13438,10 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D273" t="n">
-        <v>298923</v>
+        <v>308923</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
@@ -13534,10 +13534,10 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>2478</v>
+        <v>2490</v>
       </c>
       <c r="D275" t="n">
-        <v>3312188</v>
+        <v>3326825</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -13582,10 +13582,10 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="D276" t="n">
-        <v>846568</v>
+        <v>851068</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -13630,10 +13630,10 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>1548</v>
+        <v>1561</v>
       </c>
       <c r="D277" t="n">
-        <v>2248940</v>
+        <v>2269941</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -13678,10 +13678,10 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D278" t="n">
-        <v>709854</v>
+        <v>712854</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -13822,10 +13822,10 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="D281" t="n">
-        <v>886653</v>
+        <v>892653</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -13870,10 +13870,10 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>2941</v>
+        <v>2957</v>
       </c>
       <c r="D282" t="n">
-        <v>4327320</v>
+        <v>4371517</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -13918,10 +13918,10 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>9338</v>
+        <v>9376</v>
       </c>
       <c r="D283" t="n">
-        <v>13731370</v>
+        <v>13817625</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -13966,10 +13966,10 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>3828</v>
+        <v>3843</v>
       </c>
       <c r="D284" t="n">
-        <v>5706452</v>
+        <v>5731574</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -14014,10 +14014,10 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="D285" t="n">
-        <v>1750596</v>
+        <v>1752762</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -14062,10 +14062,10 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D286" t="n">
-        <v>321818</v>
+        <v>323318</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -14206,10 +14206,10 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>2647</v>
+        <v>2659</v>
       </c>
       <c r="D289" t="n">
-        <v>3509481</v>
+        <v>3519748</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -14254,10 +14254,10 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>1815</v>
+        <v>1836</v>
       </c>
       <c r="D290" t="n">
-        <v>2627026</v>
+        <v>2648063</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -14302,10 +14302,10 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>4382</v>
+        <v>4414</v>
       </c>
       <c r="D291" t="n">
-        <v>6463173</v>
+        <v>6527002</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -14350,10 +14350,10 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>1381</v>
+        <v>1391</v>
       </c>
       <c r="D292" t="n">
-        <v>2055272</v>
+        <v>2067811</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -14398,10 +14398,10 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D293" t="n">
-        <v>606329</v>
+        <v>607661</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -14446,10 +14446,10 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D294" t="n">
-        <v>126083</v>
+        <v>126749</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -14542,10 +14542,10 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>1805</v>
+        <v>1812</v>
       </c>
       <c r="D296" t="n">
-        <v>2381533</v>
+        <v>2398394</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
@@ -14590,10 +14590,10 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>2453</v>
+        <v>2464</v>
       </c>
       <c r="D297" t="n">
-        <v>3638508</v>
+        <v>3669324</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
@@ -14638,10 +14638,10 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>8205</v>
+        <v>8246</v>
       </c>
       <c r="D298" t="n">
-        <v>12276953</v>
+        <v>12394528</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -14686,10 +14686,10 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>2757</v>
+        <v>2771</v>
       </c>
       <c r="D299" t="n">
-        <v>4266341</v>
+        <v>4328590</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -14734,10 +14734,10 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="D300" t="n">
-        <v>1348873</v>
+        <v>1367798</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -14782,10 +14782,10 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D301" t="n">
-        <v>388110</v>
+        <v>414110</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
@@ -14830,10 +14830,10 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D302" t="n">
-        <v>56000</v>
+        <v>66000</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
@@ -14878,10 +14878,10 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>8138</v>
+        <v>8161</v>
       </c>
       <c r="D303" t="n">
-        <v>11262785</v>
+        <v>11297552</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
@@ -14926,10 +14926,10 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>1705</v>
+        <v>1708</v>
       </c>
       <c r="D304" t="n">
-        <v>3488870</v>
+        <v>3512193</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -14974,10 +14974,10 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>4055</v>
+        <v>4061</v>
       </c>
       <c r="D305" t="n">
-        <v>8256020</v>
+        <v>8294542</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -15022,10 +15022,10 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>1609</v>
+        <v>1615</v>
       </c>
       <c r="D306" t="n">
-        <v>3292997</v>
+        <v>3324997</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -15070,10 +15070,10 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D307" t="n">
-        <v>1087847</v>
+        <v>1092845</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
@@ -15214,10 +15214,10 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>2644</v>
+        <v>2650</v>
       </c>
       <c r="D310" t="n">
-        <v>4990157</v>
+        <v>5023301</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
@@ -15262,10 +15262,10 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>1345</v>
+        <v>1358</v>
       </c>
       <c r="D311" t="n">
-        <v>1978123</v>
+        <v>1998725</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -15310,10 +15310,10 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>3979</v>
+        <v>4000</v>
       </c>
       <c r="D312" t="n">
-        <v>5903415</v>
+        <v>5949119</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
@@ -15358,10 +15358,10 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>1488</v>
+        <v>1500</v>
       </c>
       <c r="D313" t="n">
-        <v>2225277</v>
+        <v>2246262</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -15406,10 +15406,10 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D314" t="n">
-        <v>542886</v>
+        <v>545718</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -15598,10 +15598,10 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>1596</v>
+        <v>1614</v>
       </c>
       <c r="D318" t="n">
-        <v>2131032</v>
+        <v>2155976</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
@@ -15646,10 +15646,10 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>8279</v>
+        <v>8357</v>
       </c>
       <c r="D319" t="n">
-        <v>12418607</v>
+        <v>12632999</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
@@ -15694,10 +15694,10 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>22486</v>
+        <v>22680</v>
       </c>
       <c r="D320" t="n">
-        <v>34323475</v>
+        <v>34864795</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
@@ -15742,10 +15742,10 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>7992</v>
+        <v>8052</v>
       </c>
       <c r="D321" t="n">
-        <v>12584661</v>
+        <v>12812442</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -15790,10 +15790,10 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>2444</v>
+        <v>2465</v>
       </c>
       <c r="D322" t="n">
-        <v>3907766</v>
+        <v>3984826</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -15838,10 +15838,10 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="D323" t="n">
-        <v>1076309</v>
+        <v>1111307</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
@@ -15886,10 +15886,10 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D324" t="n">
-        <v>119166</v>
+        <v>130666</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
@@ -15934,10 +15934,10 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D325" t="n">
-        <v>2453</v>
+        <v>3119</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -16030,10 +16030,10 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>6942</v>
+        <v>6983</v>
       </c>
       <c r="D327" t="n">
-        <v>9185526</v>
+        <v>9236187</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -16078,10 +16078,10 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>2407</v>
+        <v>2429</v>
       </c>
       <c r="D328" t="n">
-        <v>3601318</v>
+        <v>3658910</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -16126,10 +16126,10 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>7394</v>
+        <v>7450</v>
       </c>
       <c r="D329" t="n">
-        <v>11124566</v>
+        <v>11263797</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
@@ -16174,10 +16174,10 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>2530</v>
+        <v>2547</v>
       </c>
       <c r="D330" t="n">
-        <v>3911411</v>
+        <v>3967556</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
@@ -16222,10 +16222,10 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="D331" t="n">
-        <v>1085828</v>
+        <v>1101751</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -16270,10 +16270,10 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D332" t="n">
-        <v>262425</v>
+        <v>273925</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -16318,10 +16318,10 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D333" t="n">
-        <v>9666</v>
+        <v>11166</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
@@ -16366,10 +16366,10 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>2192</v>
+        <v>2201</v>
       </c>
       <c r="D334" t="n">
-        <v>2983539</v>
+        <v>2998210</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
@@ -16414,10 +16414,10 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>4097</v>
+        <v>4118</v>
       </c>
       <c r="D335" t="n">
-        <v>5973555</v>
+        <v>5999167</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
@@ -16462,10 +16462,10 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>11839</v>
+        <v>11917</v>
       </c>
       <c r="D336" t="n">
-        <v>17671610</v>
+        <v>17858405</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
@@ -16510,10 +16510,10 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>3786</v>
+        <v>3806</v>
       </c>
       <c r="D337" t="n">
-        <v>5752534</v>
+        <v>5830039</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
@@ -16558,10 +16558,10 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>1210</v>
+        <v>1222</v>
       </c>
       <c r="D338" t="n">
-        <v>1869411</v>
+        <v>1921072</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
@@ -16606,10 +16606,10 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D339" t="n">
-        <v>368582</v>
+        <v>382248</v>
       </c>
       <c r="E339" t="inlineStr">
         <is>
@@ -16654,10 +16654,10 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D340" t="n">
-        <v>52832</v>
+        <v>62832</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
@@ -16750,10 +16750,10 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>4183</v>
+        <v>4214</v>
       </c>
       <c r="D342" t="n">
-        <v>5432582</v>
+        <v>5463979</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
@@ -16798,10 +16798,10 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>1668</v>
+        <v>1676</v>
       </c>
       <c r="D343" t="n">
-        <v>2443091</v>
+        <v>2458974</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
@@ -16846,10 +16846,10 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>4690</v>
+        <v>4715</v>
       </c>
       <c r="D344" t="n">
-        <v>6893632</v>
+        <v>6930513</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
@@ -16894,10 +16894,10 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>1774</v>
+        <v>1782</v>
       </c>
       <c r="D345" t="n">
-        <v>2650384</v>
+        <v>2659882</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
@@ -16942,10 +16942,10 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D346" t="n">
-        <v>641087</v>
+        <v>642419</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
@@ -17086,10 +17086,10 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>1822</v>
+        <v>1830</v>
       </c>
       <c r="D349" t="n">
-        <v>2324864</v>
+        <v>2330861</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
@@ -17134,10 +17134,10 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>4528</v>
+        <v>4564</v>
       </c>
       <c r="D350" t="n">
-        <v>6902043</v>
+        <v>7011681</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
@@ -17182,10 +17182,10 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>12313</v>
+        <v>12409</v>
       </c>
       <c r="D351" t="n">
-        <v>18941184</v>
+        <v>19238249</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
@@ -17230,10 +17230,10 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>4494</v>
+        <v>4517</v>
       </c>
       <c r="D352" t="n">
-        <v>6961909</v>
+        <v>7048131</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
@@ -17278,10 +17278,10 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>1346</v>
+        <v>1354</v>
       </c>
       <c r="D353" t="n">
-        <v>2124839</v>
+        <v>2144828</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
@@ -17326,10 +17326,10 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D354" t="n">
-        <v>486570</v>
+        <v>490401</v>
       </c>
       <c r="E354" t="inlineStr">
         <is>
@@ -17518,10 +17518,10 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>4216</v>
+        <v>4261</v>
       </c>
       <c r="D358" t="n">
-        <v>5924930</v>
+        <v>6031103</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
@@ -17566,10 +17566,10 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>8672</v>
+        <v>8770</v>
       </c>
       <c r="D359" t="n">
-        <v>13490783</v>
+        <v>13828675</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
@@ -17614,10 +17614,10 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>19846</v>
+        <v>20083</v>
       </c>
       <c r="D360" t="n">
-        <v>31034849</v>
+        <v>31767607</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
@@ -17662,10 +17662,10 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>8435</v>
+        <v>8534</v>
       </c>
       <c r="D361" t="n">
-        <v>13460911</v>
+        <v>13850403</v>
       </c>
       <c r="E361" t="inlineStr">
         <is>
@@ -17710,10 +17710,10 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>2563</v>
+        <v>2592</v>
       </c>
       <c r="D362" t="n">
-        <v>4274517</v>
+        <v>4446635</v>
       </c>
       <c r="E362" t="inlineStr">
         <is>
@@ -17758,10 +17758,10 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="D363" t="n">
-        <v>1248299</v>
+        <v>1282950</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
@@ -17806,10 +17806,10 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D364" t="n">
-        <v>127447</v>
+        <v>137770</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
@@ -17902,10 +17902,10 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>7359</v>
+        <v>7447</v>
       </c>
       <c r="D366" t="n">
-        <v>10138989</v>
+        <v>10294105</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
@@ -17950,10 +17950,10 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>24781</v>
+        <v>25066</v>
       </c>
       <c r="D367" t="n">
-        <v>38579336</v>
+        <v>39663827</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
@@ -17998,10 +17998,10 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>65343</v>
+        <v>66061</v>
       </c>
       <c r="D368" t="n">
-        <v>103664037</v>
+        <v>106500773</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
@@ -18046,10 +18046,10 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>31254</v>
+        <v>31643</v>
       </c>
       <c r="D369" t="n">
-        <v>52700339</v>
+        <v>54753745</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
@@ -18094,10 +18094,10 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>11902</v>
+        <v>12056</v>
       </c>
       <c r="D370" t="n">
-        <v>21291042</v>
+        <v>22195883</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
@@ -18142,10 +18142,10 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>3684</v>
+        <v>3767</v>
       </c>
       <c r="D371" t="n">
-        <v>7491488</v>
+        <v>8032239</v>
       </c>
       <c r="E371" t="inlineStr">
         <is>
@@ -18190,10 +18190,10 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="D372" t="n">
-        <v>979778</v>
+        <v>1054100</v>
       </c>
       <c r="E372" t="inlineStr">
         <is>
@@ -18430,10 +18430,10 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>24040</v>
+        <v>24279</v>
       </c>
       <c r="D377" t="n">
-        <v>33055331</v>
+        <v>33612974</v>
       </c>
       <c r="E377" t="inlineStr">
         <is>
@@ -18478,10 +18478,10 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>5454</v>
+        <v>5505</v>
       </c>
       <c r="D378" t="n">
-        <v>8329431</v>
+        <v>8492053</v>
       </c>
       <c r="E378" t="inlineStr">
         <is>
@@ -18526,10 +18526,10 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>14389</v>
+        <v>14529</v>
       </c>
       <c r="D379" t="n">
-        <v>22159905</v>
+        <v>22644806</v>
       </c>
       <c r="E379" t="inlineStr">
         <is>
@@ -18574,10 +18574,10 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>5259</v>
+        <v>5293</v>
       </c>
       <c r="D380" t="n">
-        <v>8215776</v>
+        <v>8361780</v>
       </c>
       <c r="E380" t="inlineStr">
         <is>
@@ -18622,10 +18622,10 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>1625</v>
+        <v>1636</v>
       </c>
       <c r="D381" t="n">
-        <v>2557628</v>
+        <v>2598794</v>
       </c>
       <c r="E381" t="inlineStr">
         <is>
@@ -18670,10 +18670,10 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D382" t="n">
-        <v>604746</v>
+        <v>609912</v>
       </c>
       <c r="E382" t="inlineStr">
         <is>
@@ -18718,10 +18718,10 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D383" t="n">
-        <v>19666</v>
+        <v>20332</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
@@ -18766,10 +18766,10 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>5634</v>
+        <v>5718</v>
       </c>
       <c r="D384" t="n">
-        <v>7783512</v>
+        <v>7948654</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
@@ -18814,10 +18814,10 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>7452</v>
+        <v>7565</v>
       </c>
       <c r="D385" t="n">
-        <v>11477559</v>
+        <v>11854836</v>
       </c>
       <c r="E385" t="inlineStr">
         <is>
@@ -18862,10 +18862,10 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>24008</v>
+        <v>24257</v>
       </c>
       <c r="D386" t="n">
-        <v>37162778</v>
+        <v>38054565</v>
       </c>
       <c r="E386" t="inlineStr">
         <is>
@@ -18910,10 +18910,10 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>10401</v>
+        <v>10487</v>
       </c>
       <c r="D387" t="n">
-        <v>16363753</v>
+        <v>16744916</v>
       </c>
       <c r="E387" t="inlineStr">
         <is>
@@ -18958,10 +18958,10 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>2852</v>
+        <v>2869</v>
       </c>
       <c r="D388" t="n">
-        <v>4515558</v>
+        <v>4581210</v>
       </c>
       <c r="E388" t="inlineStr">
         <is>
@@ -19006,10 +19006,10 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>796</v>
+        <v>816</v>
       </c>
       <c r="D389" t="n">
-        <v>1409108</v>
+        <v>1524754</v>
       </c>
       <c r="E389" t="inlineStr">
         <is>
@@ -19054,10 +19054,10 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D390" t="n">
-        <v>80283</v>
+        <v>85611</v>
       </c>
       <c r="E390" t="inlineStr">
         <is>
@@ -19150,10 +19150,10 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>7652</v>
+        <v>7762</v>
       </c>
       <c r="D392" t="n">
-        <v>10530540</v>
+        <v>10744888</v>
       </c>
       <c r="E392" t="inlineStr">
         <is>
@@ -19198,10 +19198,10 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>6342</v>
+        <v>6424</v>
       </c>
       <c r="D393" t="n">
-        <v>9766195</v>
+        <v>10036823</v>
       </c>
       <c r="E393" t="inlineStr">
         <is>
@@ -19246,10 +19246,10 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>17229</v>
+        <v>17422</v>
       </c>
       <c r="D394" t="n">
-        <v>26630888</v>
+        <v>27240867</v>
       </c>
       <c r="E394" t="inlineStr">
         <is>
@@ -19294,10 +19294,10 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>6684</v>
+        <v>6736</v>
       </c>
       <c r="D395" t="n">
-        <v>10526063</v>
+        <v>10756286</v>
       </c>
       <c r="E395" t="inlineStr">
         <is>
@@ -19342,10 +19342,10 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>1968</v>
+        <v>1979</v>
       </c>
       <c r="D396" t="n">
-        <v>3184811</v>
+        <v>3225864</v>
       </c>
       <c r="E396" t="inlineStr">
         <is>
@@ -19390,10 +19390,10 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="D397" t="n">
-        <v>878372</v>
+        <v>901474</v>
       </c>
       <c r="E397" t="inlineStr">
         <is>
@@ -19582,10 +19582,10 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>6710</v>
+        <v>6816</v>
       </c>
       <c r="D401" t="n">
-        <v>9201642</v>
+        <v>9378206</v>
       </c>
       <c r="E401" t="inlineStr">
         <is>
@@ -19630,10 +19630,10 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>4737</v>
+        <v>4785</v>
       </c>
       <c r="D402" t="n">
-        <v>7202288</v>
+        <v>7330301</v>
       </c>
       <c r="E402" t="inlineStr">
         <is>
@@ -19678,10 +19678,10 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>14039</v>
+        <v>14168</v>
       </c>
       <c r="D403" t="n">
-        <v>21879844</v>
+        <v>22306858</v>
       </c>
       <c r="E403" t="inlineStr">
         <is>
@@ -19726,10 +19726,10 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>5489</v>
+        <v>5538</v>
       </c>
       <c r="D404" t="n">
-        <v>8529064</v>
+        <v>8751154</v>
       </c>
       <c r="E404" t="inlineStr">
         <is>
@@ -19774,10 +19774,10 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>1598</v>
+        <v>1608</v>
       </c>
       <c r="D405" t="n">
-        <v>2473377</v>
+        <v>2485875</v>
       </c>
       <c r="E405" t="inlineStr">
         <is>
@@ -19822,10 +19822,10 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="D406" t="n">
-        <v>616365</v>
+        <v>650011</v>
       </c>
       <c r="E406" t="inlineStr">
         <is>
@@ -19870,10 +19870,10 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D407" t="n">
-        <v>60500</v>
+        <v>62000</v>
       </c>
       <c r="E407" t="inlineStr">
         <is>
@@ -19966,10 +19966,10 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>5021</v>
+        <v>5096</v>
       </c>
       <c r="D409" t="n">
-        <v>6824362</v>
+        <v>6951135</v>
       </c>
       <c r="E409" t="inlineStr">
         <is>
@@ -20014,10 +20014,10 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>5015</v>
+        <v>5060</v>
       </c>
       <c r="D410" t="n">
-        <v>7668756</v>
+        <v>7781090</v>
       </c>
       <c r="E410" t="inlineStr">
         <is>
@@ -20062,10 +20062,10 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>13019</v>
+        <v>13143</v>
       </c>
       <c r="D411" t="n">
-        <v>20001432</v>
+        <v>20382826</v>
       </c>
       <c r="E411" t="inlineStr">
         <is>
@@ -20110,10 +20110,10 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>4916</v>
+        <v>4962</v>
       </c>
       <c r="D412" t="n">
-        <v>7712497</v>
+        <v>7868140</v>
       </c>
       <c r="E412" t="inlineStr">
         <is>
@@ -20158,10 +20158,10 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>1607</v>
+        <v>1632</v>
       </c>
       <c r="D413" t="n">
-        <v>2555529</v>
+        <v>2652827</v>
       </c>
       <c r="E413" t="inlineStr">
         <is>
@@ -20206,10 +20206,10 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="D414" t="n">
-        <v>623627</v>
+        <v>671454</v>
       </c>
       <c r="E414" t="inlineStr">
         <is>
@@ -20302,10 +20302,10 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>4911</v>
+        <v>4951</v>
       </c>
       <c r="D416" t="n">
-        <v>6827953</v>
+        <v>6904320</v>
       </c>
       <c r="E416" t="inlineStr">
         <is>
@@ -20350,10 +20350,10 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>5290</v>
+        <v>5304</v>
       </c>
       <c r="D417" t="n">
-        <v>7714661</v>
+        <v>7751296</v>
       </c>
       <c r="E417" t="inlineStr">
         <is>
@@ -20398,10 +20398,10 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>12925</v>
+        <v>12948</v>
       </c>
       <c r="D418" t="n">
-        <v>19205161</v>
+        <v>19281008</v>
       </c>
       <c r="E418" t="inlineStr">
         <is>
@@ -20446,10 +20446,10 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>4201</v>
+        <v>4210</v>
       </c>
       <c r="D419" t="n">
-        <v>6327098</v>
+        <v>6357598</v>
       </c>
       <c r="E419" t="inlineStr">
         <is>
@@ -20494,10 +20494,10 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>1484</v>
+        <v>1487</v>
       </c>
       <c r="D420" t="n">
-        <v>2217111</v>
+        <v>2221611</v>
       </c>
       <c r="E420" t="inlineStr">
         <is>
@@ -20542,10 +20542,10 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D421" t="n">
-        <v>569012</v>
+        <v>570512</v>
       </c>
       <c r="E421" t="inlineStr">
         <is>
@@ -20686,10 +20686,10 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>6007</v>
+        <v>6026</v>
       </c>
       <c r="D424" t="n">
-        <v>8066412</v>
+        <v>8099791</v>
       </c>
       <c r="E424" t="inlineStr">
         <is>
@@ -20734,10 +20734,10 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>1908</v>
+        <v>1920</v>
       </c>
       <c r="D425" t="n">
-        <v>2797218</v>
+        <v>2820495</v>
       </c>
       <c r="E425" t="inlineStr">
         <is>
@@ -20782,10 +20782,10 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>6079</v>
+        <v>6109</v>
       </c>
       <c r="D426" t="n">
-        <v>9157889</v>
+        <v>9230878</v>
       </c>
       <c r="E426" t="inlineStr">
         <is>
@@ -20830,10 +20830,10 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>2170</v>
+        <v>2176</v>
       </c>
       <c r="D427" t="n">
-        <v>3299523</v>
+        <v>3324357</v>
       </c>
       <c r="E427" t="inlineStr">
         <is>
@@ -20878,10 +20878,10 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D428" t="n">
-        <v>1216117</v>
+        <v>1217957</v>
       </c>
       <c r="E428" t="inlineStr">
         <is>
@@ -20926,10 +20926,10 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D429" t="n">
-        <v>389436</v>
+        <v>399597</v>
       </c>
       <c r="E429" t="inlineStr">
         <is>
@@ -21070,10 +21070,10 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>4113</v>
+        <v>4139</v>
       </c>
       <c r="D432" t="n">
-        <v>5478283</v>
+        <v>5533699</v>
       </c>
       <c r="E432" t="inlineStr">
         <is>
@@ -21118,10 +21118,10 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="D433" t="n">
-        <v>1857288</v>
+        <v>1863288</v>
       </c>
       <c r="E433" t="inlineStr">
         <is>
@@ -21166,10 +21166,10 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="D434" t="n">
-        <v>1326948</v>
+        <v>1356212</v>
       </c>
       <c r="E434" t="inlineStr">
         <is>
@@ -21358,10 +21358,10 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D438" t="n">
-        <v>15495</v>
+        <v>20490</v>
       </c>
       <c r="E438" t="inlineStr">
         <is>
@@ -21406,10 +21406,10 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>3581</v>
+        <v>3611</v>
       </c>
       <c r="D439" t="n">
-        <v>5363700</v>
+        <v>5418908</v>
       </c>
       <c r="E439" t="inlineStr">
         <is>
@@ -21454,10 +21454,10 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>8111</v>
+        <v>8164</v>
       </c>
       <c r="D440" t="n">
-        <v>12152712</v>
+        <v>12316233</v>
       </c>
       <c r="E440" t="inlineStr">
         <is>
@@ -21502,10 +21502,10 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>2730</v>
+        <v>2747</v>
       </c>
       <c r="D441" t="n">
-        <v>4227629</v>
+        <v>4285198</v>
       </c>
       <c r="E441" t="inlineStr">
         <is>
@@ -21550,10 +21550,10 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>821</v>
+        <v>836</v>
       </c>
       <c r="D442" t="n">
-        <v>1312784</v>
+        <v>1370762</v>
       </c>
       <c r="E442" t="inlineStr">
         <is>
@@ -21598,10 +21598,10 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D443" t="n">
-        <v>274886</v>
+        <v>279884</v>
       </c>
       <c r="E443" t="inlineStr">
         <is>
@@ -21646,10 +21646,10 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D444" t="n">
-        <v>34500</v>
+        <v>36000</v>
       </c>
       <c r="E444" t="inlineStr">
         <is>
@@ -21694,10 +21694,10 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>2668</v>
+        <v>2682</v>
       </c>
       <c r="D445" t="n">
-        <v>3578137</v>
+        <v>3601194</v>
       </c>
       <c r="E445" t="inlineStr">
         <is>
@@ -21742,10 +21742,10 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>2044</v>
+        <v>2066</v>
       </c>
       <c r="D446" t="n">
-        <v>3101214</v>
+        <v>3173855</v>
       </c>
       <c r="E446" t="inlineStr">
         <is>
@@ -21790,10 +21790,10 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>5412</v>
+        <v>5430</v>
       </c>
       <c r="D447" t="n">
-        <v>8107499</v>
+        <v>8161463</v>
       </c>
       <c r="E447" t="inlineStr">
         <is>
@@ -21838,10 +21838,10 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>1768</v>
+        <v>1777</v>
       </c>
       <c r="D448" t="n">
-        <v>2671920</v>
+        <v>2688885</v>
       </c>
       <c r="E448" t="inlineStr">
         <is>
@@ -21886,10 +21886,10 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D449" t="n">
-        <v>675582</v>
+        <v>683244</v>
       </c>
       <c r="E449" t="inlineStr">
         <is>
@@ -21934,10 +21934,10 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D450" t="n">
-        <v>105666</v>
+        <v>107166</v>
       </c>
       <c r="E450" t="inlineStr">
         <is>
@@ -22078,10 +22078,10 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>1870</v>
+        <v>1878</v>
       </c>
       <c r="D453" t="n">
-        <v>2450948</v>
+        <v>2455401</v>
       </c>
       <c r="E453" t="inlineStr">
         <is>
@@ -22126,10 +22126,10 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>2280</v>
+        <v>2303</v>
       </c>
       <c r="D454" t="n">
-        <v>3369566</v>
+        <v>3432490</v>
       </c>
       <c r="E454" t="inlineStr">
         <is>
@@ -22174,10 +22174,10 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>5315</v>
+        <v>5345</v>
       </c>
       <c r="D455" t="n">
-        <v>7855348</v>
+        <v>7924329</v>
       </c>
       <c r="E455" t="inlineStr">
         <is>
@@ -22222,10 +22222,10 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>1659</v>
+        <v>1667</v>
       </c>
       <c r="D456" t="n">
-        <v>2503665</v>
+        <v>2510639</v>
       </c>
       <c r="E456" t="inlineStr">
         <is>
@@ -22270,10 +22270,10 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="D457" t="n">
-        <v>737322</v>
+        <v>743154</v>
       </c>
       <c r="E457" t="inlineStr">
         <is>
@@ -22318,10 +22318,10 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D458" t="n">
-        <v>125538</v>
+        <v>136527</v>
       </c>
       <c r="E458" t="inlineStr">
         <is>
@@ -22462,10 +22462,10 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>1787</v>
+        <v>1793</v>
       </c>
       <c r="D461" t="n">
-        <v>2337657</v>
+        <v>2353990</v>
       </c>
       <c r="E461" t="inlineStr">
         <is>
@@ -22510,10 +22510,10 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>1065</v>
+        <v>1073</v>
       </c>
       <c r="D462" t="n">
-        <v>1550908</v>
+        <v>1560278</v>
       </c>
       <c r="E462" t="inlineStr">
         <is>
@@ -22558,10 +22558,10 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>2923</v>
+        <v>2936</v>
       </c>
       <c r="D463" t="n">
-        <v>4290415</v>
+        <v>4299641</v>
       </c>
       <c r="E463" t="inlineStr">
         <is>
@@ -22606,10 +22606,10 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="D464" t="n">
-        <v>1264482</v>
+        <v>1268148</v>
       </c>
       <c r="E464" t="inlineStr">
         <is>
@@ -22750,10 +22750,10 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>1164</v>
+        <v>1168</v>
       </c>
       <c r="D467" t="n">
-        <v>1566409</v>
+        <v>1569669</v>
       </c>
       <c r="E467" t="inlineStr">
         <is>
@@ -22798,10 +22798,10 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>3522</v>
+        <v>3545</v>
       </c>
       <c r="D468" t="n">
-        <v>5262733</v>
+        <v>5307663</v>
       </c>
       <c r="E468" t="inlineStr">
         <is>
@@ -22846,10 +22846,10 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>10488</v>
+        <v>10566</v>
       </c>
       <c r="D469" t="n">
-        <v>15890807</v>
+        <v>16074012</v>
       </c>
       <c r="E469" t="inlineStr">
         <is>
@@ -22894,10 +22894,10 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>3789</v>
+        <v>3817</v>
       </c>
       <c r="D470" t="n">
-        <v>5786643</v>
+        <v>5852158</v>
       </c>
       <c r="E470" t="inlineStr">
         <is>
@@ -22942,10 +22942,10 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>1065</v>
+        <v>1078</v>
       </c>
       <c r="D471" t="n">
-        <v>1636512</v>
+        <v>1658533</v>
       </c>
       <c r="E471" t="inlineStr">
         <is>
@@ -22990,10 +22990,10 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D472" t="n">
-        <v>430729</v>
+        <v>454395</v>
       </c>
       <c r="E472" t="inlineStr">
         <is>
@@ -23038,10 +23038,10 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D473" t="n">
-        <v>108830</v>
+        <v>142994</v>
       </c>
       <c r="E473" t="inlineStr">
         <is>
@@ -23086,10 +23086,10 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>3317</v>
+        <v>3335</v>
       </c>
       <c r="D474" t="n">
-        <v>4336043</v>
+        <v>4364112</v>
       </c>
       <c r="E474" t="inlineStr">
         <is>
@@ -23134,10 +23134,10 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>1388</v>
+        <v>1398</v>
       </c>
       <c r="D475" t="n">
-        <v>2006535</v>
+        <v>2025788</v>
       </c>
       <c r="E475" t="inlineStr">
         <is>
@@ -23182,10 +23182,10 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>3537</v>
+        <v>3558</v>
       </c>
       <c r="D476" t="n">
-        <v>5189548</v>
+        <v>5230937</v>
       </c>
       <c r="E476" t="inlineStr">
         <is>
@@ -23230,10 +23230,10 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="D477" t="n">
-        <v>1685941</v>
+        <v>1687273</v>
       </c>
       <c r="E477" t="inlineStr">
         <is>
@@ -23278,10 +23278,10 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D478" t="n">
-        <v>538077</v>
+        <v>541077</v>
       </c>
       <c r="E478" t="inlineStr">
         <is>
@@ -23326,10 +23326,10 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D479" t="n">
-        <v>87666</v>
+        <v>89166</v>
       </c>
       <c r="E479" t="inlineStr">
         <is>
@@ -23422,10 +23422,10 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>1509</v>
+        <v>1516</v>
       </c>
       <c r="D481" t="n">
-        <v>1914015</v>
+        <v>1923485</v>
       </c>
       <c r="E481" t="inlineStr">
         <is>
@@ -23470,10 +23470,10 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>4914</v>
+        <v>4944</v>
       </c>
       <c r="D482" t="n">
-        <v>7225241</v>
+        <v>7295359</v>
       </c>
       <c r="E482" t="inlineStr">
         <is>
@@ -23518,10 +23518,10 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>8868</v>
+        <v>8919</v>
       </c>
       <c r="D483" t="n">
-        <v>13071444</v>
+        <v>13175652</v>
       </c>
       <c r="E483" t="inlineStr">
         <is>
@@ -23566,10 +23566,10 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>2573</v>
+        <v>2585</v>
       </c>
       <c r="D484" t="n">
-        <v>3833081</v>
+        <v>3846300</v>
       </c>
       <c r="E484" t="inlineStr">
         <is>
@@ -23614,10 +23614,10 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="D485" t="n">
-        <v>1038081</v>
+        <v>1043247</v>
       </c>
       <c r="E485" t="inlineStr">
         <is>
@@ -23758,10 +23758,10 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>2990</v>
+        <v>3002</v>
       </c>
       <c r="D488" t="n">
-        <v>3983174</v>
+        <v>4011260</v>
       </c>
       <c r="E488" t="inlineStr">
         <is>
@@ -23806,10 +23806,10 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>1197</v>
+        <v>1211</v>
       </c>
       <c r="D489" t="n">
-        <v>1748499</v>
+        <v>1767813</v>
       </c>
       <c r="E489" t="inlineStr">
         <is>
@@ -23854,10 +23854,10 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>2820</v>
+        <v>2833</v>
       </c>
       <c r="D490" t="n">
-        <v>4139664</v>
+        <v>4160684</v>
       </c>
       <c r="E490" t="inlineStr">
         <is>
@@ -23902,10 +23902,10 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="D491" t="n">
-        <v>1253388</v>
+        <v>1261036</v>
       </c>
       <c r="E491" t="inlineStr">
         <is>
@@ -23950,10 +23950,10 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D492" t="n">
-        <v>369608</v>
+        <v>370274</v>
       </c>
       <c r="E492" t="inlineStr">
         <is>
@@ -24094,10 +24094,10 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>1531</v>
+        <v>1538</v>
       </c>
       <c r="D495" t="n">
-        <v>2032034</v>
+        <v>2040905</v>
       </c>
       <c r="E495" t="inlineStr">
         <is>
@@ -24142,10 +24142,10 @@
         </is>
       </c>
       <c r="C496" t="n">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D496" t="n">
-        <v>641500</v>
+        <v>646150</v>
       </c>
       <c r="E496" t="inlineStr">
         <is>
@@ -24190,10 +24190,10 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="D497" t="n">
-        <v>1718770</v>
+        <v>1720435</v>
       </c>
       <c r="E497" t="inlineStr">
         <is>
@@ -24238,10 +24238,10 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D498" t="n">
-        <v>575586</v>
+        <v>576918</v>
       </c>
       <c r="E498" t="inlineStr">
         <is>
@@ -24430,10 +24430,10 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="D502" t="n">
-        <v>860343</v>
+        <v>869221</v>
       </c>
       <c r="E502" t="inlineStr">
         <is>
@@ -24478,10 +24478,10 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>1063</v>
+        <v>1074</v>
       </c>
       <c r="D503" t="n">
-        <v>1557835</v>
+        <v>1573389</v>
       </c>
       <c r="E503" t="inlineStr">
         <is>
@@ -24526,10 +24526,10 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>3159</v>
+        <v>3179</v>
       </c>
       <c r="D504" t="n">
-        <v>4683772</v>
+        <v>4712155</v>
       </c>
       <c r="E504" t="inlineStr">
         <is>
@@ -24574,10 +24574,10 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>1071</v>
+        <v>1083</v>
       </c>
       <c r="D505" t="n">
-        <v>1604315</v>
+        <v>1616739</v>
       </c>
       <c r="E505" t="inlineStr">
         <is>
@@ -24622,10 +24622,10 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D506" t="n">
-        <v>424274</v>
+        <v>425606</v>
       </c>
       <c r="E506" t="inlineStr">
         <is>
@@ -24670,10 +24670,10 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D507" t="n">
-        <v>141066</v>
+        <v>143232</v>
       </c>
       <c r="E507" t="inlineStr">
         <is>
@@ -24718,10 +24718,10 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>1146</v>
+        <v>1150</v>
       </c>
       <c r="D508" t="n">
-        <v>1545592</v>
+        <v>1546921</v>
       </c>
       <c r="E508" t="inlineStr">
         <is>
@@ -24766,10 +24766,10 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>3202</v>
+        <v>3216</v>
       </c>
       <c r="D509" t="n">
-        <v>4637540</v>
+        <v>4656548</v>
       </c>
       <c r="E509" t="inlineStr">
         <is>
@@ -24814,10 +24814,10 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>5832</v>
+        <v>5857</v>
       </c>
       <c r="D510" t="n">
-        <v>8618758</v>
+        <v>8663605</v>
       </c>
       <c r="E510" t="inlineStr">
         <is>
@@ -24862,10 +24862,10 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>1648</v>
+        <v>1653</v>
       </c>
       <c r="D511" t="n">
-        <v>2443569</v>
+        <v>2448757</v>
       </c>
       <c r="E511" t="inlineStr">
         <is>
@@ -24910,10 +24910,10 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D512" t="n">
-        <v>578504</v>
+        <v>581168</v>
       </c>
       <c r="E512" t="inlineStr">
         <is>
@@ -25054,10 +25054,10 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>2587</v>
+        <v>2592</v>
       </c>
       <c r="D515" t="n">
-        <v>3393017</v>
+        <v>3397635</v>
       </c>
       <c r="E515" t="inlineStr">
         <is>
@@ -25102,10 +25102,10 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>10204</v>
+        <v>10260</v>
       </c>
       <c r="D516" t="n">
-        <v>15105454</v>
+        <v>15279978</v>
       </c>
       <c r="E516" t="inlineStr">
         <is>
@@ -25150,10 +25150,10 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>21041</v>
+        <v>21163</v>
       </c>
       <c r="D517" t="n">
-        <v>31616781</v>
+        <v>31877221</v>
       </c>
       <c r="E517" t="inlineStr">
         <is>
@@ -25198,10 +25198,10 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>7116</v>
+        <v>7162</v>
       </c>
       <c r="D518" t="n">
-        <v>10877922</v>
+        <v>11001726</v>
       </c>
       <c r="E518" t="inlineStr">
         <is>
@@ -25246,10 +25246,10 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>2255</v>
+        <v>2260</v>
       </c>
       <c r="D519" t="n">
-        <v>3493336</v>
+        <v>3508502</v>
       </c>
       <c r="E519" t="inlineStr">
         <is>
@@ -25294,10 +25294,10 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="D520" t="n">
-        <v>899124</v>
+        <v>926611</v>
       </c>
       <c r="E520" t="inlineStr">
         <is>
@@ -25342,10 +25342,10 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D521" t="n">
-        <v>94832</v>
+        <v>104832</v>
       </c>
       <c r="E521" t="inlineStr">
         <is>
@@ -25486,10 +25486,10 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>7519</v>
+        <v>7550</v>
       </c>
       <c r="D524" t="n">
-        <v>10217549</v>
+        <v>10271734</v>
       </c>
       <c r="E524" t="inlineStr">
         <is>
@@ -25534,10 +25534,10 @@
         </is>
       </c>
       <c r="C525" t="n">
-        <v>1503</v>
+        <v>1514</v>
       </c>
       <c r="D525" t="n">
-        <v>2174641</v>
+        <v>2192333</v>
       </c>
       <c r="E525" t="inlineStr">
         <is>
@@ -25582,10 +25582,10 @@
         </is>
       </c>
       <c r="C526" t="n">
-        <v>3591</v>
+        <v>3632</v>
       </c>
       <c r="D526" t="n">
-        <v>5296185</v>
+        <v>5338923</v>
       </c>
       <c r="E526" t="inlineStr">
         <is>
@@ -25630,10 +25630,10 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>1183</v>
+        <v>1191</v>
       </c>
       <c r="D527" t="n">
-        <v>1806188</v>
+        <v>1821596</v>
       </c>
       <c r="E527" t="inlineStr">
         <is>
@@ -25678,10 +25678,10 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="D528" t="n">
-        <v>637954</v>
+        <v>659144</v>
       </c>
       <c r="E528" t="inlineStr">
         <is>
@@ -25726,10 +25726,10 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D529" t="n">
-        <v>145663</v>
+        <v>147328</v>
       </c>
       <c r="E529" t="inlineStr">
         <is>
@@ -25822,10 +25822,10 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>1753</v>
+        <v>1763</v>
       </c>
       <c r="D531" t="n">
-        <v>2317637</v>
+        <v>2343489</v>
       </c>
       <c r="E531" t="inlineStr">
         <is>
@@ -25870,10 +25870,10 @@
         </is>
       </c>
       <c r="C532" t="n">
-        <v>3325</v>
+        <v>3345</v>
       </c>
       <c r="D532" t="n">
-        <v>4818213</v>
+        <v>4861113</v>
       </c>
       <c r="E532" t="inlineStr">
         <is>
@@ -25918,10 +25918,10 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>5536</v>
+        <v>5565</v>
       </c>
       <c r="D533" t="n">
-        <v>8146364</v>
+        <v>8190654</v>
       </c>
       <c r="E533" t="inlineStr">
         <is>
@@ -25966,10 +25966,10 @@
         </is>
       </c>
       <c r="C534" t="n">
-        <v>1670</v>
+        <v>1673</v>
       </c>
       <c r="D534" t="n">
-        <v>2514595</v>
+        <v>2517427</v>
       </c>
       <c r="E534" t="inlineStr">
         <is>
@@ -26014,10 +26014,10 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="D535" t="n">
-        <v>683396</v>
+        <v>688002</v>
       </c>
       <c r="E535" t="inlineStr">
         <is>
@@ -26062,10 +26062,10 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D536" t="n">
-        <v>145891</v>
+        <v>147391</v>
       </c>
       <c r="E536" t="inlineStr">
         <is>
@@ -26158,10 +26158,10 @@
         </is>
       </c>
       <c r="C538" t="n">
-        <v>1827</v>
+        <v>1832</v>
       </c>
       <c r="D538" t="n">
-        <v>2410090</v>
+        <v>2414679</v>
       </c>
       <c r="E538" t="inlineStr">
         <is>
@@ -26206,10 +26206,10 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>1848</v>
+        <v>1857</v>
       </c>
       <c r="D539" t="n">
-        <v>2707489</v>
+        <v>2717604</v>
       </c>
       <c r="E539" t="inlineStr">
         <is>
@@ -26254,10 +26254,10 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>3847</v>
+        <v>3865</v>
       </c>
       <c r="D540" t="n">
-        <v>5655234</v>
+        <v>5670366</v>
       </c>
       <c r="E540" t="inlineStr">
         <is>
@@ -26302,10 +26302,10 @@
         </is>
       </c>
       <c r="C541" t="n">
-        <v>1271</v>
+        <v>1276</v>
       </c>
       <c r="D541" t="n">
-        <v>1904295</v>
+        <v>1918627</v>
       </c>
       <c r="E541" t="inlineStr">
         <is>
@@ -26350,10 +26350,10 @@
         </is>
       </c>
       <c r="C542" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D542" t="n">
-        <v>452263</v>
+        <v>454429</v>
       </c>
       <c r="E542" t="inlineStr">
         <is>
@@ -26398,10 +26398,10 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D543" t="n">
-        <v>102666</v>
+        <v>104832</v>
       </c>
       <c r="E543" t="inlineStr">
         <is>
@@ -26494,10 +26494,10 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>1627</v>
+        <v>1632</v>
       </c>
       <c r="D545" t="n">
-        <v>2193598</v>
+        <v>2199404</v>
       </c>
       <c r="E545" t="inlineStr">
         <is>
@@ -26542,10 +26542,10 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>4353</v>
+        <v>4374</v>
       </c>
       <c r="D546" t="n">
-        <v>6382771</v>
+        <v>6450869</v>
       </c>
       <c r="E546" t="inlineStr">
         <is>
@@ -26590,10 +26590,10 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>10223</v>
+        <v>10275</v>
       </c>
       <c r="D547" t="n">
-        <v>15285113</v>
+        <v>15394404</v>
       </c>
       <c r="E547" t="inlineStr">
         <is>
@@ -26638,10 +26638,10 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>3399</v>
+        <v>3422</v>
       </c>
       <c r="D548" t="n">
-        <v>5157989</v>
+        <v>5220684</v>
       </c>
       <c r="E548" t="inlineStr">
         <is>
@@ -26734,10 +26734,10 @@
         </is>
       </c>
       <c r="C550" t="n">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D550" t="n">
-        <v>239696</v>
+        <v>255360</v>
       </c>
       <c r="E550" t="inlineStr">
         <is>
@@ -26878,10 +26878,10 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>3974</v>
+        <v>3984</v>
       </c>
       <c r="D553" t="n">
-        <v>5345202</v>
+        <v>5363406</v>
       </c>
       <c r="E553" t="inlineStr">
         <is>
@@ -26926,10 +26926,10 @@
         </is>
       </c>
       <c r="C554" t="n">
-        <v>1342</v>
+        <v>1354</v>
       </c>
       <c r="D554" t="n">
-        <v>1938588</v>
+        <v>1968052</v>
       </c>
       <c r="E554" t="inlineStr">
         <is>
@@ -26974,10 +26974,10 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>3774</v>
+        <v>3802</v>
       </c>
       <c r="D555" t="n">
-        <v>5535707</v>
+        <v>5577149</v>
       </c>
       <c r="E555" t="inlineStr">
         <is>
@@ -27022,10 +27022,10 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>1241</v>
+        <v>1248</v>
       </c>
       <c r="D556" t="n">
-        <v>1835379</v>
+        <v>1844211</v>
       </c>
       <c r="E556" t="inlineStr">
         <is>
@@ -27070,10 +27070,10 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D557" t="n">
-        <v>564752</v>
+        <v>566252</v>
       </c>
       <c r="E557" t="inlineStr">
         <is>
@@ -27118,10 +27118,10 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D558" t="n">
-        <v>87239</v>
+        <v>88739</v>
       </c>
       <c r="E558" t="inlineStr">
         <is>
@@ -27214,10 +27214,10 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>1383</v>
+        <v>1387</v>
       </c>
       <c r="D560" t="n">
-        <v>1855430</v>
+        <v>1859147</v>
       </c>
       <c r="E560" t="inlineStr">
         <is>
@@ -27262,10 +27262,10 @@
         </is>
       </c>
       <c r="C561" t="n">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="D561" t="n">
-        <v>835985</v>
+        <v>849308</v>
       </c>
       <c r="E561" t="inlineStr">
         <is>
@@ -27310,10 +27310,10 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>2015</v>
+        <v>2027</v>
       </c>
       <c r="D562" t="n">
-        <v>2999189</v>
+        <v>3025841</v>
       </c>
       <c r="E562" t="inlineStr">
         <is>
@@ -27358,10 +27358,10 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>705</v>
+        <v>717</v>
       </c>
       <c r="D563" t="n">
-        <v>1096325</v>
+        <v>1130913</v>
       </c>
       <c r="E563" t="inlineStr">
         <is>
@@ -27406,10 +27406,10 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D564" t="n">
-        <v>306659</v>
+        <v>307325</v>
       </c>
       <c r="E564" t="inlineStr">
         <is>
@@ -27550,10 +27550,10 @@
         </is>
       </c>
       <c r="C567" t="n">
-        <v>952</v>
+        <v>957</v>
       </c>
       <c r="D567" t="n">
-        <v>1191085</v>
+        <v>1196746</v>
       </c>
       <c r="E567" t="inlineStr">
         <is>
@@ -27598,10 +27598,10 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>3290</v>
+        <v>3313</v>
       </c>
       <c r="D568" t="n">
-        <v>4766264</v>
+        <v>4805228</v>
       </c>
       <c r="E568" t="inlineStr">
         <is>
@@ -27646,10 +27646,10 @@
         </is>
       </c>
       <c r="C569" t="n">
-        <v>5695</v>
+        <v>5717</v>
       </c>
       <c r="D569" t="n">
-        <v>8430300</v>
+        <v>8499396</v>
       </c>
       <c r="E569" t="inlineStr">
         <is>
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>1682</v>
+        <v>1687</v>
       </c>
       <c r="D570" t="n">
-        <v>2556482</v>
+        <v>2568305</v>
       </c>
       <c r="E570" t="inlineStr">
         <is>
@@ -27742,10 +27742,10 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D571" t="n">
-        <v>740923</v>
+        <v>743923</v>
       </c>
       <c r="E571" t="inlineStr">
         <is>
@@ -27790,10 +27790,10 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D572" t="n">
-        <v>144287</v>
+        <v>144953</v>
       </c>
       <c r="E572" t="inlineStr">
         <is>
@@ -27886,10 +27886,10 @@
         </is>
       </c>
       <c r="C574" t="n">
-        <v>2072</v>
+        <v>2079</v>
       </c>
       <c r="D574" t="n">
-        <v>2716932</v>
+        <v>2724751</v>
       </c>
       <c r="E574" t="inlineStr">
         <is>
@@ -27934,10 +27934,10 @@
         </is>
       </c>
       <c r="C575" t="n">
-        <v>2044</v>
+        <v>2050</v>
       </c>
       <c r="D575" t="n">
-        <v>2981352</v>
+        <v>2989096</v>
       </c>
       <c r="E575" t="inlineStr">
         <is>
@@ -27982,10 +27982,10 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>4055</v>
+        <v>4077</v>
       </c>
       <c r="D576" t="n">
-        <v>6056563</v>
+        <v>6117144</v>
       </c>
       <c r="E576" t="inlineStr">
         <is>
@@ -28030,10 +28030,10 @@
         </is>
       </c>
       <c r="C577" t="n">
-        <v>1167</v>
+        <v>1172</v>
       </c>
       <c r="D577" t="n">
-        <v>1787804</v>
+        <v>1811404</v>
       </c>
       <c r="E577" t="inlineStr">
         <is>
@@ -28078,10 +28078,10 @@
         </is>
       </c>
       <c r="C578" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D578" t="n">
-        <v>487618</v>
+        <v>488284</v>
       </c>
       <c r="E578" t="inlineStr">
         <is>
@@ -28126,10 +28126,10 @@
         </is>
       </c>
       <c r="C579" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D579" t="n">
-        <v>144371</v>
+        <v>156860</v>
       </c>
       <c r="E579" t="inlineStr">
         <is>
@@ -28222,10 +28222,10 @@
         </is>
       </c>
       <c r="C581" t="n">
-        <v>2155</v>
+        <v>2164</v>
       </c>
       <c r="D581" t="n">
-        <v>2842504</v>
+        <v>2847175</v>
       </c>
       <c r="E581" t="inlineStr">
         <is>
@@ -28270,10 +28270,10 @@
         </is>
       </c>
       <c r="C582" t="n">
-        <v>5118</v>
+        <v>5151</v>
       </c>
       <c r="D582" t="n">
-        <v>7670462</v>
+        <v>7759140</v>
       </c>
       <c r="E582" t="inlineStr">
         <is>
@@ -28318,10 +28318,10 @@
         </is>
       </c>
       <c r="C583" t="n">
-        <v>11617</v>
+        <v>11685</v>
       </c>
       <c r="D583" t="n">
-        <v>17408402</v>
+        <v>17571246</v>
       </c>
       <c r="E583" t="inlineStr">
         <is>
@@ -28366,10 +28366,10 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>3141</v>
+        <v>3156</v>
       </c>
       <c r="D584" t="n">
-        <v>4802350</v>
+        <v>4859148</v>
       </c>
       <c r="E584" t="inlineStr">
         <is>
@@ -28414,10 +28414,10 @@
         </is>
       </c>
       <c r="C585" t="n">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="D585" t="n">
-        <v>1211085</v>
+        <v>1219413</v>
       </c>
       <c r="E585" t="inlineStr">
         <is>
@@ -28462,10 +28462,10 @@
         </is>
       </c>
       <c r="C586" t="n">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D586" t="n">
-        <v>282908</v>
+        <v>305064</v>
       </c>
       <c r="E586" t="inlineStr">
         <is>
@@ -28558,10 +28558,10 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>4548</v>
+        <v>4575</v>
       </c>
       <c r="D588" t="n">
-        <v>6031410</v>
+        <v>6072674</v>
       </c>
       <c r="E588" t="inlineStr">
         <is>
@@ -28606,10 +28606,10 @@
         </is>
       </c>
       <c r="C589" t="n">
-        <v>1206</v>
+        <v>1217</v>
       </c>
       <c r="D589" t="n">
-        <v>1768345</v>
+        <v>1788753</v>
       </c>
       <c r="E589" t="inlineStr">
         <is>
@@ -28654,10 +28654,10 @@
         </is>
       </c>
       <c r="C590" t="n">
-        <v>2614</v>
+        <v>2628</v>
       </c>
       <c r="D590" t="n">
-        <v>3827933</v>
+        <v>3859863</v>
       </c>
       <c r="E590" t="inlineStr">
         <is>
@@ -28702,10 +28702,10 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="D591" t="n">
-        <v>1107346</v>
+        <v>1110217</v>
       </c>
       <c r="E591" t="inlineStr">
         <is>
@@ -28750,10 +28750,10 @@
         </is>
       </c>
       <c r="C592" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D592" t="n">
-        <v>300903</v>
+        <v>302403</v>
       </c>
       <c r="E592" t="inlineStr">
         <is>
@@ -28798,10 +28798,10 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D593" t="n">
-        <v>111419</v>
+        <v>121067</v>
       </c>
       <c r="E593" t="inlineStr">
         <is>
@@ -28846,10 +28846,10 @@
         </is>
       </c>
       <c r="C594" t="n">
-        <v>1410</v>
+        <v>1414</v>
       </c>
       <c r="D594" t="n">
-        <v>1844582</v>
+        <v>1847669</v>
       </c>
       <c r="E594" t="inlineStr">
         <is>
@@ -28894,10 +28894,10 @@
         </is>
       </c>
       <c r="C595" t="n">
-        <v>7370</v>
+        <v>7417</v>
       </c>
       <c r="D595" t="n">
-        <v>11005820</v>
+        <v>11109928</v>
       </c>
       <c r="E595" t="inlineStr">
         <is>
@@ -28942,10 +28942,10 @@
         </is>
       </c>
       <c r="C596" t="n">
-        <v>17376</v>
+        <v>17503</v>
       </c>
       <c r="D596" t="n">
-        <v>26465959</v>
+        <v>26832110</v>
       </c>
       <c r="E596" t="inlineStr">
         <is>
@@ -28990,10 +28990,10 @@
         </is>
       </c>
       <c r="C597" t="n">
-        <v>6141</v>
+        <v>6189</v>
       </c>
       <c r="D597" t="n">
-        <v>9865893</v>
+        <v>10123754</v>
       </c>
       <c r="E597" t="inlineStr">
         <is>
@@ -29038,10 +29038,10 @@
         </is>
       </c>
       <c r="C598" t="n">
-        <v>1905</v>
+        <v>1919</v>
       </c>
       <c r="D598" t="n">
-        <v>3052119</v>
+        <v>3116767</v>
       </c>
       <c r="E598" t="inlineStr">
         <is>
@@ -29086,10 +29086,10 @@
         </is>
       </c>
       <c r="C599" t="n">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="D599" t="n">
-        <v>763222</v>
+        <v>786888</v>
       </c>
       <c r="E599" t="inlineStr">
         <is>
@@ -29230,10 +29230,10 @@
         </is>
       </c>
       <c r="C602" t="n">
-        <v>6872</v>
+        <v>6921</v>
       </c>
       <c r="D602" t="n">
-        <v>9212497</v>
+        <v>9287853</v>
       </c>
       <c r="E602" t="inlineStr">
         <is>
@@ -29278,10 +29278,10 @@
         </is>
       </c>
       <c r="C603" t="n">
-        <v>2009</v>
+        <v>2031</v>
       </c>
       <c r="D603" t="n">
-        <v>3079382</v>
+        <v>3113874</v>
       </c>
       <c r="E603" t="inlineStr">
         <is>
@@ -29326,10 +29326,10 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>3794</v>
+        <v>3822</v>
       </c>
       <c r="D604" t="n">
-        <v>5771486</v>
+        <v>5854502</v>
       </c>
       <c r="E604" t="inlineStr">
         <is>
@@ -29374,10 +29374,10 @@
         </is>
       </c>
       <c r="C605" t="n">
-        <v>1232</v>
+        <v>1242</v>
       </c>
       <c r="D605" t="n">
-        <v>1975064</v>
+        <v>2033323</v>
       </c>
       <c r="E605" t="inlineStr">
         <is>
@@ -29422,10 +29422,10 @@
         </is>
       </c>
       <c r="C606" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D606" t="n">
-        <v>536398</v>
+        <v>546398</v>
       </c>
       <c r="E606" t="inlineStr">
         <is>
@@ -29470,10 +29470,10 @@
         </is>
       </c>
       <c r="C607" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D607" t="n">
-        <v>177464</v>
+        <v>179685</v>
       </c>
       <c r="E607" t="inlineStr">
         <is>
@@ -29566,10 +29566,10 @@
         </is>
       </c>
       <c r="C609" t="n">
-        <v>2094</v>
+        <v>2107</v>
       </c>
       <c r="D609" t="n">
-        <v>2847284</v>
+        <v>2879305</v>
       </c>
       <c r="E609" t="inlineStr">
         <is>
@@ -29614,10 +29614,10 @@
         </is>
       </c>
       <c r="C610" t="n">
-        <v>10093</v>
+        <v>10168</v>
       </c>
       <c r="D610" t="n">
-        <v>15208475</v>
+        <v>15453820</v>
       </c>
       <c r="E610" t="inlineStr">
         <is>
@@ -29662,10 +29662,10 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>20850</v>
+        <v>20999</v>
       </c>
       <c r="D611" t="n">
-        <v>31718441</v>
+        <v>32139780</v>
       </c>
       <c r="E611" t="inlineStr">
         <is>
@@ -29710,10 +29710,10 @@
         </is>
       </c>
       <c r="C612" t="n">
-        <v>6137</v>
+        <v>6169</v>
       </c>
       <c r="D612" t="n">
-        <v>9626232</v>
+        <v>9731679</v>
       </c>
       <c r="E612" t="inlineStr">
         <is>
@@ -29758,10 +29758,10 @@
         </is>
       </c>
       <c r="C613" t="n">
-        <v>1619</v>
+        <v>1631</v>
       </c>
       <c r="D613" t="n">
-        <v>2586562</v>
+        <v>2645717</v>
       </c>
       <c r="E613" t="inlineStr">
         <is>
@@ -29806,10 +29806,10 @@
         </is>
       </c>
       <c r="C614" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D614" t="n">
-        <v>619915</v>
+        <v>640904</v>
       </c>
       <c r="E614" t="inlineStr">
         <is>
@@ -29902,10 +29902,10 @@
         </is>
       </c>
       <c r="C616" t="n">
-        <v>6770</v>
+        <v>6808</v>
       </c>
       <c r="D616" t="n">
-        <v>9122101</v>
+        <v>9201551</v>
       </c>
       <c r="E616" t="inlineStr">
         <is>
@@ -29950,10 +29950,10 @@
         </is>
       </c>
       <c r="C617" t="n">
-        <v>1450</v>
+        <v>1456</v>
       </c>
       <c r="D617" t="n">
-        <v>2094465</v>
+        <v>2108555</v>
       </c>
       <c r="E617" t="inlineStr">
         <is>
@@ -29998,10 +29998,10 @@
         </is>
       </c>
       <c r="C618" t="n">
-        <v>2518</v>
+        <v>2530</v>
       </c>
       <c r="D618" t="n">
-        <v>3717990</v>
+        <v>3749633</v>
       </c>
       <c r="E618" t="inlineStr">
         <is>
@@ -30046,10 +30046,10 @@
         </is>
       </c>
       <c r="C619" t="n">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="D619" t="n">
-        <v>1043837</v>
+        <v>1049003</v>
       </c>
       <c r="E619" t="inlineStr">
         <is>
@@ -30094,10 +30094,10 @@
         </is>
       </c>
       <c r="C620" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D620" t="n">
-        <v>260977</v>
+        <v>272477</v>
       </c>
       <c r="E620" t="inlineStr">
         <is>
@@ -30142,10 +30142,10 @@
         </is>
       </c>
       <c r="C621" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D621" t="n">
-        <v>41464</v>
+        <v>42130</v>
       </c>
       <c r="E621" t="inlineStr">
         <is>
@@ -30238,10 +30238,10 @@
         </is>
       </c>
       <c r="C623" t="n">
-        <v>1329</v>
+        <v>1336</v>
       </c>
       <c r="D623" t="n">
-        <v>1745021</v>
+        <v>1753332</v>
       </c>
       <c r="E623" t="inlineStr">
         <is>
@@ -30286,10 +30286,10 @@
         </is>
       </c>
       <c r="C624" t="n">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="D624" t="n">
-        <v>1126228</v>
+        <v>1132620</v>
       </c>
       <c r="E624" t="inlineStr">
         <is>
@@ -30334,10 +30334,10 @@
         </is>
       </c>
       <c r="C625" t="n">
-        <v>1177</v>
+        <v>1184</v>
       </c>
       <c r="D625" t="n">
-        <v>1705692</v>
+        <v>1712758</v>
       </c>
       <c r="E625" t="inlineStr">
         <is>
@@ -30574,10 +30574,10 @@
         </is>
       </c>
       <c r="C630" t="n">
-        <v>4638</v>
+        <v>4662</v>
       </c>
       <c r="D630" t="n">
-        <v>6861353</v>
+        <v>6898316</v>
       </c>
       <c r="E630" t="inlineStr">
         <is>
@@ -30622,10 +30622,10 @@
         </is>
       </c>
       <c r="C631" t="n">
-        <v>7431</v>
+        <v>7469</v>
       </c>
       <c r="D631" t="n">
-        <v>11069848</v>
+        <v>11166711</v>
       </c>
       <c r="E631" t="inlineStr">
         <is>
@@ -30670,10 +30670,10 @@
         </is>
       </c>
       <c r="C632" t="n">
-        <v>2271</v>
+        <v>2282</v>
       </c>
       <c r="D632" t="n">
-        <v>3475588</v>
+        <v>3497317</v>
       </c>
       <c r="E632" t="inlineStr">
         <is>
@@ -30718,10 +30718,10 @@
         </is>
       </c>
       <c r="C633" t="n">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D633" t="n">
-        <v>954125</v>
+        <v>954791</v>
       </c>
       <c r="E633" t="inlineStr">
         <is>
@@ -30862,10 +30862,10 @@
         </is>
       </c>
       <c r="C636" t="n">
-        <v>2841</v>
+        <v>2855</v>
       </c>
       <c r="D636" t="n">
-        <v>3777361</v>
+        <v>3802001</v>
       </c>
       <c r="E636" t="inlineStr">
         <is>
@@ -30910,10 +30910,10 @@
         </is>
       </c>
       <c r="C637" t="n">
-        <v>1960</v>
+        <v>1972</v>
       </c>
       <c r="D637" t="n">
-        <v>2902431</v>
+        <v>2931254</v>
       </c>
       <c r="E637" t="inlineStr">
         <is>
@@ -30958,10 +30958,10 @@
         </is>
       </c>
       <c r="C638" t="n">
-        <v>4640</v>
+        <v>4672</v>
       </c>
       <c r="D638" t="n">
-        <v>6961880</v>
+        <v>7058381</v>
       </c>
       <c r="E638" t="inlineStr">
         <is>
@@ -31006,10 +31006,10 @@
         </is>
       </c>
       <c r="C639" t="n">
-        <v>1392</v>
+        <v>1408</v>
       </c>
       <c r="D639" t="n">
-        <v>2116879</v>
+        <v>2184869</v>
       </c>
       <c r="E639" t="inlineStr">
         <is>
@@ -31054,10 +31054,10 @@
         </is>
       </c>
       <c r="C640" t="n">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D640" t="n">
-        <v>531864</v>
+        <v>544696</v>
       </c>
       <c r="E640" t="inlineStr">
         <is>
@@ -31102,10 +31102,10 @@
         </is>
       </c>
       <c r="C641" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D641" t="n">
-        <v>112764</v>
+        <v>114930</v>
       </c>
       <c r="E641" t="inlineStr">
         <is>
@@ -31198,10 +31198,10 @@
         </is>
       </c>
       <c r="C643" t="n">
-        <v>1964</v>
+        <v>1977</v>
       </c>
       <c r="D643" t="n">
-        <v>2582694</v>
+        <v>2605111</v>
       </c>
       <c r="E643" t="inlineStr">
         <is>
@@ -31246,10 +31246,10 @@
         </is>
       </c>
       <c r="C644" t="n">
-        <v>1278</v>
+        <v>1284</v>
       </c>
       <c r="D644" t="n">
-        <v>1857705</v>
+        <v>1875543</v>
       </c>
       <c r="E644" t="inlineStr">
         <is>
@@ -31294,10 +31294,10 @@
         </is>
       </c>
       <c r="C645" t="n">
-        <v>2929</v>
+        <v>2953</v>
       </c>
       <c r="D645" t="n">
-        <v>4364103</v>
+        <v>4406589</v>
       </c>
       <c r="E645" t="inlineStr">
         <is>
@@ -31342,10 +31342,10 @@
         </is>
       </c>
       <c r="C646" t="n">
-        <v>899</v>
+        <v>904</v>
       </c>
       <c r="D646" t="n">
-        <v>1370853</v>
+        <v>1377763</v>
       </c>
       <c r="E646" t="inlineStr">
         <is>
@@ -31390,10 +31390,10 @@
         </is>
       </c>
       <c r="C647" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D647" t="n">
-        <v>367291</v>
+        <v>368791</v>
       </c>
       <c r="E647" t="inlineStr">
         <is>
@@ -31534,10 +31534,10 @@
         </is>
       </c>
       <c r="C650" t="n">
-        <v>1361</v>
+        <v>1369</v>
       </c>
       <c r="D650" t="n">
-        <v>1799306</v>
+        <v>1808428</v>
       </c>
       <c r="E650" t="inlineStr">
         <is>
@@ -31582,10 +31582,10 @@
         </is>
       </c>
       <c r="C651" t="n">
-        <v>6136</v>
+        <v>6182</v>
       </c>
       <c r="D651" t="n">
-        <v>9084672</v>
+        <v>9176635</v>
       </c>
       <c r="E651" t="inlineStr">
         <is>
@@ -31630,10 +31630,10 @@
         </is>
       </c>
       <c r="C652" t="n">
-        <v>13788</v>
+        <v>13890</v>
       </c>
       <c r="D652" t="n">
-        <v>20558355</v>
+        <v>20731658</v>
       </c>
       <c r="E652" t="inlineStr">
         <is>
@@ -31678,10 +31678,10 @@
         </is>
       </c>
       <c r="C653" t="n">
-        <v>5144</v>
+        <v>5184</v>
       </c>
       <c r="D653" t="n">
-        <v>7668638</v>
+        <v>7738729</v>
       </c>
       <c r="E653" t="inlineStr">
         <is>
@@ -31726,10 +31726,10 @@
         </is>
       </c>
       <c r="C654" t="n">
-        <v>1406</v>
+        <v>1415</v>
       </c>
       <c r="D654" t="n">
-        <v>2143143</v>
+        <v>2170750</v>
       </c>
       <c r="E654" t="inlineStr">
         <is>
@@ -31774,10 +31774,10 @@
         </is>
       </c>
       <c r="C655" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D655" t="n">
-        <v>457424</v>
+        <v>467424</v>
       </c>
       <c r="E655" t="inlineStr">
         <is>
@@ -31822,10 +31822,10 @@
         </is>
       </c>
       <c r="C656" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D656" t="n">
-        <v>50832</v>
+        <v>60832</v>
       </c>
       <c r="E656" t="inlineStr">
         <is>
@@ -31918,10 +31918,10 @@
         </is>
       </c>
       <c r="C658" t="n">
-        <v>4729</v>
+        <v>4751</v>
       </c>
       <c r="D658" t="n">
-        <v>6347529</v>
+        <v>6408153</v>
       </c>
       <c r="E658" t="inlineStr">
         <is>
@@ -31966,10 +31966,10 @@
         </is>
       </c>
       <c r="C659" t="n">
-        <v>2640</v>
+        <v>2664</v>
       </c>
       <c r="D659" t="n">
-        <v>3883877</v>
+        <v>3918564</v>
       </c>
       <c r="E659" t="inlineStr">
         <is>
@@ -32014,10 +32014,10 @@
         </is>
       </c>
       <c r="C660" t="n">
-        <v>7704</v>
+        <v>7764</v>
       </c>
       <c r="D660" t="n">
-        <v>11496645</v>
+        <v>11602127</v>
       </c>
       <c r="E660" t="inlineStr">
         <is>
@@ -32062,10 +32062,10 @@
         </is>
       </c>
       <c r="C661" t="n">
-        <v>2517</v>
+        <v>2536</v>
       </c>
       <c r="D661" t="n">
-        <v>3821090</v>
+        <v>3865961</v>
       </c>
       <c r="E661" t="inlineStr">
         <is>
@@ -32110,10 +32110,10 @@
         </is>
       </c>
       <c r="C662" t="n">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="D662" t="n">
-        <v>1074218</v>
+        <v>1092882</v>
       </c>
       <c r="E662" t="inlineStr">
         <is>
@@ -32158,10 +32158,10 @@
         </is>
       </c>
       <c r="C663" t="n">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D663" t="n">
-        <v>244102</v>
+        <v>264768</v>
       </c>
       <c r="E663" t="inlineStr">
         <is>
@@ -32302,10 +32302,10 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>2523</v>
+        <v>2540</v>
       </c>
       <c r="D666" t="n">
-        <v>3413198</v>
+        <v>3444844</v>
       </c>
       <c r="E666" t="inlineStr">
         <is>
@@ -32350,10 +32350,10 @@
         </is>
       </c>
       <c r="C667" t="n">
-        <v>1051</v>
+        <v>1059</v>
       </c>
       <c r="D667" t="n">
-        <v>1507453</v>
+        <v>1521109</v>
       </c>
       <c r="E667" t="inlineStr">
         <is>
@@ -32398,10 +32398,10 @@
         </is>
       </c>
       <c r="C668" t="n">
-        <v>2784</v>
+        <v>2810</v>
       </c>
       <c r="D668" t="n">
-        <v>4063689</v>
+        <v>4084974</v>
       </c>
       <c r="E668" t="inlineStr">
         <is>
@@ -32446,10 +32446,10 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>917</v>
+        <v>923</v>
       </c>
       <c r="D669" t="n">
-        <v>1364114</v>
+        <v>1370612</v>
       </c>
       <c r="E669" t="inlineStr">
         <is>
@@ -32494,10 +32494,10 @@
         </is>
       </c>
       <c r="C670" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D670" t="n">
-        <v>366962</v>
+        <v>368462</v>
       </c>
       <c r="E670" t="inlineStr">
         <is>
@@ -32542,10 +32542,10 @@
         </is>
       </c>
       <c r="C671" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D671" t="n">
-        <v>50832</v>
+        <v>52998</v>
       </c>
       <c r="E671" t="inlineStr">
         <is>
@@ -32590,10 +32590,10 @@
         </is>
       </c>
       <c r="C672" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D672" t="n">
-        <v>17527</v>
+        <v>18193</v>
       </c>
       <c r="E672" t="inlineStr">
         <is>
@@ -32638,10 +32638,10 @@
         </is>
       </c>
       <c r="C673" t="n">
-        <v>944</v>
+        <v>950</v>
       </c>
       <c r="D673" t="n">
-        <v>1247544</v>
+        <v>1253759</v>
       </c>
       <c r="E673" t="inlineStr">
         <is>
@@ -32686,10 +32686,10 @@
         </is>
       </c>
       <c r="C674" t="n">
-        <v>1763</v>
+        <v>1776</v>
       </c>
       <c r="D674" t="n">
-        <v>2541474</v>
+        <v>2561663</v>
       </c>
       <c r="E674" t="inlineStr">
         <is>
@@ -32734,10 +32734,10 @@
         </is>
       </c>
       <c r="C675" t="n">
-        <v>4634</v>
+        <v>4660</v>
       </c>
       <c r="D675" t="n">
-        <v>6810555</v>
+        <v>6837237</v>
       </c>
       <c r="E675" t="inlineStr">
         <is>
@@ -32782,10 +32782,10 @@
         </is>
       </c>
       <c r="C676" t="n">
-        <v>1532</v>
+        <v>1544</v>
       </c>
       <c r="D676" t="n">
-        <v>2266264</v>
+        <v>2278759</v>
       </c>
       <c r="E676" t="inlineStr">
         <is>
@@ -32830,10 +32830,10 @@
         </is>
       </c>
       <c r="C677" t="n">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="D677" t="n">
-        <v>656236</v>
+        <v>680393</v>
       </c>
       <c r="E677" t="inlineStr">
         <is>
@@ -32878,10 +32878,10 @@
         </is>
       </c>
       <c r="C678" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D678" t="n">
-        <v>118500</v>
+        <v>120000</v>
       </c>
       <c r="E678" t="inlineStr">
         <is>
@@ -32974,10 +32974,10 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>1511</v>
+        <v>1518</v>
       </c>
       <c r="D680" t="n">
-        <v>1956141</v>
+        <v>1971634</v>
       </c>
       <c r="E680" t="inlineStr">
         <is>
@@ -33022,10 +33022,10 @@
         </is>
       </c>
       <c r="C681" t="n">
-        <v>3599</v>
+        <v>3628</v>
       </c>
       <c r="D681" t="n">
-        <v>5220700</v>
+        <v>5263179</v>
       </c>
       <c r="E681" t="inlineStr">
         <is>
@@ -33070,10 +33070,10 @@
         </is>
       </c>
       <c r="C682" t="n">
-        <v>7008</v>
+        <v>7065</v>
       </c>
       <c r="D682" t="n">
-        <v>10219783</v>
+        <v>10294500</v>
       </c>
       <c r="E682" t="inlineStr">
         <is>
@@ -33118,10 +33118,10 @@
         </is>
       </c>
       <c r="C683" t="n">
-        <v>2577</v>
+        <v>2594</v>
       </c>
       <c r="D683" t="n">
-        <v>3854325</v>
+        <v>3870345</v>
       </c>
       <c r="E683" t="inlineStr">
         <is>
@@ -33166,10 +33166,10 @@
         </is>
       </c>
       <c r="C684" t="n">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D684" t="n">
-        <v>863580</v>
+        <v>864246</v>
       </c>
       <c r="E684" t="inlineStr">
         <is>
@@ -33214,10 +33214,10 @@
         </is>
       </c>
       <c r="C685" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D685" t="n">
-        <v>148286</v>
+        <v>151286</v>
       </c>
       <c r="E685" t="inlineStr">
         <is>
@@ -33358,10 +33358,10 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>2274</v>
+        <v>2288</v>
       </c>
       <c r="D688" t="n">
-        <v>3012109</v>
+        <v>3021522</v>
       </c>
       <c r="E688" t="inlineStr">
         <is>
@@ -33406,10 +33406,10 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>1741</v>
+        <v>1750</v>
       </c>
       <c r="D689" t="n">
-        <v>2541290</v>
+        <v>2563557</v>
       </c>
       <c r="E689" t="inlineStr">
         <is>
@@ -33454,10 +33454,10 @@
         </is>
       </c>
       <c r="C690" t="n">
-        <v>3192</v>
+        <v>3207</v>
       </c>
       <c r="D690" t="n">
-        <v>4704671</v>
+        <v>4737805</v>
       </c>
       <c r="E690" t="inlineStr">
         <is>
@@ -33502,10 +33502,10 @@
         </is>
       </c>
       <c r="C691" t="n">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="D691" t="n">
-        <v>1331950</v>
+        <v>1337116</v>
       </c>
       <c r="E691" t="inlineStr">
         <is>
@@ -33550,10 +33550,10 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D692" t="n">
-        <v>294547</v>
+        <v>304488</v>
       </c>
       <c r="E692" t="inlineStr">
         <is>
@@ -33598,10 +33598,10 @@
         </is>
       </c>
       <c r="C693" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D693" t="n">
-        <v>70999</v>
+        <v>71998</v>
       </c>
       <c r="E693" t="inlineStr">
         <is>
@@ -33694,10 +33694,10 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>1351</v>
+        <v>1359</v>
       </c>
       <c r="D695" t="n">
-        <v>1784936</v>
+        <v>1795070</v>
       </c>
       <c r="E695" t="inlineStr">
         <is>
@@ -33742,10 +33742,10 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>10692</v>
+        <v>10795</v>
       </c>
       <c r="D696" t="n">
-        <v>16402640</v>
+        <v>16750837</v>
       </c>
       <c r="E696" t="inlineStr">
         <is>
@@ -33790,10 +33790,10 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>24496</v>
+        <v>24697</v>
       </c>
       <c r="D697" t="n">
-        <v>38193327</v>
+        <v>38958447</v>
       </c>
       <c r="E697" t="inlineStr">
         <is>
@@ -33838,10 +33838,10 @@
         </is>
       </c>
       <c r="C698" t="n">
-        <v>7256</v>
+        <v>7317</v>
       </c>
       <c r="D698" t="n">
-        <v>11675158</v>
+        <v>11905354</v>
       </c>
       <c r="E698" t="inlineStr">
         <is>
@@ -33886,10 +33886,10 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>2140</v>
+        <v>2163</v>
       </c>
       <c r="D699" t="n">
-        <v>3550366</v>
+        <v>3642177</v>
       </c>
       <c r="E699" t="inlineStr">
         <is>
@@ -33934,10 +33934,10 @@
         </is>
       </c>
       <c r="C700" t="n">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="D700" t="n">
-        <v>1011063</v>
+        <v>1023895</v>
       </c>
       <c r="E700" t="inlineStr">
         <is>
@@ -34078,10 +34078,10 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>8734</v>
+        <v>8793</v>
       </c>
       <c r="D703" t="n">
-        <v>12054734</v>
+        <v>12181624</v>
       </c>
       <c r="E703" t="inlineStr">
         <is>
@@ -34126,10 +34126,10 @@
         </is>
       </c>
       <c r="C704" t="n">
-        <v>12610</v>
+        <v>12708</v>
       </c>
       <c r="D704" t="n">
-        <v>19091426</v>
+        <v>19368109</v>
       </c>
       <c r="E704" t="inlineStr">
         <is>
@@ -34174,10 +34174,10 @@
         </is>
       </c>
       <c r="C705" t="n">
-        <v>33800</v>
+        <v>34068</v>
       </c>
       <c r="D705" t="n">
-        <v>52227198</v>
+        <v>53172356</v>
       </c>
       <c r="E705" t="inlineStr">
         <is>
@@ -34222,10 +34222,10 @@
         </is>
       </c>
       <c r="C706" t="n">
-        <v>10749</v>
+        <v>10823</v>
       </c>
       <c r="D706" t="n">
-        <v>17459413</v>
+        <v>17762562</v>
       </c>
       <c r="E706" t="inlineStr">
         <is>
@@ -34270,10 +34270,10 @@
         </is>
       </c>
       <c r="C707" t="n">
-        <v>2964</v>
+        <v>2992</v>
       </c>
       <c r="D707" t="n">
-        <v>4948831</v>
+        <v>5117626</v>
       </c>
       <c r="E707" t="inlineStr">
         <is>
@@ -34318,10 +34318,10 @@
         </is>
       </c>
       <c r="C708" t="n">
-        <v>842</v>
+        <v>852</v>
       </c>
       <c r="D708" t="n">
-        <v>1523225</v>
+        <v>1571546</v>
       </c>
       <c r="E708" t="inlineStr">
         <is>
@@ -34366,10 +34366,10 @@
         </is>
       </c>
       <c r="C709" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D709" t="n">
-        <v>173156</v>
+        <v>189156</v>
       </c>
       <c r="E709" t="inlineStr">
         <is>
@@ -34414,10 +34414,10 @@
         </is>
       </c>
       <c r="C710" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D710" t="n">
-        <v>26500</v>
+        <v>36500</v>
       </c>
       <c r="E710" t="inlineStr">
         <is>
@@ -34462,10 +34462,10 @@
         </is>
       </c>
       <c r="C711" t="n">
-        <v>10769</v>
+        <v>10844</v>
       </c>
       <c r="D711" t="n">
-        <v>14583837</v>
+        <v>14707291</v>
       </c>
       <c r="E711" t="inlineStr">
         <is>
@@ -34510,10 +34510,10 @@
         </is>
       </c>
       <c r="C712" t="n">
-        <v>1508</v>
+        <v>1517</v>
       </c>
       <c r="D712" t="n">
-        <v>2246771</v>
+        <v>2277127</v>
       </c>
       <c r="E712" t="inlineStr">
         <is>
@@ -34558,10 +34558,10 @@
         </is>
       </c>
       <c r="C713" t="n">
-        <v>3081</v>
+        <v>3094</v>
       </c>
       <c r="D713" t="n">
-        <v>4708314</v>
+        <v>4744636</v>
       </c>
       <c r="E713" t="inlineStr">
         <is>
@@ -34606,10 +34606,10 @@
         </is>
       </c>
       <c r="C714" t="n">
-        <v>1194</v>
+        <v>1202</v>
       </c>
       <c r="D714" t="n">
-        <v>1858591</v>
+        <v>1891283</v>
       </c>
       <c r="E714" t="inlineStr">
         <is>
@@ -34654,10 +34654,10 @@
         </is>
       </c>
       <c r="C715" t="n">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D715" t="n">
-        <v>533682</v>
+        <v>547348</v>
       </c>
       <c r="E715" t="inlineStr">
         <is>
@@ -34798,10 +34798,10 @@
         </is>
       </c>
       <c r="C718" t="n">
-        <v>2301</v>
+        <v>2319</v>
       </c>
       <c r="D718" t="n">
-        <v>3167986</v>
+        <v>3194678</v>
       </c>
       <c r="E718" t="inlineStr">
         <is>
@@ -34846,10 +34846,10 @@
         </is>
       </c>
       <c r="C719" t="n">
-        <v>10233</v>
+        <v>10301</v>
       </c>
       <c r="D719" t="n">
-        <v>15088615</v>
+        <v>15276166</v>
       </c>
       <c r="E719" t="inlineStr">
         <is>
@@ -34894,10 +34894,10 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>18789</v>
+        <v>18898</v>
       </c>
       <c r="D720" t="n">
-        <v>28101392</v>
+        <v>28372024</v>
       </c>
       <c r="E720" t="inlineStr">
         <is>
@@ -34942,10 +34942,10 @@
         </is>
       </c>
       <c r="C721" t="n">
-        <v>5166</v>
+        <v>5195</v>
       </c>
       <c r="D721" t="n">
-        <v>7897917</v>
+        <v>7958491</v>
       </c>
       <c r="E721" t="inlineStr">
         <is>
@@ -34990,10 +34990,10 @@
         </is>
       </c>
       <c r="C722" t="n">
-        <v>1264</v>
+        <v>1276</v>
       </c>
       <c r="D722" t="n">
-        <v>1972967</v>
+        <v>2030609</v>
       </c>
       <c r="E722" t="inlineStr">
         <is>
@@ -35038,10 +35038,10 @@
         </is>
       </c>
       <c r="C723" t="n">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D723" t="n">
-        <v>394470</v>
+        <v>408802</v>
       </c>
       <c r="E723" t="inlineStr">
         <is>
@@ -35182,10 +35182,10 @@
         </is>
       </c>
       <c r="C726" t="n">
-        <v>6194</v>
+        <v>6231</v>
       </c>
       <c r="D726" t="n">
-        <v>8366686</v>
+        <v>8421249</v>
       </c>
       <c r="E726" t="inlineStr">
         <is>
@@ -35230,10 +35230,10 @@
         </is>
       </c>
       <c r="C727" t="n">
-        <v>4509</v>
+        <v>4546</v>
       </c>
       <c r="D727" t="n">
-        <v>6735583</v>
+        <v>6852250</v>
       </c>
       <c r="E727" t="inlineStr">
         <is>
@@ -35278,10 +35278,10 @@
         </is>
       </c>
       <c r="C728" t="n">
-        <v>11089</v>
+        <v>11154</v>
       </c>
       <c r="D728" t="n">
-        <v>16752799</v>
+        <v>16904332</v>
       </c>
       <c r="E728" t="inlineStr">
         <is>
@@ -35326,10 +35326,10 @@
         </is>
       </c>
       <c r="C729" t="n">
-        <v>3004</v>
+        <v>3025</v>
       </c>
       <c r="D729" t="n">
-        <v>4579842</v>
+        <v>4657774</v>
       </c>
       <c r="E729" t="inlineStr">
         <is>
@@ -35374,10 +35374,10 @@
         </is>
       </c>
       <c r="C730" t="n">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="D730" t="n">
-        <v>1116295</v>
+        <v>1125607</v>
       </c>
       <c r="E730" t="inlineStr">
         <is>
@@ -35422,10 +35422,10 @@
         </is>
       </c>
       <c r="C731" t="n">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D731" t="n">
-        <v>324998</v>
+        <v>344998</v>
       </c>
       <c r="E731" t="inlineStr">
         <is>
@@ -35518,10 +35518,10 @@
         </is>
       </c>
       <c r="C733" t="n">
-        <v>3565</v>
+        <v>3584</v>
       </c>
       <c r="D733" t="n">
-        <v>4695971</v>
+        <v>4728006</v>
       </c>
       <c r="E733" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2020-11-22/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-11-22/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -430,10 +430,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1462</v>
+        <v>1474</v>
       </c>
       <c r="D2" t="n">
-        <v>2114290</v>
+        <v>2134690</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -478,10 +478,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6470</v>
+        <v>6515</v>
       </c>
       <c r="D3" t="n">
-        <v>9720817</v>
+        <v>9840532</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -526,10 +526,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2282</v>
+        <v>2294</v>
       </c>
       <c r="D4" t="n">
-        <v>3505109</v>
+        <v>3555260</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="D5" t="n">
-        <v>852233</v>
+        <v>856733</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="D8" t="n">
-        <v>1107082</v>
+        <v>1113702</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1353</v>
+        <v>1358</v>
       </c>
       <c r="D9" t="n">
-        <v>1983716</v>
+        <v>1998219</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3966</v>
+        <v>3993</v>
       </c>
       <c r="D10" t="n">
-        <v>5792349</v>
+        <v>5820657</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -862,10 +862,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="D11" t="n">
-        <v>1510898</v>
+        <v>1512896</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -910,10 +910,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D12" t="n">
-        <v>363503</v>
+        <v>365669</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -958,10 +958,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D13" t="n">
-        <v>91838</v>
+        <v>92504</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1054,10 +1054,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2146</v>
+        <v>2155</v>
       </c>
       <c r="D15" t="n">
-        <v>2798158</v>
+        <v>2808993</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2907</v>
+        <v>2923</v>
       </c>
       <c r="D16" t="n">
-        <v>4270833</v>
+        <v>4292426</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4733</v>
+        <v>4753</v>
       </c>
       <c r="D17" t="n">
-        <v>6974696</v>
+        <v>6999842</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1235</v>
+        <v>1241</v>
       </c>
       <c r="D18" t="n">
-        <v>1892418</v>
+        <v>1900804</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1246,10 +1246,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D19" t="n">
-        <v>409436</v>
+        <v>410936</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1294,10 +1294,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D20" t="n">
-        <v>69000</v>
+        <v>72000</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1390,10 +1390,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1966</v>
+        <v>1972</v>
       </c>
       <c r="D22" t="n">
-        <v>2601291</v>
+        <v>2607480</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1438,10 +1438,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>779</v>
+        <v>789</v>
       </c>
       <c r="D23" t="n">
-        <v>1065806</v>
+        <v>1074273</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1486,10 +1486,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2125</v>
+        <v>2134</v>
       </c>
       <c r="D24" t="n">
-        <v>3097756</v>
+        <v>3110130</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1534,10 +1534,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="D25" t="n">
-        <v>837293</v>
+        <v>839957</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1726,10 +1726,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2303</v>
+        <v>2305</v>
       </c>
       <c r="D29" t="n">
-        <v>3205221</v>
+        <v>3207023</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1774,10 +1774,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3667</v>
+        <v>3698</v>
       </c>
       <c r="D30" t="n">
-        <v>5456067</v>
+        <v>5521153</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1822,10 +1822,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>7194</v>
+        <v>7231</v>
       </c>
       <c r="D31" t="n">
-        <v>10731608</v>
+        <v>10811071</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1870,10 +1870,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2177</v>
+        <v>2182</v>
       </c>
       <c r="D32" t="n">
-        <v>3276693</v>
+        <v>3282355</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1918,10 +1918,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="D33" t="n">
-        <v>861555</v>
+        <v>877387</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1966,10 +1966,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D34" t="n">
-        <v>218547</v>
+        <v>220713</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2062,10 +2062,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2841</v>
+        <v>2857</v>
       </c>
       <c r="D36" t="n">
-        <v>3641519</v>
+        <v>3666249</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2110,10 +2110,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1430</v>
+        <v>1446</v>
       </c>
       <c r="D37" t="n">
-        <v>2079569</v>
+        <v>2114395</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2158,10 +2158,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3054</v>
+        <v>3077</v>
       </c>
       <c r="D38" t="n">
-        <v>4547633</v>
+        <v>4593456</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2206,10 +2206,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="D39" t="n">
-        <v>1300977</v>
+        <v>1308634</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2398,10 +2398,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1477</v>
+        <v>1484</v>
       </c>
       <c r="D43" t="n">
-        <v>1990741</v>
+        <v>1995904</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2446,10 +2446,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4642</v>
+        <v>4675</v>
       </c>
       <c r="D44" t="n">
-        <v>7032652</v>
+        <v>7133605</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2494,10 +2494,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>10118</v>
+        <v>10174</v>
       </c>
       <c r="D45" t="n">
-        <v>15223743</v>
+        <v>15353669</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2542,10 +2542,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4081</v>
+        <v>4109</v>
       </c>
       <c r="D46" t="n">
-        <v>6387957</v>
+        <v>6505654</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2590,10 +2590,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1330</v>
+        <v>1340</v>
       </c>
       <c r="D47" t="n">
-        <v>2079973</v>
+        <v>2119675</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2638,10 +2638,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="D48" t="n">
-        <v>761419</v>
+        <v>787584</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2686,10 +2686,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D49" t="n">
-        <v>95574</v>
+        <v>96240</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2734,10 +2734,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5589</v>
+        <v>5613</v>
       </c>
       <c r="D50" t="n">
-        <v>7704998</v>
+        <v>7740588</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2782,10 +2782,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>6835</v>
+        <v>6893</v>
       </c>
       <c r="D51" t="n">
-        <v>10268623</v>
+        <v>10426066</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2830,10 +2830,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>15571</v>
+        <v>15698</v>
       </c>
       <c r="D52" t="n">
-        <v>23954357</v>
+        <v>24343213</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2878,10 +2878,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5207</v>
+        <v>5239</v>
       </c>
       <c r="D53" t="n">
-        <v>8156530</v>
+        <v>8285317</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2926,10 +2926,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1474</v>
+        <v>1486</v>
       </c>
       <c r="D54" t="n">
-        <v>2405939</v>
+        <v>2462259</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2974,10 +2974,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D55" t="n">
-        <v>548520</v>
+        <v>564181</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -3118,10 +3118,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>6322</v>
+        <v>6364</v>
       </c>
       <c r="D58" t="n">
-        <v>8719599</v>
+        <v>8794057</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -3166,10 +3166,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3671</v>
+        <v>3696</v>
       </c>
       <c r="D59" t="n">
-        <v>5484602</v>
+        <v>5546442</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3214,10 +3214,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>8935</v>
+        <v>9013</v>
       </c>
       <c r="D60" t="n">
-        <v>13630491</v>
+        <v>13833324</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -3262,10 +3262,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2803</v>
+        <v>2824</v>
       </c>
       <c r="D61" t="n">
-        <v>4444168</v>
+        <v>4498553</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -3310,10 +3310,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="D62" t="n">
-        <v>1251704</v>
+        <v>1297536</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3358,10 +3358,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D63" t="n">
-        <v>385006</v>
+        <v>408006</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -3454,10 +3454,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3763</v>
+        <v>3792</v>
       </c>
       <c r="D65" t="n">
-        <v>4934302</v>
+        <v>4982956</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3053</v>
+        <v>3075</v>
       </c>
       <c r="D66" t="n">
-        <v>4494028</v>
+        <v>4531224</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -3550,10 +3550,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>7952</v>
+        <v>8009</v>
       </c>
       <c r="D67" t="n">
-        <v>12023742</v>
+        <v>12176082</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3598,10 +3598,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2658</v>
+        <v>2676</v>
       </c>
       <c r="D68" t="n">
-        <v>4094225</v>
+        <v>4145154</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -3646,10 +3646,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>764</v>
+        <v>773</v>
       </c>
       <c r="D69" t="n">
-        <v>1233498</v>
+        <v>1264328</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3694,10 +3694,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D70" t="n">
-        <v>316473</v>
+        <v>320973</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3742,10 +3742,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D71" t="n">
-        <v>31500</v>
+        <v>33000</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3790,10 +3790,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3376</v>
+        <v>3403</v>
       </c>
       <c r="D72" t="n">
-        <v>4527080</v>
+        <v>4596254</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3838,10 +3838,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>10827</v>
+        <v>10912</v>
       </c>
       <c r="D73" t="n">
-        <v>16431577</v>
+        <v>16706181</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3886,10 +3886,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>26067</v>
+        <v>26264</v>
       </c>
       <c r="D74" t="n">
-        <v>40439077</v>
+        <v>41106857</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3934,10 +3934,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>9020</v>
+        <v>9112</v>
       </c>
       <c r="D75" t="n">
-        <v>14677331</v>
+        <v>15035067</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3982,10 +3982,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2618</v>
+        <v>2644</v>
       </c>
       <c r="D76" t="n">
-        <v>4526213</v>
+        <v>4676535</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -4030,10 +4030,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="D77" t="n">
-        <v>1105662</v>
+        <v>1168662</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -4078,10 +4078,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D78" t="n">
-        <v>208916</v>
+        <v>228916</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -4270,10 +4270,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>8665</v>
+        <v>8727</v>
       </c>
       <c r="D82" t="n">
-        <v>12054101</v>
+        <v>12169189</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -4318,10 +4318,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3180</v>
+        <v>3199</v>
       </c>
       <c r="D83" t="n">
-        <v>4767156</v>
+        <v>4820984</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -4366,10 +4366,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>7457</v>
+        <v>7505</v>
       </c>
       <c r="D84" t="n">
-        <v>11376734</v>
+        <v>11551095</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -4414,10 +4414,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3419</v>
+        <v>3454</v>
       </c>
       <c r="D85" t="n">
-        <v>5606781</v>
+        <v>5802356</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1241</v>
+        <v>1250</v>
       </c>
       <c r="D86" t="n">
-        <v>2077872</v>
+        <v>2140675</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -4510,10 +4510,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="D87" t="n">
-        <v>711771</v>
+        <v>723937</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -4606,10 +4606,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>7241</v>
+        <v>7273</v>
       </c>
       <c r="D89" t="n">
-        <v>10233954</v>
+        <v>10287484</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -4654,10 +4654,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2250</v>
+        <v>2268</v>
       </c>
       <c r="D90" t="n">
-        <v>3358034</v>
+        <v>3399182</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -4702,10 +4702,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5600</v>
+        <v>5642</v>
       </c>
       <c r="D91" t="n">
-        <v>8527980</v>
+        <v>8657339</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -4750,10 +4750,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1999</v>
+        <v>2020</v>
       </c>
       <c r="D92" t="n">
-        <v>3093644</v>
+        <v>3136323</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -4798,10 +4798,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="D93" t="n">
-        <v>900703</v>
+        <v>933191</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -4846,10 +4846,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D94" t="n">
-        <v>194835</v>
+        <v>199833</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -4942,10 +4942,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2186</v>
+        <v>2199</v>
       </c>
       <c r="D96" t="n">
-        <v>2873957</v>
+        <v>2895648</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -4990,10 +4990,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1953</v>
+        <v>1968</v>
       </c>
       <c r="D97" t="n">
-        <v>2874354</v>
+        <v>2916619</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -5038,10 +5038,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4998</v>
+        <v>5027</v>
       </c>
       <c r="D98" t="n">
-        <v>7320974</v>
+        <v>7356026</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -5086,10 +5086,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1728</v>
+        <v>1740</v>
       </c>
       <c r="D99" t="n">
-        <v>2588965</v>
+        <v>2618204</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -5134,10 +5134,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="D100" t="n">
-        <v>773390</v>
+        <v>779222</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -5182,10 +5182,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D101" t="n">
-        <v>184065</v>
+        <v>185565</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -5326,10 +5326,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>1709</v>
+        <v>1717</v>
       </c>
       <c r="D104" t="n">
-        <v>2292948</v>
+        <v>2302448</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -5374,10 +5374,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="D105" t="n">
-        <v>1133718</v>
+        <v>1141122</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -5422,10 +5422,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>1921</v>
+        <v>1931</v>
       </c>
       <c r="D106" t="n">
-        <v>2845095</v>
+        <v>2861927</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -5470,10 +5470,10 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="D107" t="n">
-        <v>839722</v>
+        <v>846023</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -5614,10 +5614,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>955</v>
+        <v>961</v>
       </c>
       <c r="D110" t="n">
-        <v>1200766</v>
+        <v>1207151</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -5662,10 +5662,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>1263</v>
+        <v>1267</v>
       </c>
       <c r="D111" t="n">
-        <v>1838563</v>
+        <v>1841784</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -5710,10 +5710,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>2970</v>
+        <v>2984</v>
       </c>
       <c r="D112" t="n">
-        <v>4396097</v>
+        <v>4423489</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -5758,10 +5758,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="D113" t="n">
-        <v>1298602</v>
+        <v>1310102</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -5806,10 +5806,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D114" t="n">
-        <v>412685</v>
+        <v>435685</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -5950,10 +5950,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>1104</v>
+        <v>1114</v>
       </c>
       <c r="D117" t="n">
-        <v>1461479</v>
+        <v>1483380</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -5998,10 +5998,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="D118" t="n">
-        <v>1206831</v>
+        <v>1213654</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -6046,10 +6046,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>2143</v>
+        <v>2162</v>
       </c>
       <c r="D119" t="n">
-        <v>3119031</v>
+        <v>3136237</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -6094,10 +6094,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="D120" t="n">
-        <v>950355</v>
+        <v>963403</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -6190,10 +6190,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D122" t="n">
-        <v>63334</v>
+        <v>64834</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -6238,10 +6238,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>1009</v>
+        <v>1016</v>
       </c>
       <c r="D123" t="n">
-        <v>1310084</v>
+        <v>1319267</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -6286,10 +6286,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>2300</v>
+        <v>2323</v>
       </c>
       <c r="D124" t="n">
-        <v>3423059</v>
+        <v>3465861</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -6334,10 +6334,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>6432</v>
+        <v>6479</v>
       </c>
       <c r="D125" t="n">
-        <v>9683471</v>
+        <v>9790636</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -6382,10 +6382,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>1906</v>
+        <v>1917</v>
       </c>
       <c r="D126" t="n">
-        <v>2954251</v>
+        <v>2992107</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -6430,10 +6430,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D127" t="n">
-        <v>663105</v>
+        <v>667605</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -6574,10 +6574,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>2779</v>
+        <v>2794</v>
       </c>
       <c r="D130" t="n">
-        <v>3753725</v>
+        <v>3784534</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -6622,10 +6622,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D131" t="n">
-        <v>636496</v>
+        <v>637458</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -6670,10 +6670,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>1266</v>
+        <v>1274</v>
       </c>
       <c r="D132" t="n">
-        <v>1863433</v>
+        <v>1879642</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -6862,10 +6862,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D136" t="n">
-        <v>495848</v>
+        <v>496595</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -6910,10 +6910,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>1261</v>
+        <v>1272</v>
       </c>
       <c r="D137" t="n">
-        <v>1852255</v>
+        <v>1877787</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -6958,10 +6958,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>3654</v>
+        <v>3672</v>
       </c>
       <c r="D138" t="n">
-        <v>5421877</v>
+        <v>5463812</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -7006,10 +7006,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>1045</v>
+        <v>1052</v>
       </c>
       <c r="D139" t="n">
-        <v>1599331</v>
+        <v>1616663</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -7054,10 +7054,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D140" t="n">
-        <v>434730</v>
+        <v>447730</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -7102,10 +7102,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D141" t="n">
-        <v>62072</v>
+        <v>67185</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -7198,10 +7198,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>1282</v>
+        <v>1290</v>
       </c>
       <c r="D143" t="n">
-        <v>1683738</v>
+        <v>1695745</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -7246,10 +7246,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>2922</v>
+        <v>2933</v>
       </c>
       <c r="D144" t="n">
-        <v>4238381</v>
+        <v>4252639</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -7294,10 +7294,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>6652</v>
+        <v>6693</v>
       </c>
       <c r="D145" t="n">
-        <v>9731688</v>
+        <v>9772065</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -7342,10 +7342,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>1850</v>
+        <v>1862</v>
       </c>
       <c r="D146" t="n">
-        <v>2804524</v>
+        <v>2837225</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -7390,10 +7390,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D147" t="n">
-        <v>655682</v>
+        <v>657182</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -7438,10 +7438,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D148" t="n">
-        <v>76332</v>
+        <v>76998</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -7534,10 +7534,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>2619</v>
+        <v>2627</v>
       </c>
       <c r="D150" t="n">
-        <v>3395312</v>
+        <v>3402158</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -7582,10 +7582,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>4007</v>
+        <v>4033</v>
       </c>
       <c r="D151" t="n">
-        <v>5780110</v>
+        <v>5815304</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -7630,10 +7630,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>8967</v>
+        <v>9014</v>
       </c>
       <c r="D152" t="n">
-        <v>13118748</v>
+        <v>13179769</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -7678,10 +7678,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>3124</v>
+        <v>3141</v>
       </c>
       <c r="D153" t="n">
-        <v>4635489</v>
+        <v>4650147</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -7726,10 +7726,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="D154" t="n">
-        <v>1180035</v>
+        <v>1184860</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -7822,10 +7822,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D156" t="n">
-        <v>26832</v>
+        <v>28998</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -7870,10 +7870,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>3413</v>
+        <v>3425</v>
       </c>
       <c r="D157" t="n">
-        <v>4524377</v>
+        <v>4533864</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -7918,10 +7918,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>3946</v>
+        <v>3974</v>
       </c>
       <c r="D158" t="n">
-        <v>5807670</v>
+        <v>5846838</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -7966,10 +7966,10 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>10771</v>
+        <v>10869</v>
       </c>
       <c r="D159" t="n">
-        <v>16202296</v>
+        <v>16401270</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -8014,10 +8014,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>3526</v>
+        <v>3551</v>
       </c>
       <c r="D160" t="n">
-        <v>5455741</v>
+        <v>5521447</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -8062,10 +8062,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>1105</v>
+        <v>1115</v>
       </c>
       <c r="D161" t="n">
-        <v>1787013</v>
+        <v>1823874</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -8110,10 +8110,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D162" t="n">
-        <v>457807</v>
+        <v>473639</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -8158,10 +8158,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D163" t="n">
-        <v>52385</v>
+        <v>61277</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -8206,10 +8206,10 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>3569</v>
+        <v>3596</v>
       </c>
       <c r="D164" t="n">
-        <v>4771413</v>
+        <v>4799998</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -8254,10 +8254,10 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>4207</v>
+        <v>4231</v>
       </c>
       <c r="D165" t="n">
-        <v>6109591</v>
+        <v>6154540</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -8302,10 +8302,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>8619</v>
+        <v>8672</v>
       </c>
       <c r="D166" t="n">
-        <v>12665260</v>
+        <v>12736755</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -8350,10 +8350,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>2789</v>
+        <v>2809</v>
       </c>
       <c r="D167" t="n">
-        <v>4188531</v>
+        <v>4225892</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -8398,10 +8398,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="D168" t="n">
-        <v>1022924</v>
+        <v>1038588</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -8446,10 +8446,10 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D169" t="n">
-        <v>202487</v>
+        <v>203153</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -8542,10 +8542,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>3294</v>
+        <v>3303</v>
       </c>
       <c r="D171" t="n">
-        <v>4411872</v>
+        <v>4424556</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -8590,10 +8590,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="D172" t="n">
-        <v>1443835</v>
+        <v>1445935</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -8638,10 +8638,10 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>2804</v>
+        <v>2821</v>
       </c>
       <c r="D173" t="n">
-        <v>4123858</v>
+        <v>4158160</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -8686,10 +8686,10 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>913</v>
+        <v>921</v>
       </c>
       <c r="D174" t="n">
-        <v>1397021</v>
+        <v>1412840</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -8734,10 +8734,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D175" t="n">
-        <v>414500</v>
+        <v>416000</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -8782,10 +8782,10 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D176" t="n">
-        <v>68885</v>
+        <v>70217</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -8878,10 +8878,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>1291</v>
+        <v>1294</v>
       </c>
       <c r="D178" t="n">
-        <v>1661053</v>
+        <v>1662606</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -8926,10 +8926,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>1348</v>
+        <v>1356</v>
       </c>
       <c r="D179" t="n">
-        <v>1986672</v>
+        <v>2003396</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -8974,10 +8974,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>3941</v>
+        <v>3965</v>
       </c>
       <c r="D180" t="n">
-        <v>5896288</v>
+        <v>5948000</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -9022,10 +9022,10 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>1277</v>
+        <v>1287</v>
       </c>
       <c r="D181" t="n">
-        <v>1939416</v>
+        <v>1968403</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -9070,10 +9070,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D182" t="n">
-        <v>510652</v>
+        <v>514483</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -9118,10 +9118,10 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D183" t="n">
-        <v>87166</v>
+        <v>88666</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -9214,10 +9214,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>1275</v>
+        <v>1284</v>
       </c>
       <c r="D185" t="n">
-        <v>1713989</v>
+        <v>1730029</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -9262,10 +9262,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="D186" t="n">
-        <v>1009461</v>
+        <v>1015461</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -9310,10 +9310,10 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>2157</v>
+        <v>2173</v>
       </c>
       <c r="D187" t="n">
-        <v>3160165</v>
+        <v>3186086</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -9358,10 +9358,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="D188" t="n">
-        <v>1078180</v>
+        <v>1091503</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -9502,10 +9502,10 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>986</v>
+        <v>991</v>
       </c>
       <c r="D191" t="n">
-        <v>1232898</v>
+        <v>1237985</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -9550,10 +9550,10 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>2569</v>
+        <v>2583</v>
       </c>
       <c r="D192" t="n">
-        <v>3778603</v>
+        <v>3817300</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -9598,10 +9598,10 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>6562</v>
+        <v>6620</v>
       </c>
       <c r="D193" t="n">
-        <v>9917075</v>
+        <v>10066332</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -9646,10 +9646,10 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>2262</v>
+        <v>2285</v>
       </c>
       <c r="D194" t="n">
-        <v>3444581</v>
+        <v>3467775</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -9694,10 +9694,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="D195" t="n">
-        <v>958334</v>
+        <v>961166</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -9742,10 +9742,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D196" t="n">
-        <v>214034</v>
+        <v>216032</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -9838,10 +9838,10 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>2415</v>
+        <v>2421</v>
       </c>
       <c r="D198" t="n">
-        <v>3259518</v>
+        <v>3271429</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -9886,10 +9886,10 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>2142</v>
+        <v>2161</v>
       </c>
       <c r="D199" t="n">
-        <v>3205796</v>
+        <v>3249501</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -9934,10 +9934,10 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>6393</v>
+        <v>6447</v>
       </c>
       <c r="D200" t="n">
-        <v>9617985</v>
+        <v>9716712</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -9982,10 +9982,10 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>2364</v>
+        <v>2382</v>
       </c>
       <c r="D201" t="n">
-        <v>3639523</v>
+        <v>3683178</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -10030,10 +10030,10 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="D202" t="n">
-        <v>850115</v>
+        <v>855993</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -10078,10 +10078,10 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D203" t="n">
-        <v>208319</v>
+        <v>209651</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -10174,10 +10174,10 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>2131</v>
+        <v>2148</v>
       </c>
       <c r="D205" t="n">
-        <v>2797310</v>
+        <v>2819976</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -10222,10 +10222,10 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>1163</v>
+        <v>1169</v>
       </c>
       <c r="D206" t="n">
-        <v>1691071</v>
+        <v>1695378</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -10270,10 +10270,10 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>3536</v>
+        <v>3568</v>
       </c>
       <c r="D207" t="n">
-        <v>5227568</v>
+        <v>5276022</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -10318,10 +10318,10 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>1160</v>
+        <v>1167</v>
       </c>
       <c r="D208" t="n">
-        <v>1742261</v>
+        <v>1753327</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -10366,10 +10366,10 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D209" t="n">
-        <v>364399</v>
+        <v>365899</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -10414,10 +10414,10 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D210" t="n">
-        <v>94332</v>
+        <v>94998</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -10510,10 +10510,10 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>1232</v>
+        <v>1236</v>
       </c>
       <c r="D212" t="n">
-        <v>1638745</v>
+        <v>1642612</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -10558,10 +10558,10 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>1165</v>
+        <v>1170</v>
       </c>
       <c r="D213" t="n">
-        <v>1692281</v>
+        <v>1698947</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -10606,10 +10606,10 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>4275</v>
+        <v>4297</v>
       </c>
       <c r="D214" t="n">
-        <v>6416036</v>
+        <v>6473123</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -10654,10 +10654,10 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>2114</v>
+        <v>2126</v>
       </c>
       <c r="D215" t="n">
-        <v>3272039</v>
+        <v>3312014</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -10702,10 +10702,10 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D216" t="n">
-        <v>862804</v>
+        <v>864304</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -10750,10 +10750,10 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D217" t="n">
-        <v>226928</v>
+        <v>239928</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -10846,10 +10846,10 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>932</v>
+        <v>937</v>
       </c>
       <c r="D219" t="n">
-        <v>1241108</v>
+        <v>1247638</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -10894,10 +10894,10 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>2699</v>
+        <v>2718</v>
       </c>
       <c r="D220" t="n">
-        <v>4033705</v>
+        <v>4091857</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -10942,10 +10942,10 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>4752</v>
+        <v>4772</v>
       </c>
       <c r="D221" t="n">
-        <v>7193200</v>
+        <v>7264228</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -10990,10 +10990,10 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>1421</v>
+        <v>1430</v>
       </c>
       <c r="D222" t="n">
-        <v>2152393</v>
+        <v>2165389</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -11038,10 +11038,10 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D223" t="n">
-        <v>519412</v>
+        <v>520912</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -11134,10 +11134,10 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>1958</v>
+        <v>1969</v>
       </c>
       <c r="D225" t="n">
-        <v>2677617</v>
+        <v>2691293</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -11182,10 +11182,10 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>842</v>
+        <v>851</v>
       </c>
       <c r="D226" t="n">
-        <v>1225214</v>
+        <v>1240857</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -11230,10 +11230,10 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>2530</v>
+        <v>2550</v>
       </c>
       <c r="D227" t="n">
-        <v>3793460</v>
+        <v>3862743</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -11278,10 +11278,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="D228" t="n">
-        <v>1153325</v>
+        <v>1154138</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -11326,10 +11326,10 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D229" t="n">
-        <v>390594</v>
+        <v>401260</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -11374,10 +11374,10 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D230" t="n">
-        <v>70500</v>
+        <v>72000</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -11470,10 +11470,10 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>1074</v>
+        <v>1082</v>
       </c>
       <c r="D232" t="n">
-        <v>1364377</v>
+        <v>1370405</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -11518,10 +11518,10 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>1079</v>
+        <v>1086</v>
       </c>
       <c r="D233" t="n">
-        <v>1565355</v>
+        <v>1575152</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -11566,10 +11566,10 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>2985</v>
+        <v>3010</v>
       </c>
       <c r="D234" t="n">
-        <v>4451021</v>
+        <v>4506179</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -11614,10 +11614,10 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>925</v>
+        <v>932</v>
       </c>
       <c r="D235" t="n">
-        <v>1402628</v>
+        <v>1410626</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -11710,10 +11710,10 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D237" t="n">
-        <v>98639</v>
+        <v>100139</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -11758,10 +11758,10 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>1078</v>
+        <v>1085</v>
       </c>
       <c r="D238" t="n">
-        <v>1470204</v>
+        <v>1485159</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -11806,10 +11806,10 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>4631</v>
+        <v>4670</v>
       </c>
       <c r="D239" t="n">
-        <v>6874970</v>
+        <v>6957460</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -11854,10 +11854,10 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>13979</v>
+        <v>14089</v>
       </c>
       <c r="D240" t="n">
-        <v>20935686</v>
+        <v>21146273</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -11902,10 +11902,10 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>5324</v>
+        <v>5372</v>
       </c>
       <c r="D241" t="n">
-        <v>8113320</v>
+        <v>8242319</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -11950,10 +11950,10 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>1723</v>
+        <v>1739</v>
       </c>
       <c r="D242" t="n">
-        <v>2594437</v>
+        <v>2622266</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -11998,10 +11998,10 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="D243" t="n">
-        <v>669074</v>
+        <v>680234</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -12046,10 +12046,10 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D244" t="n">
-        <v>105332</v>
+        <v>115332</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -12094,10 +12094,10 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>3991</v>
+        <v>4015</v>
       </c>
       <c r="D245" t="n">
-        <v>5443586</v>
+        <v>5495468</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -12142,10 +12142,10 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D246" t="n">
-        <v>833707</v>
+        <v>840773</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -12190,10 +12190,10 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>1520</v>
+        <v>1525</v>
       </c>
       <c r="D247" t="n">
-        <v>2196906</v>
+        <v>2201253</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -12238,10 +12238,10 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="D248" t="n">
-        <v>747327</v>
+        <v>753159</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -12286,10 +12286,10 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D249" t="n">
-        <v>232028</v>
+        <v>233528</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -12430,10 +12430,10 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="D252" t="n">
-        <v>842817</v>
+        <v>845568</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -12478,10 +12478,10 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>3059</v>
+        <v>3077</v>
       </c>
       <c r="D253" t="n">
-        <v>4530870</v>
+        <v>4571418</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -12526,10 +12526,10 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>8749</v>
+        <v>8798</v>
       </c>
       <c r="D254" t="n">
-        <v>12960988</v>
+        <v>13038901</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
@@ -12574,10 +12574,10 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>3492</v>
+        <v>3504</v>
       </c>
       <c r="D255" t="n">
-        <v>5252068</v>
+        <v>5279369</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -12622,10 +12622,10 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>975</v>
+        <v>981</v>
       </c>
       <c r="D256" t="n">
-        <v>1496698</v>
+        <v>1510862</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -12670,10 +12670,10 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D257" t="n">
-        <v>435062</v>
+        <v>438062</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -12862,10 +12862,10 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>2323</v>
+        <v>2333</v>
       </c>
       <c r="D261" t="n">
-        <v>3011072</v>
+        <v>3021897</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -12910,10 +12910,10 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>2020</v>
+        <v>2035</v>
       </c>
       <c r="D262" t="n">
-        <v>2985987</v>
+        <v>3005275</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -12958,10 +12958,10 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>5711</v>
+        <v>5765</v>
       </c>
       <c r="D263" t="n">
-        <v>8686510</v>
+        <v>8823523</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -13006,10 +13006,10 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>2027</v>
+        <v>2041</v>
       </c>
       <c r="D264" t="n">
-        <v>3153317</v>
+        <v>3183648</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -13054,10 +13054,10 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="D265" t="n">
-        <v>1024814</v>
+        <v>1039081</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -13102,10 +13102,10 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D266" t="n">
-        <v>263828</v>
+        <v>271994</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -13150,10 +13150,10 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D267" t="n">
-        <v>21666</v>
+        <v>23166</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -13198,10 +13198,10 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>2295</v>
+        <v>2312</v>
       </c>
       <c r="D268" t="n">
-        <v>3034774</v>
+        <v>3064039</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -13246,10 +13246,10 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>2098</v>
+        <v>2113</v>
       </c>
       <c r="D269" t="n">
-        <v>3164716</v>
+        <v>3206354</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -13294,10 +13294,10 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>6228</v>
+        <v>6266</v>
       </c>
       <c r="D270" t="n">
-        <v>9299089</v>
+        <v>9384532</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -13342,10 +13342,10 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>2103</v>
+        <v>2118</v>
       </c>
       <c r="D271" t="n">
-        <v>3145034</v>
+        <v>3168693</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -13390,10 +13390,10 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="D272" t="n">
-        <v>869574</v>
+        <v>870906</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -13438,10 +13438,10 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D273" t="n">
-        <v>308923</v>
+        <v>318923</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
@@ -13534,10 +13534,10 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>2490</v>
+        <v>2502</v>
       </c>
       <c r="D275" t="n">
-        <v>3326825</v>
+        <v>3341462</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -13582,10 +13582,10 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="D276" t="n">
-        <v>851068</v>
+        <v>855568</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -13630,10 +13630,10 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>1561</v>
+        <v>1574</v>
       </c>
       <c r="D277" t="n">
-        <v>2269941</v>
+        <v>2290942</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -13678,10 +13678,10 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D278" t="n">
-        <v>712854</v>
+        <v>715854</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -13822,10 +13822,10 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="D281" t="n">
-        <v>892653</v>
+        <v>898653</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -13870,10 +13870,10 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>2957</v>
+        <v>2973</v>
       </c>
       <c r="D282" t="n">
-        <v>4371517</v>
+        <v>4415714</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -13918,10 +13918,10 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>9376</v>
+        <v>9414</v>
       </c>
       <c r="D283" t="n">
-        <v>13817625</v>
+        <v>13903880</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -13966,10 +13966,10 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>3843</v>
+        <v>3858</v>
       </c>
       <c r="D284" t="n">
-        <v>5731574</v>
+        <v>5756696</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -14014,10 +14014,10 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="D285" t="n">
-        <v>1752762</v>
+        <v>1754928</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -14062,10 +14062,10 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D286" t="n">
-        <v>323318</v>
+        <v>324818</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -14206,10 +14206,10 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>2659</v>
+        <v>2671</v>
       </c>
       <c r="D289" t="n">
-        <v>3519748</v>
+        <v>3530015</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -14254,10 +14254,10 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>1836</v>
+        <v>1857</v>
       </c>
       <c r="D290" t="n">
-        <v>2648063</v>
+        <v>2669100</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -14302,10 +14302,10 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>4414</v>
+        <v>4446</v>
       </c>
       <c r="D291" t="n">
-        <v>6527002</v>
+        <v>6590831</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -14350,10 +14350,10 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>1391</v>
+        <v>1401</v>
       </c>
       <c r="D292" t="n">
-        <v>2067811</v>
+        <v>2080350</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -14398,10 +14398,10 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D293" t="n">
-        <v>607661</v>
+        <v>608993</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -14446,10 +14446,10 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D294" t="n">
-        <v>126749</v>
+        <v>127415</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -14542,10 +14542,10 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>1812</v>
+        <v>1819</v>
       </c>
       <c r="D296" t="n">
-        <v>2398394</v>
+        <v>2415255</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
@@ -14590,10 +14590,10 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>2464</v>
+        <v>2475</v>
       </c>
       <c r="D297" t="n">
-        <v>3669324</v>
+        <v>3700140</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
@@ -14638,10 +14638,10 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>8246</v>
+        <v>8287</v>
       </c>
       <c r="D298" t="n">
-        <v>12394528</v>
+        <v>12512103</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -14686,10 +14686,10 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>2771</v>
+        <v>2785</v>
       </c>
       <c r="D299" t="n">
-        <v>4328590</v>
+        <v>4390839</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -14734,10 +14734,10 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>878</v>
+        <v>883</v>
       </c>
       <c r="D300" t="n">
-        <v>1367798</v>
+        <v>1386723</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -14782,10 +14782,10 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D301" t="n">
-        <v>414110</v>
+        <v>440110</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
@@ -14830,10 +14830,10 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D302" t="n">
-        <v>66000</v>
+        <v>76000</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
@@ -14878,10 +14878,10 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>8161</v>
+        <v>8184</v>
       </c>
       <c r="D303" t="n">
-        <v>11297552</v>
+        <v>11332319</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
@@ -14926,10 +14926,10 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>1708</v>
+        <v>1711</v>
       </c>
       <c r="D304" t="n">
-        <v>3512193</v>
+        <v>3535516</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -14974,10 +14974,10 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>4061</v>
+        <v>4067</v>
       </c>
       <c r="D305" t="n">
-        <v>8294542</v>
+        <v>8333064</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -15022,10 +15022,10 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>1615</v>
+        <v>1621</v>
       </c>
       <c r="D306" t="n">
-        <v>3324997</v>
+        <v>3356997</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -15070,10 +15070,10 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D307" t="n">
-        <v>1092845</v>
+        <v>1097843</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
@@ -15214,10 +15214,10 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>2650</v>
+        <v>2656</v>
       </c>
       <c r="D310" t="n">
-        <v>5023301</v>
+        <v>5056445</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
@@ -15262,10 +15262,10 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>1358</v>
+        <v>1371</v>
       </c>
       <c r="D311" t="n">
-        <v>1998725</v>
+        <v>2019327</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -15310,10 +15310,10 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>4000</v>
+        <v>4021</v>
       </c>
       <c r="D312" t="n">
-        <v>5949119</v>
+        <v>5994823</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
@@ -15358,10 +15358,10 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>1500</v>
+        <v>1512</v>
       </c>
       <c r="D313" t="n">
-        <v>2246262</v>
+        <v>2267247</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -15406,10 +15406,10 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D314" t="n">
-        <v>545718</v>
+        <v>548550</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -15598,10 +15598,10 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>1614</v>
+        <v>1632</v>
       </c>
       <c r="D318" t="n">
-        <v>2155976</v>
+        <v>2180920</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
@@ -15646,10 +15646,10 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>8357</v>
+        <v>8435</v>
       </c>
       <c r="D319" t="n">
-        <v>12632999</v>
+        <v>12847391</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
@@ -15694,10 +15694,10 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>22680</v>
+        <v>22874</v>
       </c>
       <c r="D320" t="n">
-        <v>34864795</v>
+        <v>35406115</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
@@ -15742,10 +15742,10 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>8052</v>
+        <v>8112</v>
       </c>
       <c r="D321" t="n">
-        <v>12812442</v>
+        <v>13040223</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -15790,10 +15790,10 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>2465</v>
+        <v>2486</v>
       </c>
       <c r="D322" t="n">
-        <v>3984826</v>
+        <v>4061886</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -15838,10 +15838,10 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="D323" t="n">
-        <v>1111307</v>
+        <v>1146305</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
@@ -15886,10 +15886,10 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D324" t="n">
-        <v>130666</v>
+        <v>142166</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
@@ -15934,10 +15934,10 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D325" t="n">
-        <v>3119</v>
+        <v>3785</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -16030,10 +16030,10 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>6983</v>
+        <v>7024</v>
       </c>
       <c r="D327" t="n">
-        <v>9236187</v>
+        <v>9286848</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -16078,10 +16078,10 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>2429</v>
+        <v>2451</v>
       </c>
       <c r="D328" t="n">
-        <v>3658910</v>
+        <v>3716502</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -16126,10 +16126,10 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>7450</v>
+        <v>7506</v>
       </c>
       <c r="D329" t="n">
-        <v>11263797</v>
+        <v>11403028</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
@@ -16174,10 +16174,10 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>2547</v>
+        <v>2564</v>
       </c>
       <c r="D330" t="n">
-        <v>3967556</v>
+        <v>4023701</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
@@ -16222,10 +16222,10 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="D331" t="n">
-        <v>1101751</v>
+        <v>1117674</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -16270,10 +16270,10 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D332" t="n">
-        <v>273925</v>
+        <v>285425</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -16318,10 +16318,10 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D333" t="n">
-        <v>11166</v>
+        <v>12666</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
@@ -16366,10 +16366,10 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>2201</v>
+        <v>2210</v>
       </c>
       <c r="D334" t="n">
-        <v>2998210</v>
+        <v>3012881</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
@@ -16414,10 +16414,10 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>4118</v>
+        <v>4139</v>
       </c>
       <c r="D335" t="n">
-        <v>5999167</v>
+        <v>6024779</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
@@ -16462,10 +16462,10 @@
         </is>
       </c>
       <c r="C336" t="n">
-        <v>11917</v>
+        <v>11995</v>
       </c>
       <c r="D336" t="n">
-        <v>17858405</v>
+        <v>18045200</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
@@ -16510,10 +16510,10 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>3806</v>
+        <v>3826</v>
       </c>
       <c r="D337" t="n">
-        <v>5830039</v>
+        <v>5907544</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
@@ -16558,10 +16558,10 @@
         </is>
       </c>
       <c r="C338" t="n">
-        <v>1222</v>
+        <v>1234</v>
       </c>
       <c r="D338" t="n">
-        <v>1921072</v>
+        <v>1972733</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
@@ -16606,10 +16606,10 @@
         </is>
       </c>
       <c r="C339" t="n">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D339" t="n">
-        <v>382248</v>
+        <v>395914</v>
       </c>
       <c r="E339" t="inlineStr">
         <is>
@@ -16654,10 +16654,10 @@
         </is>
       </c>
       <c r="C340" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D340" t="n">
-        <v>62832</v>
+        <v>72832</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
@@ -16750,10 +16750,10 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>4214</v>
+        <v>4245</v>
       </c>
       <c r="D342" t="n">
-        <v>5463979</v>
+        <v>5495376</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
@@ -16798,10 +16798,10 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>1676</v>
+        <v>1684</v>
       </c>
       <c r="D343" t="n">
-        <v>2458974</v>
+        <v>2474857</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
@@ -16846,10 +16846,10 @@
         </is>
       </c>
       <c r="C344" t="n">
-        <v>4715</v>
+        <v>4740</v>
       </c>
       <c r="D344" t="n">
-        <v>6930513</v>
+        <v>6967394</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
@@ -16894,10 +16894,10 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>1782</v>
+        <v>1790</v>
       </c>
       <c r="D345" t="n">
-        <v>2659882</v>
+        <v>2669380</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
@@ -16942,10 +16942,10 @@
         </is>
       </c>
       <c r="C346" t="n">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D346" t="n">
-        <v>642419</v>
+        <v>643751</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
@@ -17086,10 +17086,10 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>1830</v>
+        <v>1838</v>
       </c>
       <c r="D349" t="n">
-        <v>2330861</v>
+        <v>2336858</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
@@ -17134,10 +17134,10 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>4564</v>
+        <v>4600</v>
       </c>
       <c r="D350" t="n">
-        <v>7011681</v>
+        <v>7121319</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
@@ -17182,10 +17182,10 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>12409</v>
+        <v>12505</v>
       </c>
       <c r="D351" t="n">
-        <v>19238249</v>
+        <v>19535314</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
@@ -17230,10 +17230,10 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>4517</v>
+        <v>4540</v>
       </c>
       <c r="D352" t="n">
-        <v>7048131</v>
+        <v>7134353</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
@@ -17278,10 +17278,10 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>1354</v>
+        <v>1362</v>
       </c>
       <c r="D353" t="n">
-        <v>2144828</v>
+        <v>2164817</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
@@ -17326,10 +17326,10 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D354" t="n">
-        <v>490401</v>
+        <v>494232</v>
       </c>
       <c r="E354" t="inlineStr">
         <is>
@@ -17518,10 +17518,10 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>4261</v>
+        <v>4306</v>
       </c>
       <c r="D358" t="n">
-        <v>6031103</v>
+        <v>6137276</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
@@ -17566,10 +17566,10 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>8770</v>
+        <v>8868</v>
       </c>
       <c r="D359" t="n">
-        <v>13828675</v>
+        <v>14166567</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
@@ -17614,10 +17614,10 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>20083</v>
+        <v>20320</v>
       </c>
       <c r="D360" t="n">
-        <v>31767607</v>
+        <v>32500365</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
@@ -17662,10 +17662,10 @@
         </is>
       </c>
       <c r="C361" t="n">
-        <v>8534</v>
+        <v>8633</v>
       </c>
       <c r="D361" t="n">
-        <v>13850403</v>
+        <v>14239895</v>
       </c>
       <c r="E361" t="inlineStr">
         <is>
@@ -17710,10 +17710,10 @@
         </is>
       </c>
       <c r="C362" t="n">
-        <v>2592</v>
+        <v>2621</v>
       </c>
       <c r="D362" t="n">
-        <v>4446635</v>
+        <v>4618753</v>
       </c>
       <c r="E362" t="inlineStr">
         <is>
@@ -17758,10 +17758,10 @@
         </is>
       </c>
       <c r="C363" t="n">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="D363" t="n">
-        <v>1282950</v>
+        <v>1317601</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
@@ -17806,10 +17806,10 @@
         </is>
       </c>
       <c r="C364" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D364" t="n">
-        <v>137770</v>
+        <v>148093</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
@@ -17902,10 +17902,10 @@
         </is>
       </c>
       <c r="C366" t="n">
-        <v>7447</v>
+        <v>7535</v>
       </c>
       <c r="D366" t="n">
-        <v>10294105</v>
+        <v>10449221</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
@@ -17950,10 +17950,10 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>25066</v>
+        <v>25351</v>
       </c>
       <c r="D367" t="n">
-        <v>39663827</v>
+        <v>40748318</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
@@ -17998,10 +17998,10 @@
         </is>
       </c>
       <c r="C368" t="n">
-        <v>66061</v>
+        <v>66779</v>
       </c>
       <c r="D368" t="n">
-        <v>106500773</v>
+        <v>109337509</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
@@ -18046,10 +18046,10 @@
         </is>
       </c>
       <c r="C369" t="n">
-        <v>31643</v>
+        <v>32032</v>
       </c>
       <c r="D369" t="n">
-        <v>54753745</v>
+        <v>56807151</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
@@ -18094,10 +18094,10 @@
         </is>
       </c>
       <c r="C370" t="n">
-        <v>12056</v>
+        <v>12210</v>
       </c>
       <c r="D370" t="n">
-        <v>22195883</v>
+        <v>23100724</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
@@ -18142,10 +18142,10 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>3767</v>
+        <v>3850</v>
       </c>
       <c r="D371" t="n">
-        <v>8032239</v>
+        <v>8572990</v>
       </c>
       <c r="E371" t="inlineStr">
         <is>
@@ -18190,10 +18190,10 @@
         </is>
       </c>
       <c r="C372" t="n">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="D372" t="n">
-        <v>1054100</v>
+        <v>1128422</v>
       </c>
       <c r="E372" t="inlineStr">
         <is>
@@ -18430,10 +18430,10 @@
         </is>
       </c>
       <c r="C377" t="n">
-        <v>24279</v>
+        <v>24518</v>
       </c>
       <c r="D377" t="n">
-        <v>33612974</v>
+        <v>34170617</v>
       </c>
       <c r="E377" t="inlineStr">
         <is>
@@ -18478,10 +18478,10 @@
         </is>
       </c>
       <c r="C378" t="n">
-        <v>5505</v>
+        <v>5556</v>
       </c>
       <c r="D378" t="n">
-        <v>8492053</v>
+        <v>8654675</v>
       </c>
       <c r="E378" t="inlineStr">
         <is>
@@ -18526,10 +18526,10 @@
         </is>
       </c>
       <c r="C379" t="n">
-        <v>14529</v>
+        <v>14669</v>
       </c>
       <c r="D379" t="n">
-        <v>22644806</v>
+        <v>23129707</v>
       </c>
       <c r="E379" t="inlineStr">
         <is>
@@ -18574,10 +18574,10 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>5293</v>
+        <v>5327</v>
       </c>
       <c r="D380" t="n">
-        <v>8361780</v>
+        <v>8507784</v>
       </c>
       <c r="E380" t="inlineStr">
         <is>
@@ -18622,10 +18622,10 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>1636</v>
+        <v>1647</v>
       </c>
       <c r="D381" t="n">
-        <v>2598794</v>
+        <v>2639960</v>
       </c>
       <c r="E381" t="inlineStr">
         <is>
@@ -18670,10 +18670,10 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="D382" t="n">
-        <v>609912</v>
+        <v>615078</v>
       </c>
       <c r="E382" t="inlineStr">
         <is>
@@ -18718,10 +18718,10 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D383" t="n">
-        <v>20332</v>
+        <v>20998</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
@@ -18766,10 +18766,10 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>5718</v>
+        <v>5802</v>
       </c>
       <c r="D384" t="n">
-        <v>7948654</v>
+        <v>8113796</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
@@ -18814,10 +18814,10 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>7565</v>
+        <v>7678</v>
       </c>
       <c r="D385" t="n">
-        <v>11854836</v>
+        <v>12232113</v>
       </c>
       <c r="E385" t="inlineStr">
         <is>
@@ -18862,10 +18862,10 @@
         </is>
       </c>
       <c r="C386" t="n">
-        <v>24257</v>
+        <v>24506</v>
       </c>
       <c r="D386" t="n">
-        <v>38054565</v>
+        <v>38946352</v>
       </c>
       <c r="E386" t="inlineStr">
         <is>
@@ -18910,10 +18910,10 @@
         </is>
       </c>
       <c r="C387" t="n">
-        <v>10487</v>
+        <v>10573</v>
       </c>
       <c r="D387" t="n">
-        <v>16744916</v>
+        <v>17126079</v>
       </c>
       <c r="E387" t="inlineStr">
         <is>
@@ -18958,10 +18958,10 @@
         </is>
       </c>
       <c r="C388" t="n">
-        <v>2869</v>
+        <v>2886</v>
       </c>
       <c r="D388" t="n">
-        <v>4581210</v>
+        <v>4646862</v>
       </c>
       <c r="E388" t="inlineStr">
         <is>
@@ -19006,10 +19006,10 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>816</v>
+        <v>836</v>
       </c>
       <c r="D389" t="n">
-        <v>1524754</v>
+        <v>1640400</v>
       </c>
       <c r="E389" t="inlineStr">
         <is>
@@ -19054,10 +19054,10 @@
         </is>
       </c>
       <c r="C390" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D390" t="n">
-        <v>85611</v>
+        <v>90939</v>
       </c>
       <c r="E390" t="inlineStr">
         <is>
@@ -19150,10 +19150,10 @@
         </is>
       </c>
       <c r="C392" t="n">
-        <v>7762</v>
+        <v>7872</v>
       </c>
       <c r="D392" t="n">
-        <v>10744888</v>
+        <v>10959236</v>
       </c>
       <c r="E392" t="inlineStr">
         <is>
@@ -19198,10 +19198,10 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>6424</v>
+        <v>6506</v>
       </c>
       <c r="D393" t="n">
-        <v>10036823</v>
+        <v>10307451</v>
       </c>
       <c r="E393" t="inlineStr">
         <is>
@@ -19246,10 +19246,10 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>17422</v>
+        <v>17615</v>
       </c>
       <c r="D394" t="n">
-        <v>27240867</v>
+        <v>27850846</v>
       </c>
       <c r="E394" t="inlineStr">
         <is>
@@ -19294,10 +19294,10 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>6736</v>
+        <v>6788</v>
       </c>
       <c r="D395" t="n">
-        <v>10756286</v>
+        <v>10986509</v>
       </c>
       <c r="E395" t="inlineStr">
         <is>
@@ -19342,10 +19342,10 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>1979</v>
+        <v>1990</v>
       </c>
       <c r="D396" t="n">
-        <v>3225864</v>
+        <v>3266917</v>
       </c>
       <c r="E396" t="inlineStr">
         <is>
@@ -19390,10 +19390,10 @@
         </is>
       </c>
       <c r="C397" t="n">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="D397" t="n">
-        <v>901474</v>
+        <v>924576</v>
       </c>
       <c r="E397" t="inlineStr">
         <is>
@@ -19582,10 +19582,10 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>6816</v>
+        <v>6922</v>
       </c>
       <c r="D401" t="n">
-        <v>9378206</v>
+        <v>9554770</v>
       </c>
       <c r="E401" t="inlineStr">
         <is>
@@ -19630,10 +19630,10 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>4785</v>
+        <v>4833</v>
       </c>
       <c r="D402" t="n">
-        <v>7330301</v>
+        <v>7458314</v>
       </c>
       <c r="E402" t="inlineStr">
         <is>
@@ -19678,10 +19678,10 @@
         </is>
       </c>
       <c r="C403" t="n">
-        <v>14168</v>
+        <v>14297</v>
       </c>
       <c r="D403" t="n">
-        <v>22306858</v>
+        <v>22733872</v>
       </c>
       <c r="E403" t="inlineStr">
         <is>
@@ -19726,10 +19726,10 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>5538</v>
+        <v>5587</v>
       </c>
       <c r="D404" t="n">
-        <v>8751154</v>
+        <v>8973244</v>
       </c>
       <c r="E404" t="inlineStr">
         <is>
@@ -19774,10 +19774,10 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>1608</v>
+        <v>1618</v>
       </c>
       <c r="D405" t="n">
-        <v>2485875</v>
+        <v>2498373</v>
       </c>
       <c r="E405" t="inlineStr">
         <is>
@@ -19822,10 +19822,10 @@
         </is>
       </c>
       <c r="C406" t="n">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="D406" t="n">
-        <v>650011</v>
+        <v>683657</v>
       </c>
       <c r="E406" t="inlineStr">
         <is>
@@ -19870,10 +19870,10 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D407" t="n">
-        <v>62000</v>
+        <v>63500</v>
       </c>
       <c r="E407" t="inlineStr">
         <is>
@@ -19966,10 +19966,10 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>5096</v>
+        <v>5171</v>
       </c>
       <c r="D409" t="n">
-        <v>6951135</v>
+        <v>7077908</v>
       </c>
       <c r="E409" t="inlineStr">
         <is>
@@ -20014,10 +20014,10 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>5060</v>
+        <v>5105</v>
       </c>
       <c r="D410" t="n">
-        <v>7781090</v>
+        <v>7893424</v>
       </c>
       <c r="E410" t="inlineStr">
         <is>
@@ -20062,10 +20062,10 @@
         </is>
       </c>
       <c r="C411" t="n">
-        <v>13143</v>
+        <v>13267</v>
       </c>
       <c r="D411" t="n">
-        <v>20382826</v>
+        <v>20764220</v>
       </c>
       <c r="E411" t="inlineStr">
         <is>
@@ -20110,10 +20110,10 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>4962</v>
+        <v>5008</v>
       </c>
       <c r="D412" t="n">
-        <v>7868140</v>
+        <v>8023783</v>
       </c>
       <c r="E412" t="inlineStr">
         <is>
@@ -20158,10 +20158,10 @@
         </is>
       </c>
       <c r="C413" t="n">
-        <v>1632</v>
+        <v>1657</v>
       </c>
       <c r="D413" t="n">
-        <v>2652827</v>
+        <v>2750125</v>
       </c>
       <c r="E413" t="inlineStr">
         <is>
@@ -20206,10 +20206,10 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="D414" t="n">
-        <v>671454</v>
+        <v>719281</v>
       </c>
       <c r="E414" t="inlineStr">
         <is>
@@ -20302,10 +20302,10 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>4951</v>
+        <v>4991</v>
       </c>
       <c r="D416" t="n">
-        <v>6904320</v>
+        <v>6980687</v>
       </c>
       <c r="E416" t="inlineStr">
         <is>
@@ -20350,10 +20350,10 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>5304</v>
+        <v>5318</v>
       </c>
       <c r="D417" t="n">
-        <v>7751296</v>
+        <v>7787931</v>
       </c>
       <c r="E417" t="inlineStr">
         <is>
@@ -20398,10 +20398,10 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>12948</v>
+        <v>12971</v>
       </c>
       <c r="D418" t="n">
-        <v>19281008</v>
+        <v>19356855</v>
       </c>
       <c r="E418" t="inlineStr">
         <is>
@@ -20446,10 +20446,10 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>4210</v>
+        <v>4219</v>
       </c>
       <c r="D419" t="n">
-        <v>6357598</v>
+        <v>6388098</v>
       </c>
       <c r="E419" t="inlineStr">
         <is>
@@ -20494,10 +20494,10 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>1487</v>
+        <v>1490</v>
       </c>
       <c r="D420" t="n">
-        <v>2221611</v>
+        <v>2226111</v>
       </c>
       <c r="E420" t="inlineStr">
         <is>
@@ -20542,10 +20542,10 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D421" t="n">
-        <v>570512</v>
+        <v>572012</v>
       </c>
       <c r="E421" t="inlineStr">
         <is>
@@ -20686,10 +20686,10 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>6026</v>
+        <v>6045</v>
       </c>
       <c r="D424" t="n">
-        <v>8099791</v>
+        <v>8133170</v>
       </c>
       <c r="E424" t="inlineStr">
         <is>
@@ -20734,10 +20734,10 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>1920</v>
+        <v>1932</v>
       </c>
       <c r="D425" t="n">
-        <v>2820495</v>
+        <v>2843772</v>
       </c>
       <c r="E425" t="inlineStr">
         <is>
@@ -20782,10 +20782,10 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>6109</v>
+        <v>6139</v>
       </c>
       <c r="D426" t="n">
-        <v>9230878</v>
+        <v>9303867</v>
       </c>
       <c r="E426" t="inlineStr">
         <is>
@@ -20830,10 +20830,10 @@
         </is>
       </c>
       <c r="C427" t="n">
-        <v>2176</v>
+        <v>2182</v>
       </c>
       <c r="D427" t="n">
-        <v>3324357</v>
+        <v>3349191</v>
       </c>
       <c r="E427" t="inlineStr">
         <is>
@@ -20878,10 +20878,10 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D428" t="n">
-        <v>1217957</v>
+        <v>1219797</v>
       </c>
       <c r="E428" t="inlineStr">
         <is>
@@ -20926,10 +20926,10 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D429" t="n">
-        <v>399597</v>
+        <v>409758</v>
       </c>
       <c r="E429" t="inlineStr">
         <is>
@@ -21070,10 +21070,10 @@
         </is>
       </c>
       <c r="C432" t="n">
-        <v>4139</v>
+        <v>4165</v>
       </c>
       <c r="D432" t="n">
-        <v>5533699</v>
+        <v>5589115</v>
       </c>
       <c r="E432" t="inlineStr">
         <is>
@@ -21118,10 +21118,10 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="D433" t="n">
-        <v>1863288</v>
+        <v>1869288</v>
       </c>
       <c r="E433" t="inlineStr">
         <is>
@@ -21166,10 +21166,10 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="D434" t="n">
-        <v>1356212</v>
+        <v>1385476</v>
       </c>
       <c r="E434" t="inlineStr">
         <is>
@@ -21358,10 +21358,10 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D438" t="n">
-        <v>20490</v>
+        <v>25485</v>
       </c>
       <c r="E438" t="inlineStr">
         <is>
@@ -21406,10 +21406,10 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>3611</v>
+        <v>3641</v>
       </c>
       <c r="D439" t="n">
-        <v>5418908</v>
+        <v>5474116</v>
       </c>
       <c r="E439" t="inlineStr">
         <is>
@@ -21454,10 +21454,10 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>8164</v>
+        <v>8217</v>
       </c>
       <c r="D440" t="n">
-        <v>12316233</v>
+        <v>12479754</v>
       </c>
       <c r="E440" t="inlineStr">
         <is>
@@ -21502,10 +21502,10 @@
         </is>
       </c>
       <c r="C441" t="n">
-        <v>2747</v>
+        <v>2764</v>
       </c>
       <c r="D441" t="n">
-        <v>4285198</v>
+        <v>4342767</v>
       </c>
       <c r="E441" t="inlineStr">
         <is>
@@ -21550,10 +21550,10 @@
         </is>
       </c>
       <c r="C442" t="n">
-        <v>836</v>
+        <v>851</v>
       </c>
       <c r="D442" t="n">
-        <v>1370762</v>
+        <v>1428740</v>
       </c>
       <c r="E442" t="inlineStr">
         <is>
@@ -21598,10 +21598,10 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D443" t="n">
-        <v>279884</v>
+        <v>284882</v>
       </c>
       <c r="E443" t="inlineStr">
         <is>
@@ -21646,10 +21646,10 @@
         </is>
       </c>
       <c r="C444" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D444" t="n">
-        <v>36000</v>
+        <v>37500</v>
       </c>
       <c r="E444" t="inlineStr">
         <is>
@@ -21694,10 +21694,10 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>2682</v>
+        <v>2696</v>
       </c>
       <c r="D445" t="n">
-        <v>3601194</v>
+        <v>3624251</v>
       </c>
       <c r="E445" t="inlineStr">
         <is>
@@ -21742,10 +21742,10 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>2066</v>
+        <v>2088</v>
       </c>
       <c r="D446" t="n">
-        <v>3173855</v>
+        <v>3246496</v>
       </c>
       <c r="E446" t="inlineStr">
         <is>
@@ -21790,10 +21790,10 @@
         </is>
       </c>
       <c r="C447" t="n">
-        <v>5430</v>
+        <v>5448</v>
       </c>
       <c r="D447" t="n">
-        <v>8161463</v>
+        <v>8215427</v>
       </c>
       <c r="E447" t="inlineStr">
         <is>
@@ -21838,10 +21838,10 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>1777</v>
+        <v>1786</v>
       </c>
       <c r="D448" t="n">
-        <v>2688885</v>
+        <v>2705850</v>
       </c>
       <c r="E448" t="inlineStr">
         <is>
@@ -21886,10 +21886,10 @@
         </is>
       </c>
       <c r="C449" t="n">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D449" t="n">
-        <v>683244</v>
+        <v>690906</v>
       </c>
       <c r="E449" t="inlineStr">
         <is>
@@ -21934,10 +21934,10 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D450" t="n">
-        <v>107166</v>
+        <v>108666</v>
       </c>
       <c r="E450" t="inlineStr">
         <is>
@@ -22078,10 +22078,10 @@
         </is>
       </c>
       <c r="C453" t="n">
-        <v>1878</v>
+        <v>1886</v>
       </c>
       <c r="D453" t="n">
-        <v>2455401</v>
+        <v>2459854</v>
       </c>
       <c r="E453" t="inlineStr">
         <is>
@@ -22126,10 +22126,10 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>2303</v>
+        <v>2326</v>
       </c>
       <c r="D454" t="n">
-        <v>3432490</v>
+        <v>3495414</v>
       </c>
       <c r="E454" t="inlineStr">
         <is>
@@ -22174,10 +22174,10 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>5345</v>
+        <v>5375</v>
       </c>
       <c r="D455" t="n">
-        <v>7924329</v>
+        <v>7993310</v>
       </c>
       <c r="E455" t="inlineStr">
         <is>
@@ -22222,10 +22222,10 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>1667</v>
+        <v>1675</v>
       </c>
       <c r="D456" t="n">
-        <v>2510639</v>
+        <v>2517613</v>
       </c>
       <c r="E456" t="inlineStr">
         <is>
@@ -22270,10 +22270,10 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="D457" t="n">
-        <v>743154</v>
+        <v>748986</v>
       </c>
       <c r="E457" t="inlineStr">
         <is>
@@ -22318,10 +22318,10 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D458" t="n">
-        <v>136527</v>
+        <v>147516</v>
       </c>
       <c r="E458" t="inlineStr">
         <is>
@@ -22462,10 +22462,10 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>1793</v>
+        <v>1799</v>
       </c>
       <c r="D461" t="n">
-        <v>2353990</v>
+        <v>2370323</v>
       </c>
       <c r="E461" t="inlineStr">
         <is>
@@ -22510,10 +22510,10 @@
         </is>
       </c>
       <c r="C462" t="n">
-        <v>1073</v>
+        <v>1081</v>
       </c>
       <c r="D462" t="n">
-        <v>1560278</v>
+        <v>1569648</v>
       </c>
       <c r="E462" t="inlineStr">
         <is>
@@ -22558,10 +22558,10 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>2936</v>
+        <v>2949</v>
       </c>
       <c r="D463" t="n">
-        <v>4299641</v>
+        <v>4308867</v>
       </c>
       <c r="E463" t="inlineStr">
         <is>
@@ -22606,10 +22606,10 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="D464" t="n">
-        <v>1268148</v>
+        <v>1271814</v>
       </c>
       <c r="E464" t="inlineStr">
         <is>
@@ -22750,10 +22750,10 @@
         </is>
       </c>
       <c r="C467" t="n">
-        <v>1168</v>
+        <v>1172</v>
       </c>
       <c r="D467" t="n">
-        <v>1569669</v>
+        <v>1572929</v>
       </c>
       <c r="E467" t="inlineStr">
         <is>
@@ -22798,10 +22798,10 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>3545</v>
+        <v>3568</v>
       </c>
       <c r="D468" t="n">
-        <v>5307663</v>
+        <v>5352593</v>
       </c>
       <c r="E468" t="inlineStr">
         <is>
@@ -22846,10 +22846,10 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>10566</v>
+        <v>10644</v>
       </c>
       <c r="D469" t="n">
-        <v>16074012</v>
+        <v>16257217</v>
       </c>
       <c r="E469" t="inlineStr">
         <is>
@@ -22894,10 +22894,10 @@
         </is>
       </c>
       <c r="C470" t="n">
-        <v>3817</v>
+        <v>3845</v>
       </c>
       <c r="D470" t="n">
-        <v>5852158</v>
+        <v>5917673</v>
       </c>
       <c r="E470" t="inlineStr">
         <is>
@@ -22942,10 +22942,10 @@
         </is>
       </c>
       <c r="C471" t="n">
-        <v>1078</v>
+        <v>1091</v>
       </c>
       <c r="D471" t="n">
-        <v>1658533</v>
+        <v>1680554</v>
       </c>
       <c r="E471" t="inlineStr">
         <is>
@@ -22990,10 +22990,10 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="D472" t="n">
-        <v>454395</v>
+        <v>478061</v>
       </c>
       <c r="E472" t="inlineStr">
         <is>
@@ -23038,10 +23038,10 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D473" t="n">
-        <v>142994</v>
+        <v>177158</v>
       </c>
       <c r="E473" t="inlineStr">
         <is>
@@ -23086,10 +23086,10 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>3335</v>
+        <v>3353</v>
       </c>
       <c r="D474" t="n">
-        <v>4364112</v>
+        <v>4392181</v>
       </c>
       <c r="E474" t="inlineStr">
         <is>
@@ -23134,10 +23134,10 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>1398</v>
+        <v>1408</v>
       </c>
       <c r="D475" t="n">
-        <v>2025788</v>
+        <v>2045041</v>
       </c>
       <c r="E475" t="inlineStr">
         <is>
@@ -23182,10 +23182,10 @@
         </is>
       </c>
       <c r="C476" t="n">
-        <v>3558</v>
+        <v>3579</v>
       </c>
       <c r="D476" t="n">
-        <v>5230937</v>
+        <v>5272326</v>
       </c>
       <c r="E476" t="inlineStr">
         <is>
@@ -23230,10 +23230,10 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="D477" t="n">
-        <v>1687273</v>
+        <v>1688605</v>
       </c>
       <c r="E477" t="inlineStr">
         <is>
@@ -23278,10 +23278,10 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D478" t="n">
-        <v>541077</v>
+        <v>544077</v>
       </c>
       <c r="E478" t="inlineStr">
         <is>
@@ -23326,10 +23326,10 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D479" t="n">
-        <v>89166</v>
+        <v>90666</v>
       </c>
       <c r="E479" t="inlineStr">
         <is>
@@ -23422,10 +23422,10 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>1516</v>
+        <v>1523</v>
       </c>
       <c r="D481" t="n">
-        <v>1923485</v>
+        <v>1932955</v>
       </c>
       <c r="E481" t="inlineStr">
         <is>
@@ -23470,10 +23470,10 @@
         </is>
       </c>
       <c r="C482" t="n">
-        <v>4944</v>
+        <v>4974</v>
       </c>
       <c r="D482" t="n">
-        <v>7295359</v>
+        <v>7365477</v>
       </c>
       <c r="E482" t="inlineStr">
         <is>
@@ -23518,10 +23518,10 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>8919</v>
+        <v>8970</v>
       </c>
       <c r="D483" t="n">
-        <v>13175652</v>
+        <v>13279860</v>
       </c>
       <c r="E483" t="inlineStr">
         <is>
@@ -23566,10 +23566,10 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>2585</v>
+        <v>2597</v>
       </c>
       <c r="D484" t="n">
-        <v>3846300</v>
+        <v>3859519</v>
       </c>
       <c r="E484" t="inlineStr">
         <is>
@@ -23614,10 +23614,10 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="D485" t="n">
-        <v>1043247</v>
+        <v>1048413</v>
       </c>
       <c r="E485" t="inlineStr">
         <is>
@@ -23758,10 +23758,10 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>3002</v>
+        <v>3014</v>
       </c>
       <c r="D488" t="n">
-        <v>4011260</v>
+        <v>4039346</v>
       </c>
       <c r="E488" t="inlineStr">
         <is>
@@ -23806,10 +23806,10 @@
         </is>
       </c>
       <c r="C489" t="n">
-        <v>1211</v>
+        <v>1225</v>
       </c>
       <c r="D489" t="n">
-        <v>1767813</v>
+        <v>1787127</v>
       </c>
       <c r="E489" t="inlineStr">
         <is>
@@ -23854,10 +23854,10 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>2833</v>
+        <v>2846</v>
       </c>
       <c r="D490" t="n">
-        <v>4160684</v>
+        <v>4181704</v>
       </c>
       <c r="E490" t="inlineStr">
         <is>
@@ -23902,10 +23902,10 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="D491" t="n">
-        <v>1261036</v>
+        <v>1268684</v>
       </c>
       <c r="E491" t="inlineStr">
         <is>
@@ -23950,10 +23950,10 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D492" t="n">
-        <v>370274</v>
+        <v>370940</v>
       </c>
       <c r="E492" t="inlineStr">
         <is>
@@ -24094,10 +24094,10 @@
         </is>
       </c>
       <c r="C495" t="n">
-        <v>1538</v>
+        <v>1545</v>
       </c>
       <c r="D495" t="n">
-        <v>2040905</v>
+        <v>2049776</v>
       </c>
       <c r="E495" t="inlineStr">
         <is>
@@ -24142,10 +24142,10 @@
         </is>
       </c>
       <c r="C496" t="n">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D496" t="n">
-        <v>646150</v>
+        <v>650800</v>
       </c>
       <c r="E496" t="inlineStr">
         <is>
@@ -24190,10 +24190,10 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="D497" t="n">
-        <v>1720435</v>
+        <v>1722100</v>
       </c>
       <c r="E497" t="inlineStr">
         <is>
@@ -24238,10 +24238,10 @@
         </is>
       </c>
       <c r="C498" t="n">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D498" t="n">
-        <v>576918</v>
+        <v>578250</v>
       </c>
       <c r="E498" t="inlineStr">
         <is>
@@ -24430,10 +24430,10 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="D502" t="n">
-        <v>869221</v>
+        <v>878099</v>
       </c>
       <c r="E502" t="inlineStr">
         <is>
@@ -24478,10 +24478,10 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>1074</v>
+        <v>1085</v>
       </c>
       <c r="D503" t="n">
-        <v>1573389</v>
+        <v>1588943</v>
       </c>
       <c r="E503" t="inlineStr">
         <is>
@@ -24526,10 +24526,10 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>3179</v>
+        <v>3199</v>
       </c>
       <c r="D504" t="n">
-        <v>4712155</v>
+        <v>4740538</v>
       </c>
       <c r="E504" t="inlineStr">
         <is>
@@ -24574,10 +24574,10 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>1083</v>
+        <v>1095</v>
       </c>
       <c r="D505" t="n">
-        <v>1616739</v>
+        <v>1629163</v>
       </c>
       <c r="E505" t="inlineStr">
         <is>
@@ -24622,10 +24622,10 @@
         </is>
       </c>
       <c r="C506" t="n">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D506" t="n">
-        <v>425606</v>
+        <v>426938</v>
       </c>
       <c r="E506" t="inlineStr">
         <is>
@@ -24670,10 +24670,10 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D507" t="n">
-        <v>143232</v>
+        <v>145398</v>
       </c>
       <c r="E507" t="inlineStr">
         <is>
@@ -24718,10 +24718,10 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>1150</v>
+        <v>1154</v>
       </c>
       <c r="D508" t="n">
-        <v>1546921</v>
+        <v>1548250</v>
       </c>
       <c r="E508" t="inlineStr">
         <is>
@@ -24766,10 +24766,10 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>3216</v>
+        <v>3230</v>
       </c>
       <c r="D509" t="n">
-        <v>4656548</v>
+        <v>4675556</v>
       </c>
       <c r="E509" t="inlineStr">
         <is>
@@ -24814,10 +24814,10 @@
         </is>
       </c>
       <c r="C510" t="n">
-        <v>5857</v>
+        <v>5882</v>
       </c>
       <c r="D510" t="n">
-        <v>8663605</v>
+        <v>8708452</v>
       </c>
       <c r="E510" t="inlineStr">
         <is>
@@ -24862,10 +24862,10 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>1653</v>
+        <v>1658</v>
       </c>
       <c r="D511" t="n">
-        <v>2448757</v>
+        <v>2453945</v>
       </c>
       <c r="E511" t="inlineStr">
         <is>
@@ -24910,10 +24910,10 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D512" t="n">
-        <v>581168</v>
+        <v>583832</v>
       </c>
       <c r="E512" t="inlineStr">
         <is>
@@ -25054,10 +25054,10 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>2592</v>
+        <v>2597</v>
       </c>
       <c r="D515" t="n">
-        <v>3397635</v>
+        <v>3402253</v>
       </c>
       <c r="E515" t="inlineStr">
         <is>
@@ -25102,10 +25102,10 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>10260</v>
+        <v>10316</v>
       </c>
       <c r="D516" t="n">
-        <v>15279978</v>
+        <v>15454502</v>
       </c>
       <c r="E516" t="inlineStr">
         <is>
@@ -25150,10 +25150,10 @@
         </is>
       </c>
       <c r="C517" t="n">
-        <v>21163</v>
+        <v>21285</v>
       </c>
       <c r="D517" t="n">
-        <v>31877221</v>
+        <v>32137661</v>
       </c>
       <c r="E517" t="inlineStr">
         <is>
@@ -25198,10 +25198,10 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>7162</v>
+        <v>7208</v>
       </c>
       <c r="D518" t="n">
-        <v>11001726</v>
+        <v>11125530</v>
       </c>
       <c r="E518" t="inlineStr">
         <is>
@@ -25246,10 +25246,10 @@
         </is>
       </c>
       <c r="C519" t="n">
-        <v>2260</v>
+        <v>2265</v>
       </c>
       <c r="D519" t="n">
-        <v>3508502</v>
+        <v>3523668</v>
       </c>
       <c r="E519" t="inlineStr">
         <is>
@@ -25294,10 +25294,10 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="D520" t="n">
-        <v>926611</v>
+        <v>954098</v>
       </c>
       <c r="E520" t="inlineStr">
         <is>
@@ -25342,10 +25342,10 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D521" t="n">
-        <v>104832</v>
+        <v>114832</v>
       </c>
       <c r="E521" t="inlineStr">
         <is>
@@ -25486,10 +25486,10 @@
         </is>
       </c>
       <c r="C524" t="n">
-        <v>7550</v>
+        <v>7581</v>
       </c>
       <c r="D524" t="n">
-        <v>10271734</v>
+        <v>10325919</v>
       </c>
       <c r="E524" t="inlineStr">
         <is>
@@ -25534,10 +25534,10 @@
         </is>
       </c>
       <c r="C525" t="n">
-        <v>1514</v>
+        <v>1525</v>
       </c>
       <c r="D525" t="n">
-        <v>2192333</v>
+        <v>2210025</v>
       </c>
       <c r="E525" t="inlineStr">
         <is>
@@ -25582,10 +25582,10 @@
         </is>
       </c>
       <c r="C526" t="n">
-        <v>3632</v>
+        <v>3673</v>
       </c>
       <c r="D526" t="n">
-        <v>5338923</v>
+        <v>5381661</v>
       </c>
       <c r="E526" t="inlineStr">
         <is>
@@ -25630,10 +25630,10 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>1191</v>
+        <v>1199</v>
       </c>
       <c r="D527" t="n">
-        <v>1821596</v>
+        <v>1837004</v>
       </c>
       <c r="E527" t="inlineStr">
         <is>
@@ -25678,10 +25678,10 @@
         </is>
       </c>
       <c r="C528" t="n">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="D528" t="n">
-        <v>659144</v>
+        <v>680334</v>
       </c>
       <c r="E528" t="inlineStr">
         <is>
@@ -25726,10 +25726,10 @@
         </is>
       </c>
       <c r="C529" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D529" t="n">
-        <v>147328</v>
+        <v>148993</v>
       </c>
       <c r="E529" t="inlineStr">
         <is>
@@ -25822,10 +25822,10 @@
         </is>
       </c>
       <c r="C531" t="n">
-        <v>1763</v>
+        <v>1773</v>
       </c>
       <c r="D531" t="n">
-        <v>2343489</v>
+        <v>2369341</v>
       </c>
       <c r="E531" t="inlineStr">
         <is>
@@ -25870,10 +25870,10 @@
         </is>
       </c>
       <c r="C532" t="n">
-        <v>3345</v>
+        <v>3365</v>
       </c>
       <c r="D532" t="n">
-        <v>4861113</v>
+        <v>4904013</v>
       </c>
       <c r="E532" t="inlineStr">
         <is>
@@ -25918,10 +25918,10 @@
         </is>
       </c>
       <c r="C533" t="n">
-        <v>5565</v>
+        <v>5594</v>
       </c>
       <c r="D533" t="n">
-        <v>8190654</v>
+        <v>8234944</v>
       </c>
       <c r="E533" t="inlineStr">
         <is>
@@ -25966,10 +25966,10 @@
         </is>
       </c>
       <c r="C534" t="n">
-        <v>1673</v>
+        <v>1676</v>
       </c>
       <c r="D534" t="n">
-        <v>2517427</v>
+        <v>2520259</v>
       </c>
       <c r="E534" t="inlineStr">
         <is>
@@ -26014,10 +26014,10 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D535" t="n">
-        <v>688002</v>
+        <v>692608</v>
       </c>
       <c r="E535" t="inlineStr">
         <is>
@@ -26062,10 +26062,10 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D536" t="n">
-        <v>147391</v>
+        <v>148891</v>
       </c>
       <c r="E536" t="inlineStr">
         <is>
@@ -26158,10 +26158,10 @@
         </is>
       </c>
       <c r="C538" t="n">
-        <v>1832</v>
+        <v>1837</v>
       </c>
       <c r="D538" t="n">
-        <v>2414679</v>
+        <v>2419268</v>
       </c>
       <c r="E538" t="inlineStr">
         <is>
@@ -26206,10 +26206,10 @@
         </is>
       </c>
       <c r="C539" t="n">
-        <v>1857</v>
+        <v>1866</v>
       </c>
       <c r="D539" t="n">
-        <v>2717604</v>
+        <v>2727719</v>
       </c>
       <c r="E539" t="inlineStr">
         <is>
@@ -26254,10 +26254,10 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>3865</v>
+        <v>3883</v>
       </c>
       <c r="D540" t="n">
-        <v>5670366</v>
+        <v>5685498</v>
       </c>
       <c r="E540" t="inlineStr">
         <is>
@@ -26302,10 +26302,10 @@
         </is>
       </c>
       <c r="C541" t="n">
-        <v>1276</v>
+        <v>1281</v>
       </c>
       <c r="D541" t="n">
-        <v>1918627</v>
+        <v>1932959</v>
       </c>
       <c r="E541" t="inlineStr">
         <is>
@@ -26350,10 +26350,10 @@
         </is>
       </c>
       <c r="C542" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D542" t="n">
-        <v>454429</v>
+        <v>456595</v>
       </c>
       <c r="E542" t="inlineStr">
         <is>
@@ -26398,10 +26398,10 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D543" t="n">
-        <v>104832</v>
+        <v>106998</v>
       </c>
       <c r="E543" t="inlineStr">
         <is>
@@ -26494,10 +26494,10 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>1632</v>
+        <v>1637</v>
       </c>
       <c r="D545" t="n">
-        <v>2199404</v>
+        <v>2205210</v>
       </c>
       <c r="E545" t="inlineStr">
         <is>
@@ -26542,10 +26542,10 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>4374</v>
+        <v>4395</v>
       </c>
       <c r="D546" t="n">
-        <v>6450869</v>
+        <v>6518967</v>
       </c>
       <c r="E546" t="inlineStr">
         <is>
@@ -26590,10 +26590,10 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>10275</v>
+        <v>10327</v>
       </c>
       <c r="D547" t="n">
-        <v>15394404</v>
+        <v>15503695</v>
       </c>
       <c r="E547" t="inlineStr">
         <is>
@@ -26638,10 +26638,10 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>3422</v>
+        <v>3445</v>
       </c>
       <c r="D548" t="n">
-        <v>5220684</v>
+        <v>5283379</v>
       </c>
       <c r="E548" t="inlineStr">
         <is>
@@ -26734,10 +26734,10 @@
         </is>
       </c>
       <c r="C550" t="n">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D550" t="n">
-        <v>255360</v>
+        <v>271024</v>
       </c>
       <c r="E550" t="inlineStr">
         <is>
@@ -26878,10 +26878,10 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>3984</v>
+        <v>3994</v>
       </c>
       <c r="D553" t="n">
-        <v>5363406</v>
+        <v>5381610</v>
       </c>
       <c r="E553" t="inlineStr">
         <is>
@@ -26926,10 +26926,10 @@
         </is>
       </c>
       <c r="C554" t="n">
-        <v>1354</v>
+        <v>1366</v>
       </c>
       <c r="D554" t="n">
-        <v>1968052</v>
+        <v>1997516</v>
       </c>
       <c r="E554" t="inlineStr">
         <is>
@@ -26974,10 +26974,10 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>3802</v>
+        <v>3830</v>
       </c>
       <c r="D555" t="n">
-        <v>5577149</v>
+        <v>5618591</v>
       </c>
       <c r="E555" t="inlineStr">
         <is>
@@ -27022,10 +27022,10 @@
         </is>
       </c>
       <c r="C556" t="n">
-        <v>1248</v>
+        <v>1255</v>
       </c>
       <c r="D556" t="n">
-        <v>1844211</v>
+        <v>1853043</v>
       </c>
       <c r="E556" t="inlineStr">
         <is>
@@ -27070,10 +27070,10 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D557" t="n">
-        <v>566252</v>
+        <v>567752</v>
       </c>
       <c r="E557" t="inlineStr">
         <is>
@@ -27118,10 +27118,10 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D558" t="n">
-        <v>88739</v>
+        <v>90239</v>
       </c>
       <c r="E558" t="inlineStr">
         <is>
@@ -27214,10 +27214,10 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>1387</v>
+        <v>1391</v>
       </c>
       <c r="D560" t="n">
-        <v>1859147</v>
+        <v>1862864</v>
       </c>
       <c r="E560" t="inlineStr">
         <is>
@@ -27262,10 +27262,10 @@
         </is>
       </c>
       <c r="C561" t="n">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="D561" t="n">
-        <v>849308</v>
+        <v>862631</v>
       </c>
       <c r="E561" t="inlineStr">
         <is>
@@ -27310,10 +27310,10 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>2027</v>
+        <v>2039</v>
       </c>
       <c r="D562" t="n">
-        <v>3025841</v>
+        <v>3052493</v>
       </c>
       <c r="E562" t="inlineStr">
         <is>
@@ -27358,10 +27358,10 @@
         </is>
       </c>
       <c r="C563" t="n">
-        <v>717</v>
+        <v>729</v>
       </c>
       <c r="D563" t="n">
-        <v>1130913</v>
+        <v>1165501</v>
       </c>
       <c r="E563" t="inlineStr">
         <is>
@@ -27406,10 +27406,10 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D564" t="n">
-        <v>307325</v>
+        <v>307991</v>
       </c>
       <c r="E564" t="inlineStr">
         <is>
@@ -27550,10 +27550,10 @@
         </is>
       </c>
       <c r="C567" t="n">
-        <v>957</v>
+        <v>962</v>
       </c>
       <c r="D567" t="n">
-        <v>1196746</v>
+        <v>1202407</v>
       </c>
       <c r="E567" t="inlineStr">
         <is>
@@ -27598,10 +27598,10 @@
         </is>
       </c>
       <c r="C568" t="n">
-        <v>3313</v>
+        <v>3336</v>
       </c>
       <c r="D568" t="n">
-        <v>4805228</v>
+        <v>4844192</v>
       </c>
       <c r="E568" t="inlineStr">
         <is>
@@ -27646,10 +27646,10 @@
         </is>
       </c>
       <c r="C569" t="n">
-        <v>5717</v>
+        <v>5739</v>
       </c>
       <c r="D569" t="n">
-        <v>8499396</v>
+        <v>8568492</v>
       </c>
       <c r="E569" t="inlineStr">
         <is>
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>1687</v>
+        <v>1692</v>
       </c>
       <c r="D570" t="n">
-        <v>2568305</v>
+        <v>2580128</v>
       </c>
       <c r="E570" t="inlineStr">
         <is>
@@ -27742,10 +27742,10 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D571" t="n">
-        <v>743923</v>
+        <v>746923</v>
       </c>
       <c r="E571" t="inlineStr">
         <is>
@@ -27790,10 +27790,10 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D572" t="n">
-        <v>144953</v>
+        <v>145619</v>
       </c>
       <c r="E572" t="inlineStr">
         <is>
@@ -27886,10 +27886,10 @@
         </is>
       </c>
       <c r="C574" t="n">
-        <v>2079</v>
+        <v>2086</v>
       </c>
       <c r="D574" t="n">
-        <v>2724751</v>
+        <v>2732570</v>
       </c>
       <c r="E574" t="inlineStr">
         <is>
@@ -27934,10 +27934,10 @@
         </is>
       </c>
       <c r="C575" t="n">
-        <v>2050</v>
+        <v>2056</v>
       </c>
       <c r="D575" t="n">
-        <v>2989096</v>
+        <v>2996840</v>
       </c>
       <c r="E575" t="inlineStr">
         <is>
@@ -27982,10 +27982,10 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>4077</v>
+        <v>4099</v>
       </c>
       <c r="D576" t="n">
-        <v>6117144</v>
+        <v>6177725</v>
       </c>
       <c r="E576" t="inlineStr">
         <is>
@@ -28030,10 +28030,10 @@
         </is>
       </c>
       <c r="C577" t="n">
-        <v>1172</v>
+        <v>1177</v>
       </c>
       <c r="D577" t="n">
-        <v>1811404</v>
+        <v>1835004</v>
       </c>
       <c r="E577" t="inlineStr">
         <is>
@@ -28078,10 +28078,10 @@
         </is>
       </c>
       <c r="C578" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D578" t="n">
-        <v>488284</v>
+        <v>488950</v>
       </c>
       <c r="E578" t="inlineStr">
         <is>
@@ -28126,10 +28126,10 @@
         </is>
       </c>
       <c r="C579" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D579" t="n">
-        <v>156860</v>
+        <v>169349</v>
       </c>
       <c r="E579" t="inlineStr">
         <is>
@@ -28222,10 +28222,10 @@
         </is>
       </c>
       <c r="C581" t="n">
-        <v>2164</v>
+        <v>2173</v>
       </c>
       <c r="D581" t="n">
-        <v>2847175</v>
+        <v>2851846</v>
       </c>
       <c r="E581" t="inlineStr">
         <is>
@@ -28270,10 +28270,10 @@
         </is>
       </c>
       <c r="C582" t="n">
-        <v>5151</v>
+        <v>5184</v>
       </c>
       <c r="D582" t="n">
-        <v>7759140</v>
+        <v>7847818</v>
       </c>
       <c r="E582" t="inlineStr">
         <is>
@@ -28318,10 +28318,10 @@
         </is>
       </c>
       <c r="C583" t="n">
-        <v>11685</v>
+        <v>11753</v>
       </c>
       <c r="D583" t="n">
-        <v>17571246</v>
+        <v>17734090</v>
       </c>
       <c r="E583" t="inlineStr">
         <is>
@@ -28366,10 +28366,10 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>3156</v>
+        <v>3171</v>
       </c>
       <c r="D584" t="n">
-        <v>4859148</v>
+        <v>4915946</v>
       </c>
       <c r="E584" t="inlineStr">
         <is>
@@ -28414,10 +28414,10 @@
         </is>
       </c>
       <c r="C585" t="n">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="D585" t="n">
-        <v>1219413</v>
+        <v>1227741</v>
       </c>
       <c r="E585" t="inlineStr">
         <is>
@@ -28462,10 +28462,10 @@
         </is>
       </c>
       <c r="C586" t="n">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D586" t="n">
-        <v>305064</v>
+        <v>327220</v>
       </c>
       <c r="E586" t="inlineStr">
         <is>
@@ -28558,10 +28558,10 @@
         </is>
       </c>
       <c r="C588" t="n">
-        <v>4575</v>
+        <v>4602</v>
       </c>
       <c r="D588" t="n">
-        <v>6072674</v>
+        <v>6113938</v>
       </c>
       <c r="E588" t="inlineStr">
         <is>
@@ -28606,10 +28606,10 @@
         </is>
       </c>
       <c r="C589" t="n">
-        <v>1217</v>
+        <v>1228</v>
       </c>
       <c r="D589" t="n">
-        <v>1788753</v>
+        <v>1809161</v>
       </c>
       <c r="E589" t="inlineStr">
         <is>
@@ -28654,10 +28654,10 @@
         </is>
       </c>
       <c r="C590" t="n">
-        <v>2628</v>
+        <v>2642</v>
       </c>
       <c r="D590" t="n">
-        <v>3859863</v>
+        <v>3891793</v>
       </c>
       <c r="E590" t="inlineStr">
         <is>
@@ -28702,10 +28702,10 @@
         </is>
       </c>
       <c r="C591" t="n">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="D591" t="n">
-        <v>1110217</v>
+        <v>1113088</v>
       </c>
       <c r="E591" t="inlineStr">
         <is>
@@ -28750,10 +28750,10 @@
         </is>
       </c>
       <c r="C592" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D592" t="n">
-        <v>302403</v>
+        <v>303903</v>
       </c>
       <c r="E592" t="inlineStr">
         <is>
@@ -28798,10 +28798,10 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D593" t="n">
-        <v>121067</v>
+        <v>130715</v>
       </c>
       <c r="E593" t="inlineStr">
         <is>
@@ -28846,10 +28846,10 @@
         </is>
       </c>
       <c r="C594" t="n">
-        <v>1414</v>
+        <v>1418</v>
       </c>
       <c r="D594" t="n">
-        <v>1847669</v>
+        <v>1850756</v>
       </c>
       <c r="E594" t="inlineStr">
         <is>
@@ -28894,10 +28894,10 @@
         </is>
       </c>
       <c r="C595" t="n">
-        <v>7417</v>
+        <v>7464</v>
       </c>
       <c r="D595" t="n">
-        <v>11109928</v>
+        <v>11214036</v>
       </c>
       <c r="E595" t="inlineStr">
         <is>
@@ -28942,10 +28942,10 @@
         </is>
       </c>
       <c r="C596" t="n">
-        <v>17503</v>
+        <v>17630</v>
       </c>
       <c r="D596" t="n">
-        <v>26832110</v>
+        <v>27198261</v>
       </c>
       <c r="E596" t="inlineStr">
         <is>
@@ -28990,10 +28990,10 @@
         </is>
       </c>
       <c r="C597" t="n">
-        <v>6189</v>
+        <v>6237</v>
       </c>
       <c r="D597" t="n">
-        <v>10123754</v>
+        <v>10381615</v>
       </c>
       <c r="E597" t="inlineStr">
         <is>
@@ -29038,10 +29038,10 @@
         </is>
       </c>
       <c r="C598" t="n">
-        <v>1919</v>
+        <v>1933</v>
       </c>
       <c r="D598" t="n">
-        <v>3116767</v>
+        <v>3181415</v>
       </c>
       <c r="E598" t="inlineStr">
         <is>
@@ -29086,10 +29086,10 @@
         </is>
       </c>
       <c r="C599" t="n">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="D599" t="n">
-        <v>786888</v>
+        <v>810554</v>
       </c>
       <c r="E599" t="inlineStr">
         <is>
@@ -29230,10 +29230,10 @@
         </is>
       </c>
       <c r="C602" t="n">
-        <v>6921</v>
+        <v>6970</v>
       </c>
       <c r="D602" t="n">
-        <v>9287853</v>
+        <v>9363209</v>
       </c>
       <c r="E602" t="inlineStr">
         <is>
@@ -29278,10 +29278,10 @@
         </is>
       </c>
       <c r="C603" t="n">
-        <v>2031</v>
+        <v>2053</v>
       </c>
       <c r="D603" t="n">
-        <v>3113874</v>
+        <v>3148366</v>
       </c>
       <c r="E603" t="inlineStr">
         <is>
@@ -29326,10 +29326,10 @@
         </is>
       </c>
       <c r="C604" t="n">
-        <v>3822</v>
+        <v>3850</v>
       </c>
       <c r="D604" t="n">
-        <v>5854502</v>
+        <v>5937518</v>
       </c>
       <c r="E604" t="inlineStr">
         <is>
@@ -29374,10 +29374,10 @@
         </is>
       </c>
       <c r="C605" t="n">
-        <v>1242</v>
+        <v>1252</v>
       </c>
       <c r="D605" t="n">
-        <v>2033323</v>
+        <v>2091582</v>
       </c>
       <c r="E605" t="inlineStr">
         <is>
@@ -29422,10 +29422,10 @@
         </is>
       </c>
       <c r="C606" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D606" t="n">
-        <v>546398</v>
+        <v>556398</v>
       </c>
       <c r="E606" t="inlineStr">
         <is>
@@ -29470,10 +29470,10 @@
         </is>
       </c>
       <c r="C607" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D607" t="n">
-        <v>179685</v>
+        <v>181906</v>
       </c>
       <c r="E607" t="inlineStr">
         <is>
@@ -29566,10 +29566,10 @@
         </is>
       </c>
       <c r="C609" t="n">
-        <v>2107</v>
+        <v>2120</v>
       </c>
       <c r="D609" t="n">
-        <v>2879305</v>
+        <v>2911326</v>
       </c>
       <c r="E609" t="inlineStr">
         <is>
@@ -29614,10 +29614,10 @@
         </is>
       </c>
       <c r="C610" t="n">
-        <v>10168</v>
+        <v>10243</v>
       </c>
       <c r="D610" t="n">
-        <v>15453820</v>
+        <v>15699165</v>
       </c>
       <c r="E610" t="inlineStr">
         <is>
@@ -29662,10 +29662,10 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>20999</v>
+        <v>21148</v>
       </c>
       <c r="D611" t="n">
-        <v>32139780</v>
+        <v>32561119</v>
       </c>
       <c r="E611" t="inlineStr">
         <is>
@@ -29710,10 +29710,10 @@
         </is>
       </c>
       <c r="C612" t="n">
-        <v>6169</v>
+        <v>6201</v>
       </c>
       <c r="D612" t="n">
-        <v>9731679</v>
+        <v>9837126</v>
       </c>
       <c r="E612" t="inlineStr">
         <is>
@@ -29758,10 +29758,10 @@
         </is>
       </c>
       <c r="C613" t="n">
-        <v>1631</v>
+        <v>1643</v>
       </c>
       <c r="D613" t="n">
-        <v>2645717</v>
+        <v>2704872</v>
       </c>
       <c r="E613" t="inlineStr">
         <is>
@@ -29806,10 +29806,10 @@
         </is>
       </c>
       <c r="C614" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D614" t="n">
-        <v>640904</v>
+        <v>661893</v>
       </c>
       <c r="E614" t="inlineStr">
         <is>
@@ -29902,10 +29902,10 @@
         </is>
       </c>
       <c r="C616" t="n">
-        <v>6808</v>
+        <v>6846</v>
       </c>
       <c r="D616" t="n">
-        <v>9201551</v>
+        <v>9281001</v>
       </c>
       <c r="E616" t="inlineStr">
         <is>
@@ -29950,10 +29950,10 @@
         </is>
       </c>
       <c r="C617" t="n">
-        <v>1456</v>
+        <v>1462</v>
       </c>
       <c r="D617" t="n">
-        <v>2108555</v>
+        <v>2122645</v>
       </c>
       <c r="E617" t="inlineStr">
         <is>
@@ -29998,10 +29998,10 @@
         </is>
       </c>
       <c r="C618" t="n">
-        <v>2530</v>
+        <v>2542</v>
       </c>
       <c r="D618" t="n">
-        <v>3749633</v>
+        <v>3781276</v>
       </c>
       <c r="E618" t="inlineStr">
         <is>
@@ -30046,10 +30046,10 @@
         </is>
       </c>
       <c r="C619" t="n">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="D619" t="n">
-        <v>1049003</v>
+        <v>1054169</v>
       </c>
       <c r="E619" t="inlineStr">
         <is>
@@ -30094,10 +30094,10 @@
         </is>
       </c>
       <c r="C620" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D620" t="n">
-        <v>272477</v>
+        <v>283977</v>
       </c>
       <c r="E620" t="inlineStr">
         <is>
@@ -30142,10 +30142,10 @@
         </is>
       </c>
       <c r="C621" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D621" t="n">
-        <v>42130</v>
+        <v>42796</v>
       </c>
       <c r="E621" t="inlineStr">
         <is>
@@ -30238,10 +30238,10 @@
         </is>
       </c>
       <c r="C623" t="n">
-        <v>1336</v>
+        <v>1343</v>
       </c>
       <c r="D623" t="n">
-        <v>1753332</v>
+        <v>1761643</v>
       </c>
       <c r="E623" t="inlineStr">
         <is>
@@ -30286,10 +30286,10 @@
         </is>
       </c>
       <c r="C624" t="n">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="D624" t="n">
-        <v>1132620</v>
+        <v>1139012</v>
       </c>
       <c r="E624" t="inlineStr">
         <is>
@@ -30334,10 +30334,10 @@
         </is>
       </c>
       <c r="C625" t="n">
-        <v>1184</v>
+        <v>1191</v>
       </c>
       <c r="D625" t="n">
-        <v>1712758</v>
+        <v>1719824</v>
       </c>
       <c r="E625" t="inlineStr">
         <is>
@@ -30574,10 +30574,10 @@
         </is>
       </c>
       <c r="C630" t="n">
-        <v>4662</v>
+        <v>4686</v>
       </c>
       <c r="D630" t="n">
-        <v>6898316</v>
+        <v>6935279</v>
       </c>
       <c r="E630" t="inlineStr">
         <is>
@@ -30622,10 +30622,10 @@
         </is>
       </c>
       <c r="C631" t="n">
-        <v>7469</v>
+        <v>7507</v>
       </c>
       <c r="D631" t="n">
-        <v>11166711</v>
+        <v>11263574</v>
       </c>
       <c r="E631" t="inlineStr">
         <is>
@@ -30670,10 +30670,10 @@
         </is>
       </c>
       <c r="C632" t="n">
-        <v>2282</v>
+        <v>2293</v>
       </c>
       <c r="D632" t="n">
-        <v>3497317</v>
+        <v>3519046</v>
       </c>
       <c r="E632" t="inlineStr">
         <is>
@@ -30718,10 +30718,10 @@
         </is>
       </c>
       <c r="C633" t="n">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D633" t="n">
-        <v>954791</v>
+        <v>955457</v>
       </c>
       <c r="E633" t="inlineStr">
         <is>
@@ -30862,10 +30862,10 @@
         </is>
       </c>
       <c r="C636" t="n">
-        <v>2855</v>
+        <v>2869</v>
       </c>
       <c r="D636" t="n">
-        <v>3802001</v>
+        <v>3826641</v>
       </c>
       <c r="E636" t="inlineStr">
         <is>
@@ -30910,10 +30910,10 @@
         </is>
       </c>
       <c r="C637" t="n">
-        <v>1972</v>
+        <v>1984</v>
       </c>
       <c r="D637" t="n">
-        <v>2931254</v>
+        <v>2960077</v>
       </c>
       <c r="E637" t="inlineStr">
         <is>
@@ -30958,10 +30958,10 @@
         </is>
       </c>
       <c r="C638" t="n">
-        <v>4672</v>
+        <v>4704</v>
       </c>
       <c r="D638" t="n">
-        <v>7058381</v>
+        <v>7154882</v>
       </c>
       <c r="E638" t="inlineStr">
         <is>
@@ -31006,10 +31006,10 @@
         </is>
       </c>
       <c r="C639" t="n">
-        <v>1408</v>
+        <v>1424</v>
       </c>
       <c r="D639" t="n">
-        <v>2184869</v>
+        <v>2252859</v>
       </c>
       <c r="E639" t="inlineStr">
         <is>
@@ -31054,10 +31054,10 @@
         </is>
       </c>
       <c r="C640" t="n">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D640" t="n">
-        <v>544696</v>
+        <v>557528</v>
       </c>
       <c r="E640" t="inlineStr">
         <is>
@@ -31102,10 +31102,10 @@
         </is>
       </c>
       <c r="C641" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D641" t="n">
-        <v>114930</v>
+        <v>117096</v>
       </c>
       <c r="E641" t="inlineStr">
         <is>
@@ -31198,10 +31198,10 @@
         </is>
       </c>
       <c r="C643" t="n">
-        <v>1977</v>
+        <v>1990</v>
       </c>
       <c r="D643" t="n">
-        <v>2605111</v>
+        <v>2627528</v>
       </c>
       <c r="E643" t="inlineStr">
         <is>
@@ -31246,10 +31246,10 @@
         </is>
       </c>
       <c r="C644" t="n">
-        <v>1284</v>
+        <v>1290</v>
       </c>
       <c r="D644" t="n">
-        <v>1875543</v>
+        <v>1893381</v>
       </c>
       <c r="E644" t="inlineStr">
         <is>
@@ -31294,10 +31294,10 @@
         </is>
       </c>
       <c r="C645" t="n">
-        <v>2953</v>
+        <v>2977</v>
       </c>
       <c r="D645" t="n">
-        <v>4406589</v>
+        <v>4449075</v>
       </c>
       <c r="E645" t="inlineStr">
         <is>
@@ -31342,10 +31342,10 @@
         </is>
       </c>
       <c r="C646" t="n">
-        <v>904</v>
+        <v>909</v>
       </c>
       <c r="D646" t="n">
-        <v>1377763</v>
+        <v>1384673</v>
       </c>
       <c r="E646" t="inlineStr">
         <is>
@@ -31390,10 +31390,10 @@
         </is>
       </c>
       <c r="C647" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D647" t="n">
-        <v>368791</v>
+        <v>370291</v>
       </c>
       <c r="E647" t="inlineStr">
         <is>
@@ -31534,10 +31534,10 @@
         </is>
       </c>
       <c r="C650" t="n">
-        <v>1369</v>
+        <v>1377</v>
       </c>
       <c r="D650" t="n">
-        <v>1808428</v>
+        <v>1817550</v>
       </c>
       <c r="E650" t="inlineStr">
         <is>
@@ -31582,10 +31582,10 @@
         </is>
       </c>
       <c r="C651" t="n">
-        <v>6182</v>
+        <v>6228</v>
       </c>
       <c r="D651" t="n">
-        <v>9176635</v>
+        <v>9268598</v>
       </c>
       <c r="E651" t="inlineStr">
         <is>
@@ -31630,10 +31630,10 @@
         </is>
       </c>
       <c r="C652" t="n">
-        <v>13890</v>
+        <v>13992</v>
       </c>
       <c r="D652" t="n">
-        <v>20731658</v>
+        <v>20904961</v>
       </c>
       <c r="E652" t="inlineStr">
         <is>
@@ -31678,10 +31678,10 @@
         </is>
       </c>
       <c r="C653" t="n">
-        <v>5184</v>
+        <v>5224</v>
       </c>
       <c r="D653" t="n">
-        <v>7738729</v>
+        <v>7808820</v>
       </c>
       <c r="E653" t="inlineStr">
         <is>
@@ -31726,10 +31726,10 @@
         </is>
       </c>
       <c r="C654" t="n">
-        <v>1415</v>
+        <v>1424</v>
       </c>
       <c r="D654" t="n">
-        <v>2170750</v>
+        <v>2198357</v>
       </c>
       <c r="E654" t="inlineStr">
         <is>
@@ -31774,10 +31774,10 @@
         </is>
       </c>
       <c r="C655" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D655" t="n">
-        <v>467424</v>
+        <v>477424</v>
       </c>
       <c r="E655" t="inlineStr">
         <is>
@@ -31822,10 +31822,10 @@
         </is>
       </c>
       <c r="C656" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D656" t="n">
-        <v>60832</v>
+        <v>70832</v>
       </c>
       <c r="E656" t="inlineStr">
         <is>
@@ -31918,10 +31918,10 @@
         </is>
       </c>
       <c r="C658" t="n">
-        <v>4751</v>
+        <v>4773</v>
       </c>
       <c r="D658" t="n">
-        <v>6408153</v>
+        <v>6468777</v>
       </c>
       <c r="E658" t="inlineStr">
         <is>
@@ -31966,10 +31966,10 @@
         </is>
       </c>
       <c r="C659" t="n">
-        <v>2664</v>
+        <v>2688</v>
       </c>
       <c r="D659" t="n">
-        <v>3918564</v>
+        <v>3953251</v>
       </c>
       <c r="E659" t="inlineStr">
         <is>
@@ -32014,10 +32014,10 @@
         </is>
       </c>
       <c r="C660" t="n">
-        <v>7764</v>
+        <v>7824</v>
       </c>
       <c r="D660" t="n">
-        <v>11602127</v>
+        <v>11707609</v>
       </c>
       <c r="E660" t="inlineStr">
         <is>
@@ -32062,10 +32062,10 @@
         </is>
       </c>
       <c r="C661" t="n">
-        <v>2536</v>
+        <v>2555</v>
       </c>
       <c r="D661" t="n">
-        <v>3865961</v>
+        <v>3910832</v>
       </c>
       <c r="E661" t="inlineStr">
         <is>
@@ -32110,10 +32110,10 @@
         </is>
       </c>
       <c r="C662" t="n">
-        <v>719</v>
+        <v>728</v>
       </c>
       <c r="D662" t="n">
-        <v>1092882</v>
+        <v>1111546</v>
       </c>
       <c r="E662" t="inlineStr">
         <is>
@@ -32158,10 +32158,10 @@
         </is>
       </c>
       <c r="C663" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D663" t="n">
-        <v>264768</v>
+        <v>285434</v>
       </c>
       <c r="E663" t="inlineStr">
         <is>
@@ -32302,10 +32302,10 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>2540</v>
+        <v>2557</v>
       </c>
       <c r="D666" t="n">
-        <v>3444844</v>
+        <v>3476490</v>
       </c>
       <c r="E666" t="inlineStr">
         <is>
@@ -32350,10 +32350,10 @@
         </is>
       </c>
       <c r="C667" t="n">
-        <v>1059</v>
+        <v>1067</v>
       </c>
       <c r="D667" t="n">
-        <v>1521109</v>
+        <v>1534765</v>
       </c>
       <c r="E667" t="inlineStr">
         <is>
@@ -32398,10 +32398,10 @@
         </is>
       </c>
       <c r="C668" t="n">
-        <v>2810</v>
+        <v>2836</v>
       </c>
       <c r="D668" t="n">
-        <v>4084974</v>
+        <v>4106259</v>
       </c>
       <c r="E668" t="inlineStr">
         <is>
@@ -32446,10 +32446,10 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>923</v>
+        <v>929</v>
       </c>
       <c r="D669" t="n">
-        <v>1370612</v>
+        <v>1377110</v>
       </c>
       <c r="E669" t="inlineStr">
         <is>
@@ -32494,10 +32494,10 @@
         </is>
       </c>
       <c r="C670" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D670" t="n">
-        <v>368462</v>
+        <v>369962</v>
       </c>
       <c r="E670" t="inlineStr">
         <is>
@@ -32542,10 +32542,10 @@
         </is>
       </c>
       <c r="C671" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D671" t="n">
-        <v>52998</v>
+        <v>55164</v>
       </c>
       <c r="E671" t="inlineStr">
         <is>
@@ -32590,10 +32590,10 @@
         </is>
       </c>
       <c r="C672" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D672" t="n">
-        <v>18193</v>
+        <v>18859</v>
       </c>
       <c r="E672" t="inlineStr">
         <is>
@@ -32638,10 +32638,10 @@
         </is>
       </c>
       <c r="C673" t="n">
-        <v>950</v>
+        <v>956</v>
       </c>
       <c r="D673" t="n">
-        <v>1253759</v>
+        <v>1259974</v>
       </c>
       <c r="E673" t="inlineStr">
         <is>
@@ -32686,10 +32686,10 @@
         </is>
       </c>
       <c r="C674" t="n">
-        <v>1776</v>
+        <v>1789</v>
       </c>
       <c r="D674" t="n">
-        <v>2561663</v>
+        <v>2581852</v>
       </c>
       <c r="E674" t="inlineStr">
         <is>
@@ -32734,10 +32734,10 @@
         </is>
       </c>
       <c r="C675" t="n">
-        <v>4660</v>
+        <v>4686</v>
       </c>
       <c r="D675" t="n">
-        <v>6837237</v>
+        <v>6863919</v>
       </c>
       <c r="E675" t="inlineStr">
         <is>
@@ -32782,10 +32782,10 @@
         </is>
       </c>
       <c r="C676" t="n">
-        <v>1544</v>
+        <v>1556</v>
       </c>
       <c r="D676" t="n">
-        <v>2278759</v>
+        <v>2291254</v>
       </c>
       <c r="E676" t="inlineStr">
         <is>
@@ -32830,10 +32830,10 @@
         </is>
       </c>
       <c r="C677" t="n">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="D677" t="n">
-        <v>680393</v>
+        <v>704550</v>
       </c>
       <c r="E677" t="inlineStr">
         <is>
@@ -32878,10 +32878,10 @@
         </is>
       </c>
       <c r="C678" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D678" t="n">
-        <v>120000</v>
+        <v>121500</v>
       </c>
       <c r="E678" t="inlineStr">
         <is>
@@ -32974,10 +32974,10 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>1518</v>
+        <v>1525</v>
       </c>
       <c r="D680" t="n">
-        <v>1971634</v>
+        <v>1987127</v>
       </c>
       <c r="E680" t="inlineStr">
         <is>
@@ -33022,10 +33022,10 @@
         </is>
       </c>
       <c r="C681" t="n">
-        <v>3628</v>
+        <v>3657</v>
       </c>
       <c r="D681" t="n">
-        <v>5263179</v>
+        <v>5305658</v>
       </c>
       <c r="E681" t="inlineStr">
         <is>
@@ -33070,10 +33070,10 @@
         </is>
       </c>
       <c r="C682" t="n">
-        <v>7065</v>
+        <v>7122</v>
       </c>
       <c r="D682" t="n">
-        <v>10294500</v>
+        <v>10369217</v>
       </c>
       <c r="E682" t="inlineStr">
         <is>
@@ -33118,10 +33118,10 @@
         </is>
       </c>
       <c r="C683" t="n">
-        <v>2594</v>
+        <v>2611</v>
       </c>
       <c r="D683" t="n">
-        <v>3870345</v>
+        <v>3886365</v>
       </c>
       <c r="E683" t="inlineStr">
         <is>
@@ -33166,10 +33166,10 @@
         </is>
       </c>
       <c r="C684" t="n">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D684" t="n">
-        <v>864246</v>
+        <v>864912</v>
       </c>
       <c r="E684" t="inlineStr">
         <is>
@@ -33214,10 +33214,10 @@
         </is>
       </c>
       <c r="C685" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D685" t="n">
-        <v>151286</v>
+        <v>154286</v>
       </c>
       <c r="E685" t="inlineStr">
         <is>
@@ -33358,10 +33358,10 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>2288</v>
+        <v>2302</v>
       </c>
       <c r="D688" t="n">
-        <v>3021522</v>
+        <v>3030935</v>
       </c>
       <c r="E688" t="inlineStr">
         <is>
@@ -33406,10 +33406,10 @@
         </is>
       </c>
       <c r="C689" t="n">
-        <v>1750</v>
+        <v>1759</v>
       </c>
       <c r="D689" t="n">
-        <v>2563557</v>
+        <v>2585824</v>
       </c>
       <c r="E689" t="inlineStr">
         <is>
@@ -33454,10 +33454,10 @@
         </is>
       </c>
       <c r="C690" t="n">
-        <v>3207</v>
+        <v>3222</v>
       </c>
       <c r="D690" t="n">
-        <v>4737805</v>
+        <v>4770939</v>
       </c>
       <c r="E690" t="inlineStr">
         <is>
@@ -33502,10 +33502,10 @@
         </is>
       </c>
       <c r="C691" t="n">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="D691" t="n">
-        <v>1337116</v>
+        <v>1342282</v>
       </c>
       <c r="E691" t="inlineStr">
         <is>
@@ -33550,10 +33550,10 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D692" t="n">
-        <v>304488</v>
+        <v>314429</v>
       </c>
       <c r="E692" t="inlineStr">
         <is>
@@ -33598,10 +33598,10 @@
         </is>
       </c>
       <c r="C693" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D693" t="n">
-        <v>71998</v>
+        <v>72997</v>
       </c>
       <c r="E693" t="inlineStr">
         <is>
@@ -33694,10 +33694,10 @@
         </is>
       </c>
       <c r="C695" t="n">
-        <v>1359</v>
+        <v>1367</v>
       </c>
       <c r="D695" t="n">
-        <v>1795070</v>
+        <v>1805204</v>
       </c>
       <c r="E695" t="inlineStr">
         <is>
@@ -33742,10 +33742,10 @@
         </is>
       </c>
       <c r="C696" t="n">
-        <v>10795</v>
+        <v>10898</v>
       </c>
       <c r="D696" t="n">
-        <v>16750837</v>
+        <v>17099034</v>
       </c>
       <c r="E696" t="inlineStr">
         <is>
@@ -33790,10 +33790,10 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>24697</v>
+        <v>24898</v>
       </c>
       <c r="D697" t="n">
-        <v>38958447</v>
+        <v>39723567</v>
       </c>
       <c r="E697" t="inlineStr">
         <is>
@@ -33838,10 +33838,10 @@
         </is>
       </c>
       <c r="C698" t="n">
-        <v>7317</v>
+        <v>7378</v>
       </c>
       <c r="D698" t="n">
-        <v>11905354</v>
+        <v>12135550</v>
       </c>
       <c r="E698" t="inlineStr">
         <is>
@@ -33886,10 +33886,10 @@
         </is>
       </c>
       <c r="C699" t="n">
-        <v>2163</v>
+        <v>2186</v>
       </c>
       <c r="D699" t="n">
-        <v>3642177</v>
+        <v>3733988</v>
       </c>
       <c r="E699" t="inlineStr">
         <is>
@@ -33934,10 +33934,10 @@
         </is>
       </c>
       <c r="C700" t="n">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="D700" t="n">
-        <v>1023895</v>
+        <v>1036727</v>
       </c>
       <c r="E700" t="inlineStr">
         <is>
@@ -34078,10 +34078,10 @@
         </is>
       </c>
       <c r="C703" t="n">
-        <v>8793</v>
+        <v>8852</v>
       </c>
       <c r="D703" t="n">
-        <v>12181624</v>
+        <v>12308514</v>
       </c>
       <c r="E703" t="inlineStr">
         <is>
@@ -34126,10 +34126,10 @@
         </is>
       </c>
       <c r="C704" t="n">
-        <v>12708</v>
+        <v>12806</v>
       </c>
       <c r="D704" t="n">
-        <v>19368109</v>
+        <v>19644792</v>
       </c>
       <c r="E704" t="inlineStr">
         <is>
@@ -34174,10 +34174,10 @@
         </is>
       </c>
       <c r="C705" t="n">
-        <v>34068</v>
+        <v>34336</v>
       </c>
       <c r="D705" t="n">
-        <v>53172356</v>
+        <v>54117514</v>
       </c>
       <c r="E705" t="inlineStr">
         <is>
@@ -34222,10 +34222,10 @@
         </is>
       </c>
       <c r="C706" t="n">
-        <v>10823</v>
+        <v>10897</v>
       </c>
       <c r="D706" t="n">
-        <v>17762562</v>
+        <v>18065711</v>
       </c>
       <c r="E706" t="inlineStr">
         <is>
@@ -34270,10 +34270,10 @@
         </is>
       </c>
       <c r="C707" t="n">
-        <v>2992</v>
+        <v>3020</v>
       </c>
       <c r="D707" t="n">
-        <v>5117626</v>
+        <v>5286421</v>
       </c>
       <c r="E707" t="inlineStr">
         <is>
@@ -34318,10 +34318,10 @@
         </is>
       </c>
       <c r="C708" t="n">
-        <v>852</v>
+        <v>862</v>
       </c>
       <c r="D708" t="n">
-        <v>1571546</v>
+        <v>1619867</v>
       </c>
       <c r="E708" t="inlineStr">
         <is>
@@ -34366,10 +34366,10 @@
         </is>
       </c>
       <c r="C709" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D709" t="n">
-        <v>189156</v>
+        <v>205156</v>
       </c>
       <c r="E709" t="inlineStr">
         <is>
@@ -34414,10 +34414,10 @@
         </is>
       </c>
       <c r="C710" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D710" t="n">
-        <v>36500</v>
+        <v>46500</v>
       </c>
       <c r="E710" t="inlineStr">
         <is>
@@ -34462,10 +34462,10 @@
         </is>
       </c>
       <c r="C711" t="n">
-        <v>10844</v>
+        <v>10919</v>
       </c>
       <c r="D711" t="n">
-        <v>14707291</v>
+        <v>14830745</v>
       </c>
       <c r="E711" t="inlineStr">
         <is>
@@ -34510,10 +34510,10 @@
         </is>
       </c>
       <c r="C712" t="n">
-        <v>1517</v>
+        <v>1526</v>
       </c>
       <c r="D712" t="n">
-        <v>2277127</v>
+        <v>2307483</v>
       </c>
       <c r="E712" t="inlineStr">
         <is>
@@ -34558,10 +34558,10 @@
         </is>
       </c>
       <c r="C713" t="n">
-        <v>3094</v>
+        <v>3107</v>
       </c>
       <c r="D713" t="n">
-        <v>4744636</v>
+        <v>4780958</v>
       </c>
       <c r="E713" t="inlineStr">
         <is>
@@ -34606,10 +34606,10 @@
         </is>
       </c>
       <c r="C714" t="n">
-        <v>1202</v>
+        <v>1210</v>
       </c>
       <c r="D714" t="n">
-        <v>1891283</v>
+        <v>1923975</v>
       </c>
       <c r="E714" t="inlineStr">
         <is>
@@ -34654,10 +34654,10 @@
         </is>
       </c>
       <c r="C715" t="n">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D715" t="n">
-        <v>547348</v>
+        <v>561014</v>
       </c>
       <c r="E715" t="inlineStr">
         <is>
@@ -34798,10 +34798,10 @@
         </is>
       </c>
       <c r="C718" t="n">
-        <v>2319</v>
+        <v>2337</v>
       </c>
       <c r="D718" t="n">
-        <v>3194678</v>
+        <v>3221370</v>
       </c>
       <c r="E718" t="inlineStr">
         <is>
@@ -34846,10 +34846,10 @@
         </is>
       </c>
       <c r="C719" t="n">
-        <v>10301</v>
+        <v>10369</v>
       </c>
       <c r="D719" t="n">
-        <v>15276166</v>
+        <v>15463717</v>
       </c>
       <c r="E719" t="inlineStr">
         <is>
@@ -34894,10 +34894,10 @@
         </is>
       </c>
       <c r="C720" t="n">
-        <v>18898</v>
+        <v>19007</v>
       </c>
       <c r="D720" t="n">
-        <v>28372024</v>
+        <v>28642656</v>
       </c>
       <c r="E720" t="inlineStr">
         <is>
@@ -34942,10 +34942,10 @@
         </is>
       </c>
       <c r="C721" t="n">
-        <v>5195</v>
+        <v>5224</v>
       </c>
       <c r="D721" t="n">
-        <v>7958491</v>
+        <v>8019065</v>
       </c>
       <c r="E721" t="inlineStr">
         <is>
@@ -34990,10 +34990,10 @@
         </is>
       </c>
       <c r="C722" t="n">
-        <v>1276</v>
+        <v>1288</v>
       </c>
       <c r="D722" t="n">
-        <v>2030609</v>
+        <v>2088251</v>
       </c>
       <c r="E722" t="inlineStr">
         <is>
@@ -35038,10 +35038,10 @@
         </is>
       </c>
       <c r="C723" t="n">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D723" t="n">
-        <v>408802</v>
+        <v>423134</v>
       </c>
       <c r="E723" t="inlineStr">
         <is>
@@ -35182,10 +35182,10 @@
         </is>
       </c>
       <c r="C726" t="n">
-        <v>6231</v>
+        <v>6268</v>
       </c>
       <c r="D726" t="n">
-        <v>8421249</v>
+        <v>8475812</v>
       </c>
       <c r="E726" t="inlineStr">
         <is>
@@ -35230,10 +35230,10 @@
         </is>
       </c>
       <c r="C727" t="n">
-        <v>4546</v>
+        <v>4583</v>
       </c>
       <c r="D727" t="n">
-        <v>6852250</v>
+        <v>6968917</v>
       </c>
       <c r="E727" t="inlineStr">
         <is>
@@ -35278,10 +35278,10 @@
         </is>
       </c>
       <c r="C728" t="n">
-        <v>11154</v>
+        <v>11219</v>
       </c>
       <c r="D728" t="n">
-        <v>16904332</v>
+        <v>17055865</v>
       </c>
       <c r="E728" t="inlineStr">
         <is>
@@ -35326,10 +35326,10 @@
         </is>
       </c>
       <c r="C729" t="n">
-        <v>3025</v>
+        <v>3046</v>
       </c>
       <c r="D729" t="n">
-        <v>4657774</v>
+        <v>4735706</v>
       </c>
       <c r="E729" t="inlineStr">
         <is>
@@ -35374,10 +35374,10 @@
         </is>
       </c>
       <c r="C730" t="n">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="D730" t="n">
-        <v>1125607</v>
+        <v>1134919</v>
       </c>
       <c r="E730" t="inlineStr">
         <is>
@@ -35422,10 +35422,10 @@
         </is>
       </c>
       <c r="C731" t="n">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D731" t="n">
-        <v>344998</v>
+        <v>364998</v>
       </c>
       <c r="E731" t="inlineStr">
         <is>
@@ -35518,10 +35518,10 @@
         </is>
       </c>
       <c r="C733" t="n">
-        <v>3584</v>
+        <v>3603</v>
       </c>
       <c r="D733" t="n">
-        <v>4728006</v>
+        <v>4760041</v>
       </c>
       <c r="E733" t="inlineStr">
         <is>
